--- a/OR1_1219/OR1-1219_RawTypingFile.xlsx
+++ b/OR1_1219/OR1-1219_RawTypingFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\Data\Sorting data\OR1_1219\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\Sorting data\OR1_1219\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8D06A1-4401-4D57-877B-9335E2C8F4AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B57822D-A4BA-4116-ABEB-9BD454669872}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7500" activeTab="2" xr2:uid="{D8F2AAA5-A412-43E8-BCFA-133F9EDFD9C7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4631" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4636" uniqueCount="99">
   <si>
     <t>C</t>
   </si>
@@ -705,7 +705,7 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -868,7 +868,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -1283,15 +1283,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE59AD6-7388-4D47-B984-01E3632EA26A}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q831"/>
+  <dimension ref="A1:Q832"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q156" sqref="Q156"/>
+      <pane ySplit="1" topLeftCell="A818" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J832" sqref="J832"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
@@ -1346,7 +1345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -1378,7 +1377,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -1410,7 +1409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1439,7 +1438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1468,7 +1467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -1500,7 +1499,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -1529,7 +1528,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -1558,7 +1557,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -1590,7 +1589,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -1622,7 +1621,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -1654,7 +1653,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -1686,7 +1685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -1718,7 +1717,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -1750,7 +1749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -1782,7 +1781,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -1814,7 +1813,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -1846,7 +1845,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -1878,7 +1877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -1910,7 +1909,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -1942,7 +1941,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -1974,7 +1973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2006,7 +2005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -2038,7 +2037,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -2070,7 +2069,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2102,7 +2101,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -2134,7 +2133,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -2166,7 +2165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -2198,7 +2197,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -2230,7 +2229,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -2262,7 +2261,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1">
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -2294,7 +2293,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -2326,7 +2325,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -2358,7 +2357,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -2390,7 +2389,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1">
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -2422,7 +2421,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -2454,7 +2453,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -2486,7 +2485,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -2518,7 +2517,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1">
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -2550,7 +2549,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -2614,7 +2613,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1">
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -2646,7 +2645,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1">
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -2678,7 +2677,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -2710,7 +2709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>81</v>
       </c>
@@ -2742,7 +2741,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1">
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -2774,7 +2773,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1">
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -2806,7 +2805,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1">
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -2838,7 +2837,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1">
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -2870,7 +2869,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1">
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -2902,7 +2901,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1">
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -2934,7 +2933,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1">
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>81</v>
       </c>
@@ -2966,7 +2965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1">
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -2998,7 +2997,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1">
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -3030,7 +3029,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1">
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -3062,7 +3061,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1">
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -3094,7 +3093,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1">
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
         <v>81</v>
       </c>
@@ -3126,7 +3125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1">
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
         <v>81</v>
       </c>
@@ -3158,7 +3157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1">
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
         <v>81</v>
       </c>
@@ -3190,7 +3189,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1">
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -3222,7 +3221,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1">
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -3254,7 +3253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1">
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -3286,7 +3285,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1">
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -3318,7 +3317,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1">
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -3350,7 +3349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1">
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
         <v>81</v>
       </c>
@@ -3382,7 +3381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1">
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -3414,7 +3413,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1">
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -3446,7 +3445,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1">
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -3478,7 +3477,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1">
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -3510,7 +3509,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1">
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -3542,7 +3541,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1">
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -3574,7 +3573,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1">
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -3606,7 +3605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1">
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -3638,7 +3637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1">
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -3670,7 +3669,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1">
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3702,7 +3701,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1">
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -3734,7 +3733,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1">
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -3766,7 +3765,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1">
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -3795,7 +3794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1">
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -3824,7 +3823,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1">
+    <row r="80" spans="1:17">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -3853,7 +3852,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1">
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -3882,7 +3881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1">
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -3911,7 +3910,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1">
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -3940,7 +3939,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1">
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -3969,7 +3968,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1">
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -3998,7 +3997,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1">
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
         <v>81</v>
       </c>
@@ -4027,7 +4026,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1">
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -4056,7 +4055,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1">
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>81</v>
       </c>
@@ -4085,7 +4084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1">
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
         <v>81</v>
       </c>
@@ -4114,7 +4113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1">
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>81</v>
       </c>
@@ -4143,7 +4142,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1">
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>81</v>
       </c>
@@ -4172,7 +4171,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1">
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
         <v>81</v>
       </c>
@@ -4201,7 +4200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1">
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>81</v>
       </c>
@@ -4230,7 +4229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1">
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>81</v>
       </c>
@@ -4259,7 +4258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1">
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>81</v>
       </c>
@@ -4288,7 +4287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1">
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
         <v>81</v>
       </c>
@@ -4317,7 +4316,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="97" spans="1:17" hidden="1">
+    <row r="97" spans="1:17">
       <c r="A97" t="s">
         <v>81</v>
       </c>
@@ -4346,7 +4345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:17" hidden="1">
+    <row r="98" spans="1:17">
       <c r="A98" t="s">
         <v>81</v>
       </c>
@@ -4375,7 +4374,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="99" spans="1:17" hidden="1">
+    <row r="99" spans="1:17">
       <c r="A99" t="s">
         <v>81</v>
       </c>
@@ -4404,7 +4403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:17" hidden="1">
+    <row r="100" spans="1:17">
       <c r="A100" t="s">
         <v>81</v>
       </c>
@@ -4433,7 +4432,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="101" spans="1:17" hidden="1">
+    <row r="101" spans="1:17">
       <c r="A101" t="s">
         <v>81</v>
       </c>
@@ -4465,7 +4464,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:17" hidden="1">
+    <row r="102" spans="1:17">
       <c r="A102" t="s">
         <v>81</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="103" spans="1:17" hidden="1">
+    <row r="103" spans="1:17">
       <c r="A103" t="s">
         <v>81</v>
       </c>
@@ -4523,7 +4522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:17" hidden="1">
+    <row r="104" spans="1:17">
       <c r="A104" t="s">
         <v>81</v>
       </c>
@@ -4552,7 +4551,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="105" spans="1:17" hidden="1">
+    <row r="105" spans="1:17">
       <c r="A105" t="s">
         <v>81</v>
       </c>
@@ -4581,7 +4580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:17" hidden="1">
+    <row r="106" spans="1:17">
       <c r="A106" t="s">
         <v>81</v>
       </c>
@@ -4613,7 +4612,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="107" spans="1:17" hidden="1">
+    <row r="107" spans="1:17">
       <c r="A107" t="s">
         <v>81</v>
       </c>
@@ -4645,7 +4644,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="1:17" hidden="1">
+    <row r="108" spans="1:17">
       <c r="A108" t="s">
         <v>81</v>
       </c>
@@ -4677,7 +4676,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="109" spans="1:17" hidden="1">
+    <row r="109" spans="1:17">
       <c r="A109" t="s">
         <v>81</v>
       </c>
@@ -4709,7 +4708,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="110" spans="1:17" hidden="1">
+    <row r="110" spans="1:17">
       <c r="A110" t="s">
         <v>81</v>
       </c>
@@ -4741,7 +4740,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="111" spans="1:17" hidden="1">
+    <row r="111" spans="1:17">
       <c r="A111" t="s">
         <v>81</v>
       </c>
@@ -4773,7 +4772,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="1:17" hidden="1">
+    <row r="112" spans="1:17">
       <c r="A112" t="s">
         <v>81</v>
       </c>
@@ -4805,7 +4804,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1">
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
         <v>81</v>
       </c>
@@ -4834,7 +4833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1">
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
         <v>81</v>
       </c>
@@ -4863,7 +4862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1">
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
         <v>81</v>
       </c>
@@ -4892,7 +4891,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1">
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
         <v>81</v>
       </c>
@@ -4921,7 +4920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1">
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
         <v>81</v>
       </c>
@@ -4950,7 +4949,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1">
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
         <v>81</v>
       </c>
@@ -4979,7 +4978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1">
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
         <v>81</v>
       </c>
@@ -5008,7 +5007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1">
+    <row r="120" spans="1:13">
       <c r="A120" t="s">
         <v>81</v>
       </c>
@@ -5037,7 +5036,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1">
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
         <v>81</v>
       </c>
@@ -5066,7 +5065,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1">
+    <row r="122" spans="1:13">
       <c r="A122" t="s">
         <v>81</v>
       </c>
@@ -5095,7 +5094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1">
+    <row r="123" spans="1:13">
       <c r="A123" t="s">
         <v>81</v>
       </c>
@@ -5124,7 +5123,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1">
+    <row r="124" spans="1:13">
       <c r="A124" t="s">
         <v>81</v>
       </c>
@@ -5153,7 +5152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1">
+    <row r="125" spans="1:13">
       <c r="A125" t="s">
         <v>81</v>
       </c>
@@ -5182,7 +5181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1">
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
         <v>81</v>
       </c>
@@ -5211,7 +5210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1">
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
         <v>81</v>
       </c>
@@ -5240,7 +5239,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1">
+    <row r="128" spans="1:13">
       <c r="A128" t="s">
         <v>81</v>
       </c>
@@ -5269,7 +5268,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1">
+    <row r="129" spans="1:13">
       <c r="A129" t="s">
         <v>81</v>
       </c>
@@ -5298,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1">
+    <row r="130" spans="1:13">
       <c r="A130" t="s">
         <v>81</v>
       </c>
@@ -5327,7 +5326,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1">
+    <row r="131" spans="1:13">
       <c r="A131" t="s">
         <v>81</v>
       </c>
@@ -5356,7 +5355,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1">
+    <row r="132" spans="1:13">
       <c r="A132" t="s">
         <v>81</v>
       </c>
@@ -5385,7 +5384,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1">
+    <row r="133" spans="1:13">
       <c r="A133" t="s">
         <v>81</v>
       </c>
@@ -5414,7 +5413,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1">
+    <row r="134" spans="1:13">
       <c r="A134" t="s">
         <v>81</v>
       </c>
@@ -5443,7 +5442,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1">
+    <row r="135" spans="1:13">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -5472,7 +5471,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1">
+    <row r="136" spans="1:13">
       <c r="A136" t="s">
         <v>81</v>
       </c>
@@ -5501,7 +5500,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1">
+    <row r="137" spans="1:13">
       <c r="A137" t="s">
         <v>81</v>
       </c>
@@ -5530,7 +5529,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1">
+    <row r="138" spans="1:13">
       <c r="A138" t="s">
         <v>81</v>
       </c>
@@ -5559,7 +5558,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1">
+    <row r="139" spans="1:13">
       <c r="A139" t="s">
         <v>81</v>
       </c>
@@ -5588,7 +5587,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1">
+    <row r="140" spans="1:13">
       <c r="A140" t="s">
         <v>81</v>
       </c>
@@ -5617,7 +5616,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1">
+    <row r="141" spans="1:13">
       <c r="A141" t="s">
         <v>81</v>
       </c>
@@ -5646,7 +5645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1">
+    <row r="142" spans="1:13">
       <c r="A142" t="s">
         <v>81</v>
       </c>
@@ -5675,7 +5674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1">
+    <row r="143" spans="1:13">
       <c r="A143" t="s">
         <v>81</v>
       </c>
@@ -5704,7 +5703,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1">
+    <row r="144" spans="1:13">
       <c r="A144" t="s">
         <v>81</v>
       </c>
@@ -5733,7 +5732,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="145" spans="1:17" hidden="1">
+    <row r="145" spans="1:17">
       <c r="A145" t="s">
         <v>81</v>
       </c>
@@ -5762,7 +5761,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="146" spans="1:17" hidden="1">
+    <row r="146" spans="1:17">
       <c r="A146" t="s">
         <v>81</v>
       </c>
@@ -5791,7 +5790,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="147" spans="1:17" hidden="1">
+    <row r="147" spans="1:17">
       <c r="A147" t="s">
         <v>81</v>
       </c>
@@ -5820,7 +5819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:17" hidden="1">
+    <row r="148" spans="1:17">
       <c r="A148" t="s">
         <v>81</v>
       </c>
@@ -5849,7 +5848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:17" hidden="1">
+    <row r="149" spans="1:17">
       <c r="A149" t="s">
         <v>81</v>
       </c>
@@ -5878,7 +5877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:17" hidden="1">
+    <row r="150" spans="1:17">
       <c r="A150" t="s">
         <v>81</v>
       </c>
@@ -6099,7 +6098,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="157" spans="1:17" hidden="1">
+    <row r="157" spans="1:17">
       <c r="A157" t="s">
         <v>81</v>
       </c>
@@ -6128,7 +6127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:17" hidden="1">
+    <row r="158" spans="1:17">
       <c r="A158" t="s">
         <v>81</v>
       </c>
@@ -6157,7 +6156,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="159" spans="1:17" hidden="1">
+    <row r="159" spans="1:17">
       <c r="A159" t="s">
         <v>81</v>
       </c>
@@ -6186,7 +6185,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="160" spans="1:17" hidden="1">
+    <row r="160" spans="1:17">
       <c r="A160" t="s">
         <v>81</v>
       </c>
@@ -6215,7 +6214,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1">
+    <row r="161" spans="1:13">
       <c r="A161" t="s">
         <v>81</v>
       </c>
@@ -6244,7 +6243,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1">
+    <row r="162" spans="1:13">
       <c r="A162" t="s">
         <v>81</v>
       </c>
@@ -6273,7 +6272,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1">
+    <row r="163" spans="1:13">
       <c r="A163" t="s">
         <v>81</v>
       </c>
@@ -6302,7 +6301,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1">
+    <row r="164" spans="1:13">
       <c r="A164" t="s">
         <v>81</v>
       </c>
@@ -6331,7 +6330,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1">
+    <row r="165" spans="1:13">
       <c r="A165" t="s">
         <v>81</v>
       </c>
@@ -6360,7 +6359,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="166" spans="1:13" hidden="1">
+    <row r="166" spans="1:13">
       <c r="A166" t="s">
         <v>81</v>
       </c>
@@ -6389,7 +6388,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1">
+    <row r="167" spans="1:13">
       <c r="A167" t="s">
         <v>81</v>
       </c>
@@ -6418,7 +6417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1">
+    <row r="168" spans="1:13">
       <c r="A168" t="s">
         <v>81</v>
       </c>
@@ -6447,7 +6446,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="169" spans="1:13" hidden="1">
+    <row r="169" spans="1:13">
       <c r="A169" t="s">
         <v>81</v>
       </c>
@@ -6476,7 +6475,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1">
+    <row r="170" spans="1:13">
       <c r="A170" t="s">
         <v>81</v>
       </c>
@@ -6505,7 +6504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1">
+    <row r="171" spans="1:13">
       <c r="A171" t="s">
         <v>81</v>
       </c>
@@ -6534,7 +6533,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1">
+    <row r="172" spans="1:13">
       <c r="A172" t="s">
         <v>81</v>
       </c>
@@ -6563,7 +6562,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1">
+    <row r="173" spans="1:13">
       <c r="A173" t="s">
         <v>81</v>
       </c>
@@ -6592,7 +6591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:13" hidden="1">
+    <row r="174" spans="1:13">
       <c r="A174" t="s">
         <v>81</v>
       </c>
@@ -6621,7 +6620,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="175" spans="1:13" hidden="1">
+    <row r="175" spans="1:13">
       <c r="A175" t="s">
         <v>81</v>
       </c>
@@ -6650,7 +6649,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1">
+    <row r="176" spans="1:13">
       <c r="A176" t="s">
         <v>81</v>
       </c>
@@ -6679,7 +6678,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="177" spans="1:17" hidden="1">
+    <row r="177" spans="1:17">
       <c r="A177" t="s">
         <v>81</v>
       </c>
@@ -6708,7 +6707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:17" hidden="1">
+    <row r="178" spans="1:17">
       <c r="A178" t="s">
         <v>81</v>
       </c>
@@ -6737,7 +6736,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="179" spans="1:17" hidden="1">
+    <row r="179" spans="1:17">
       <c r="A179" t="s">
         <v>81</v>
       </c>
@@ -6766,7 +6765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:17" hidden="1">
+    <row r="180" spans="1:17">
       <c r="A180" t="s">
         <v>81</v>
       </c>
@@ -6798,7 +6797,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="181" spans="1:17" hidden="1">
+    <row r="181" spans="1:17">
       <c r="A181" t="s">
         <v>81</v>
       </c>
@@ -6830,7 +6829,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="182" spans="1:17" hidden="1">
+    <row r="182" spans="1:17">
       <c r="A182" t="s">
         <v>81</v>
       </c>
@@ -6862,7 +6861,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="183" spans="1:17" hidden="1">
+    <row r="183" spans="1:17">
       <c r="A183" t="s">
         <v>81</v>
       </c>
@@ -6894,7 +6893,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="184" spans="1:17" hidden="1">
+    <row r="184" spans="1:17">
       <c r="A184" t="s">
         <v>81</v>
       </c>
@@ -6926,7 +6925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="185" spans="1:17" hidden="1">
+    <row r="185" spans="1:17">
       <c r="A185" t="s">
         <v>81</v>
       </c>
@@ -6955,7 +6954,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="186" spans="1:17" hidden="1">
+    <row r="186" spans="1:17">
       <c r="A186" t="s">
         <v>81</v>
       </c>
@@ -6984,7 +6983,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="187" spans="1:17" hidden="1">
+    <row r="187" spans="1:17">
       <c r="A187" t="s">
         <v>81</v>
       </c>
@@ -7013,7 +7012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:17" hidden="1">
+    <row r="188" spans="1:17">
       <c r="A188" t="s">
         <v>81</v>
       </c>
@@ -7042,7 +7041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:17" hidden="1">
+    <row r="189" spans="1:17">
       <c r="A189" t="s">
         <v>81</v>
       </c>
@@ -7071,7 +7070,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="190" spans="1:17" hidden="1">
+    <row r="190" spans="1:17">
       <c r="A190" t="s">
         <v>81</v>
       </c>
@@ -7100,7 +7099,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="191" spans="1:17" hidden="1">
+    <row r="191" spans="1:17">
       <c r="A191" t="s">
         <v>81</v>
       </c>
@@ -7129,7 +7128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:17" hidden="1">
+    <row r="192" spans="1:17">
       <c r="A192" t="s">
         <v>81</v>
       </c>
@@ -7158,7 +7157,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="193" spans="1:17" hidden="1">
+    <row r="193" spans="1:17">
       <c r="A193" t="s">
         <v>81</v>
       </c>
@@ -7187,7 +7186,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="194" spans="1:17" hidden="1">
+    <row r="194" spans="1:17">
       <c r="A194" t="s">
         <v>81</v>
       </c>
@@ -7219,7 +7218,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="195" spans="1:17" hidden="1">
+    <row r="195" spans="1:17">
       <c r="A195" t="s">
         <v>81</v>
       </c>
@@ -7251,7 +7250,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="196" spans="1:17" hidden="1">
+    <row r="196" spans="1:17">
       <c r="A196" t="s">
         <v>81</v>
       </c>
@@ -7283,7 +7282,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="197" spans="1:17" hidden="1">
+    <row r="197" spans="1:17">
       <c r="A197" t="s">
         <v>81</v>
       </c>
@@ -7315,7 +7314,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="198" spans="1:17" hidden="1">
+    <row r="198" spans="1:17">
       <c r="A198" t="s">
         <v>81</v>
       </c>
@@ -7347,7 +7346,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="199" spans="1:17" hidden="1">
+    <row r="199" spans="1:17">
       <c r="A199" t="s">
         <v>81</v>
       </c>
@@ -7379,7 +7378,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="200" spans="1:17" hidden="1">
+    <row r="200" spans="1:17">
       <c r="A200" t="s">
         <v>81</v>
       </c>
@@ -7408,7 +7407,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="201" spans="1:17" hidden="1">
+    <row r="201" spans="1:17">
       <c r="A201" t="s">
         <v>81</v>
       </c>
@@ -7437,7 +7436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:17" hidden="1">
+    <row r="202" spans="1:17">
       <c r="A202" t="s">
         <v>81</v>
       </c>
@@ -7466,7 +7465,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="203" spans="1:17" hidden="1">
+    <row r="203" spans="1:17">
       <c r="A203" t="s">
         <v>81</v>
       </c>
@@ -7495,7 +7494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:17" hidden="1">
+    <row r="204" spans="1:17">
       <c r="A204" t="s">
         <v>81</v>
       </c>
@@ -7524,7 +7523,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="205" spans="1:17" hidden="1">
+    <row r="205" spans="1:17">
       <c r="A205" t="s">
         <v>81</v>
       </c>
@@ -7553,7 +7552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:17" hidden="1">
+    <row r="206" spans="1:17">
       <c r="A206" t="s">
         <v>81</v>
       </c>
@@ -7582,7 +7581,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="207" spans="1:17" hidden="1">
+    <row r="207" spans="1:17">
       <c r="A207" t="s">
         <v>81</v>
       </c>
@@ -7611,7 +7610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:17" hidden="1">
+    <row r="208" spans="1:17">
       <c r="A208" t="s">
         <v>81</v>
       </c>
@@ -7640,7 +7639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:17" hidden="1">
+    <row r="209" spans="1:17">
       <c r="A209" t="s">
         <v>81</v>
       </c>
@@ -7669,7 +7668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:17" hidden="1">
+    <row r="210" spans="1:17">
       <c r="A210" t="s">
         <v>81</v>
       </c>
@@ -7698,7 +7697,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="211" spans="1:17" hidden="1">
+    <row r="211" spans="1:17">
       <c r="A211" t="s">
         <v>81</v>
       </c>
@@ -7727,7 +7726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:17" hidden="1">
+    <row r="212" spans="1:17">
       <c r="A212" t="s">
         <v>81</v>
       </c>
@@ -7756,7 +7755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:17" hidden="1">
+    <row r="213" spans="1:17">
       <c r="A213" t="s">
         <v>81</v>
       </c>
@@ -7785,7 +7784,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="214" spans="1:17" hidden="1">
+    <row r="214" spans="1:17">
       <c r="A214" t="s">
         <v>81</v>
       </c>
@@ -7814,7 +7813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:17" hidden="1">
+    <row r="215" spans="1:17">
       <c r="A215" t="s">
         <v>81</v>
       </c>
@@ -7843,7 +7842,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="216" spans="1:17" hidden="1">
+    <row r="216" spans="1:17">
       <c r="A216" t="s">
         <v>81</v>
       </c>
@@ -7872,7 +7871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:17" hidden="1">
+    <row r="217" spans="1:17">
       <c r="A217" t="s">
         <v>81</v>
       </c>
@@ -7901,7 +7900,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="218" spans="1:17" hidden="1">
+    <row r="218" spans="1:17">
       <c r="A218" t="s">
         <v>81</v>
       </c>
@@ -7930,7 +7929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:17" hidden="1">
+    <row r="219" spans="1:17">
       <c r="A219" t="s">
         <v>81</v>
       </c>
@@ -7959,7 +7958,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="220" spans="1:17" hidden="1">
+    <row r="220" spans="1:17">
       <c r="A220" t="s">
         <v>81</v>
       </c>
@@ -7991,7 +7990,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="221" spans="1:17" hidden="1">
+    <row r="221" spans="1:17">
       <c r="A221" t="s">
         <v>81</v>
       </c>
@@ -8023,7 +8022,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="222" spans="1:17" hidden="1">
+    <row r="222" spans="1:17">
       <c r="A222" t="s">
         <v>81</v>
       </c>
@@ -8055,7 +8054,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="223" spans="1:17" hidden="1">
+    <row r="223" spans="1:17">
       <c r="A223" t="s">
         <v>81</v>
       </c>
@@ -8087,7 +8086,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="224" spans="1:17" hidden="1">
+    <row r="224" spans="1:17">
       <c r="A224" t="s">
         <v>81</v>
       </c>
@@ -8119,7 +8118,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="225" spans="1:17" hidden="1">
+    <row r="225" spans="1:17">
       <c r="A225" t="s">
         <v>81</v>
       </c>
@@ -8151,7 +8150,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="226" spans="1:17" hidden="1">
+    <row r="226" spans="1:17">
       <c r="A226" t="s">
         <v>81</v>
       </c>
@@ -8183,7 +8182,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="227" spans="1:17" hidden="1">
+    <row r="227" spans="1:17">
       <c r="A227" t="s">
         <v>81</v>
       </c>
@@ -8215,7 +8214,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="228" spans="1:17" hidden="1">
+    <row r="228" spans="1:17">
       <c r="A228" t="s">
         <v>81</v>
       </c>
@@ -8247,7 +8246,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="229" spans="1:17" hidden="1">
+    <row r="229" spans="1:17">
       <c r="A229" t="s">
         <v>81</v>
       </c>
@@ -8279,7 +8278,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="230" spans="1:17" hidden="1">
+    <row r="230" spans="1:17">
       <c r="A230" t="s">
         <v>81</v>
       </c>
@@ -8311,7 +8310,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="231" spans="1:17" hidden="1">
+    <row r="231" spans="1:17">
       <c r="A231" t="s">
         <v>81</v>
       </c>
@@ -8343,7 +8342,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="232" spans="1:17" hidden="1">
+    <row r="232" spans="1:17">
       <c r="A232" t="s">
         <v>81</v>
       </c>
@@ -8375,7 +8374,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="233" spans="1:17" hidden="1">
+    <row r="233" spans="1:17">
       <c r="A233" t="s">
         <v>81</v>
       </c>
@@ -8407,7 +8406,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="234" spans="1:17" hidden="1">
+    <row r="234" spans="1:17">
       <c r="A234" t="s">
         <v>81</v>
       </c>
@@ -8439,7 +8438,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="235" spans="1:17" hidden="1">
+    <row r="235" spans="1:17">
       <c r="A235" t="s">
         <v>81</v>
       </c>
@@ -8471,7 +8470,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="236" spans="1:17" hidden="1">
+    <row r="236" spans="1:17">
       <c r="A236" t="s">
         <v>81</v>
       </c>
@@ -8500,7 +8499,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="237" spans="1:17" hidden="1">
+    <row r="237" spans="1:17">
       <c r="A237" t="s">
         <v>81</v>
       </c>
@@ -8529,7 +8528,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="238" spans="1:17" hidden="1">
+    <row r="238" spans="1:17">
       <c r="A238" t="s">
         <v>81</v>
       </c>
@@ -8558,7 +8557,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="239" spans="1:17" hidden="1">
+    <row r="239" spans="1:17">
       <c r="A239" t="s">
         <v>81</v>
       </c>
@@ -8587,7 +8586,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="240" spans="1:17" hidden="1">
+    <row r="240" spans="1:17">
       <c r="A240" t="s">
         <v>81</v>
       </c>
@@ -8616,7 +8615,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="241" spans="1:13" hidden="1">
+    <row r="241" spans="1:13">
       <c r="A241" t="s">
         <v>81</v>
       </c>
@@ -8645,7 +8644,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="242" spans="1:13" hidden="1">
+    <row r="242" spans="1:13">
       <c r="A242" t="s">
         <v>81</v>
       </c>
@@ -8674,7 +8673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:13" hidden="1">
+    <row r="243" spans="1:13">
       <c r="A243" t="s">
         <v>81</v>
       </c>
@@ -8703,7 +8702,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="244" spans="1:13" hidden="1">
+    <row r="244" spans="1:13">
       <c r="A244" t="s">
         <v>81</v>
       </c>
@@ -8732,7 +8731,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="245" spans="1:13" hidden="1">
+    <row r="245" spans="1:13">
       <c r="A245" t="s">
         <v>81</v>
       </c>
@@ -8761,7 +8760,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="246" spans="1:13" hidden="1">
+    <row r="246" spans="1:13">
       <c r="A246" t="s">
         <v>81</v>
       </c>
@@ -8790,7 +8789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:13" hidden="1">
+    <row r="247" spans="1:13">
       <c r="A247" t="s">
         <v>81</v>
       </c>
@@ -8819,7 +8818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:13" hidden="1">
+    <row r="248" spans="1:13">
       <c r="A248" t="s">
         <v>81</v>
       </c>
@@ -8848,7 +8847,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="249" spans="1:13" hidden="1">
+    <row r="249" spans="1:13">
       <c r="A249" t="s">
         <v>81</v>
       </c>
@@ -8877,7 +8876,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="250" spans="1:13" hidden="1">
+    <row r="250" spans="1:13">
       <c r="A250" t="s">
         <v>81</v>
       </c>
@@ -8906,7 +8905,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="251" spans="1:13" hidden="1">
+    <row r="251" spans="1:13">
       <c r="A251" t="s">
         <v>81</v>
       </c>
@@ -8935,7 +8934,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="252" spans="1:13" hidden="1">
+    <row r="252" spans="1:13">
       <c r="A252" t="s">
         <v>81</v>
       </c>
@@ -8964,7 +8963,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="253" spans="1:13" hidden="1">
+    <row r="253" spans="1:13">
       <c r="A253" t="s">
         <v>81</v>
       </c>
@@ -8993,7 +8992,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="254" spans="1:13" hidden="1">
+    <row r="254" spans="1:13">
       <c r="A254" t="s">
         <v>81</v>
       </c>
@@ -9022,7 +9021,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="255" spans="1:13" hidden="1">
+    <row r="255" spans="1:13">
       <c r="A255" t="s">
         <v>81</v>
       </c>
@@ -9051,7 +9050,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="256" spans="1:13" hidden="1">
+    <row r="256" spans="1:13">
       <c r="A256" t="s">
         <v>81</v>
       </c>
@@ -9080,7 +9079,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="257" spans="1:13" hidden="1">
+    <row r="257" spans="1:13">
       <c r="A257" t="s">
         <v>81</v>
       </c>
@@ -9109,7 +9108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:13" hidden="1">
+    <row r="258" spans="1:13">
       <c r="A258" t="s">
         <v>81</v>
       </c>
@@ -9138,7 +9137,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="259" spans="1:13" hidden="1">
+    <row r="259" spans="1:13">
       <c r="A259" t="s">
         <v>81</v>
       </c>
@@ -9167,7 +9166,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="260" spans="1:13" hidden="1">
+    <row r="260" spans="1:13">
       <c r="A260" t="s">
         <v>81</v>
       </c>
@@ -9196,7 +9195,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="261" spans="1:13" hidden="1">
+    <row r="261" spans="1:13">
       <c r="A261" t="s">
         <v>81</v>
       </c>
@@ -9225,7 +9224,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="262" spans="1:13" hidden="1">
+    <row r="262" spans="1:13">
       <c r="A262" t="s">
         <v>81</v>
       </c>
@@ -9254,7 +9253,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="263" spans="1:13" hidden="1">
+    <row r="263" spans="1:13">
       <c r="A263" t="s">
         <v>81</v>
       </c>
@@ -9283,7 +9282,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="264" spans="1:13" hidden="1">
+    <row r="264" spans="1:13">
       <c r="A264" t="s">
         <v>81</v>
       </c>
@@ -9312,7 +9311,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="265" spans="1:13" hidden="1">
+    <row r="265" spans="1:13">
       <c r="A265" t="s">
         <v>81</v>
       </c>
@@ -9341,7 +9340,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="266" spans="1:13" hidden="1">
+    <row r="266" spans="1:13">
       <c r="A266" t="s">
         <v>81</v>
       </c>
@@ -9370,7 +9369,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="267" spans="1:13" hidden="1">
+    <row r="267" spans="1:13">
       <c r="A267" t="s">
         <v>81</v>
       </c>
@@ -9399,7 +9398,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="268" spans="1:13" hidden="1">
+    <row r="268" spans="1:13">
       <c r="A268" t="s">
         <v>81</v>
       </c>
@@ -9428,7 +9427,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="269" spans="1:13" hidden="1">
+    <row r="269" spans="1:13">
       <c r="A269" t="s">
         <v>81</v>
       </c>
@@ -9457,7 +9456,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="270" spans="1:13" hidden="1">
+    <row r="270" spans="1:13">
       <c r="A270" t="s">
         <v>81</v>
       </c>
@@ -9486,7 +9485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:13" hidden="1">
+    <row r="271" spans="1:13">
       <c r="A271" t="s">
         <v>81</v>
       </c>
@@ -9515,7 +9514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:13" hidden="1">
+    <row r="272" spans="1:13">
       <c r="A272" t="s">
         <v>81</v>
       </c>
@@ -9544,7 +9543,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="273" spans="1:17" hidden="1">
+    <row r="273" spans="1:17">
       <c r="A273" t="s">
         <v>81</v>
       </c>
@@ -9576,7 +9575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="274" spans="1:17" hidden="1">
+    <row r="274" spans="1:17">
       <c r="A274" t="s">
         <v>81</v>
       </c>
@@ -9608,7 +9607,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="275" spans="1:17" hidden="1">
+    <row r="275" spans="1:17">
       <c r="A275" t="s">
         <v>81</v>
       </c>
@@ -9637,7 +9636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:17" hidden="1">
+    <row r="276" spans="1:17">
       <c r="A276" t="s">
         <v>81</v>
       </c>
@@ -9666,7 +9665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:17" hidden="1">
+    <row r="277" spans="1:17">
       <c r="A277" t="s">
         <v>81</v>
       </c>
@@ -9695,7 +9694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:17" hidden="1">
+    <row r="278" spans="1:17">
       <c r="A278" t="s">
         <v>81</v>
       </c>
@@ -9724,7 +9723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="279" spans="1:17" hidden="1">
+    <row r="279" spans="1:17">
       <c r="A279" t="s">
         <v>81</v>
       </c>
@@ -9753,7 +9752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:17" hidden="1">
+    <row r="280" spans="1:17">
       <c r="A280" t="s">
         <v>81</v>
       </c>
@@ -9782,7 +9781,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="281" spans="1:17" hidden="1">
+    <row r="281" spans="1:17">
       <c r="A281" t="s">
         <v>81</v>
       </c>
@@ -9811,7 +9810,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="282" spans="1:17" hidden="1">
+    <row r="282" spans="1:17">
       <c r="A282" t="s">
         <v>81</v>
       </c>
@@ -9840,7 +9839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:17" hidden="1">
+    <row r="283" spans="1:17">
       <c r="A283" t="s">
         <v>81</v>
       </c>
@@ -9872,7 +9871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="284" spans="1:17" hidden="1">
+    <row r="284" spans="1:17">
       <c r="A284" t="s">
         <v>81</v>
       </c>
@@ -9904,7 +9903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="285" spans="1:17" hidden="1">
+    <row r="285" spans="1:17">
       <c r="A285" t="s">
         <v>81</v>
       </c>
@@ -9936,7 +9935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="286" spans="1:17" hidden="1">
+    <row r="286" spans="1:17">
       <c r="A286" t="s">
         <v>81</v>
       </c>
@@ -9968,7 +9967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="287" spans="1:17" hidden="1">
+    <row r="287" spans="1:17">
       <c r="A287" t="s">
         <v>81</v>
       </c>
@@ -10000,7 +9999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="288" spans="1:17" hidden="1">
+    <row r="288" spans="1:17">
       <c r="A288" t="s">
         <v>81</v>
       </c>
@@ -10032,7 +10031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:17" hidden="1">
+    <row r="289" spans="1:17">
       <c r="A289" t="s">
         <v>81</v>
       </c>
@@ -10064,7 +10063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:17" hidden="1">
+    <row r="290" spans="1:17">
       <c r="A290" t="s">
         <v>81</v>
       </c>
@@ -10096,7 +10095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="291" spans="1:17" hidden="1">
+    <row r="291" spans="1:17">
       <c r="A291" t="s">
         <v>81</v>
       </c>
@@ -10128,7 +10127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:17" hidden="1">
+    <row r="292" spans="1:17">
       <c r="A292" t="s">
         <v>81</v>
       </c>
@@ -10160,7 +10159,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="293" spans="1:17" hidden="1">
+    <row r="293" spans="1:17">
       <c r="A293" t="s">
         <v>81</v>
       </c>
@@ -10192,7 +10191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="294" spans="1:17" hidden="1">
+    <row r="294" spans="1:17">
       <c r="A294" t="s">
         <v>81</v>
       </c>
@@ -10224,7 +10223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:17" hidden="1">
+    <row r="295" spans="1:17">
       <c r="A295" t="s">
         <v>81</v>
       </c>
@@ -10256,7 +10255,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="296" spans="1:17" hidden="1">
+    <row r="296" spans="1:17">
       <c r="A296" t="s">
         <v>81</v>
       </c>
@@ -10285,7 +10284,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="297" spans="1:17" hidden="1">
+    <row r="297" spans="1:17">
       <c r="A297" t="s">
         <v>81</v>
       </c>
@@ -10314,7 +10313,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="298" spans="1:17" hidden="1">
+    <row r="298" spans="1:17">
       <c r="A298" t="s">
         <v>81</v>
       </c>
@@ -10343,7 +10342,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="299" spans="1:17" hidden="1">
+    <row r="299" spans="1:17">
       <c r="A299" t="s">
         <v>81</v>
       </c>
@@ -10372,7 +10371,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="300" spans="1:17" hidden="1">
+    <row r="300" spans="1:17">
       <c r="A300" t="s">
         <v>81</v>
       </c>
@@ -10401,7 +10400,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="301" spans="1:17" hidden="1">
+    <row r="301" spans="1:17">
       <c r="A301" t="s">
         <v>81</v>
       </c>
@@ -10430,7 +10429,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="302" spans="1:17" hidden="1">
+    <row r="302" spans="1:17">
       <c r="A302" t="s">
         <v>81</v>
       </c>
@@ -10462,7 +10461,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="303" spans="1:17" hidden="1">
+    <row r="303" spans="1:17">
       <c r="A303" t="s">
         <v>81</v>
       </c>
@@ -10494,7 +10493,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="304" spans="1:17" hidden="1">
+    <row r="304" spans="1:17">
       <c r="A304" t="s">
         <v>81</v>
       </c>
@@ -10526,7 +10525,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="305" spans="1:17" hidden="1">
+    <row r="305" spans="1:17">
       <c r="A305" t="s">
         <v>81</v>
       </c>
@@ -10558,7 +10557,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="306" spans="1:17" hidden="1">
+    <row r="306" spans="1:17">
       <c r="A306" t="s">
         <v>81</v>
       </c>
@@ -10590,7 +10589,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="307" spans="1:17" hidden="1">
+    <row r="307" spans="1:17">
       <c r="A307" t="s">
         <v>81</v>
       </c>
@@ -10622,7 +10621,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="308" spans="1:17" hidden="1">
+    <row r="308" spans="1:17">
       <c r="A308" t="s">
         <v>81</v>
       </c>
@@ -10654,7 +10653,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="309" spans="1:17" hidden="1">
+    <row r="309" spans="1:17">
       <c r="A309" t="s">
         <v>81</v>
       </c>
@@ -10686,7 +10685,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="310" spans="1:17" hidden="1">
+    <row r="310" spans="1:17">
       <c r="A310" t="s">
         <v>81</v>
       </c>
@@ -10718,7 +10717,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="311" spans="1:17" hidden="1">
+    <row r="311" spans="1:17">
       <c r="A311" t="s">
         <v>81</v>
       </c>
@@ -10747,7 +10746,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="312" spans="1:17" hidden="1">
+    <row r="312" spans="1:17">
       <c r="A312" t="s">
         <v>81</v>
       </c>
@@ -10776,7 +10775,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="313" spans="1:17" hidden="1">
+    <row r="313" spans="1:17">
       <c r="A313" t="s">
         <v>81</v>
       </c>
@@ -10805,7 +10804,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="314" spans="1:17" hidden="1">
+    <row r="314" spans="1:17">
       <c r="A314" t="s">
         <v>81</v>
       </c>
@@ -10834,7 +10833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:17" hidden="1">
+    <row r="315" spans="1:17">
       <c r="A315" t="s">
         <v>81</v>
       </c>
@@ -10863,7 +10862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:17" hidden="1">
+    <row r="316" spans="1:17">
       <c r="A316" t="s">
         <v>81</v>
       </c>
@@ -10892,7 +10891,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="317" spans="1:17" hidden="1">
+    <row r="317" spans="1:17">
       <c r="A317" t="s">
         <v>81</v>
       </c>
@@ -10921,7 +10920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="318" spans="1:17" hidden="1">
+    <row r="318" spans="1:17">
       <c r="A318" t="s">
         <v>81</v>
       </c>
@@ -10950,7 +10949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:17" hidden="1">
+    <row r="319" spans="1:17">
       <c r="A319" t="s">
         <v>81</v>
       </c>
@@ -10979,7 +10978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:17" hidden="1">
+    <row r="320" spans="1:17">
       <c r="A320" t="s">
         <v>81</v>
       </c>
@@ -11008,7 +11007,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="321" spans="1:13" hidden="1">
+    <row r="321" spans="1:13">
       <c r="A321" t="s">
         <v>81</v>
       </c>
@@ -11037,7 +11036,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="322" spans="1:13" hidden="1">
+    <row r="322" spans="1:13">
       <c r="A322" t="s">
         <v>81</v>
       </c>
@@ -11066,7 +11065,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="323" spans="1:13" hidden="1">
+    <row r="323" spans="1:13">
       <c r="A323" t="s">
         <v>81</v>
       </c>
@@ -11095,7 +11094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:13" hidden="1">
+    <row r="324" spans="1:13">
       <c r="A324" t="s">
         <v>81</v>
       </c>
@@ -11124,7 +11123,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="325" spans="1:13" hidden="1">
+    <row r="325" spans="1:13">
       <c r="A325" t="s">
         <v>81</v>
       </c>
@@ -11153,7 +11152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:13" hidden="1">
+    <row r="326" spans="1:13">
       <c r="A326" t="s">
         <v>81</v>
       </c>
@@ -11182,7 +11181,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="327" spans="1:13" hidden="1">
+    <row r="327" spans="1:13">
       <c r="A327" t="s">
         <v>81</v>
       </c>
@@ -11211,7 +11210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:13" hidden="1">
+    <row r="328" spans="1:13">
       <c r="A328" t="s">
         <v>81</v>
       </c>
@@ -11240,7 +11239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:13" hidden="1">
+    <row r="329" spans="1:13">
       <c r="A329" t="s">
         <v>81</v>
       </c>
@@ -11269,7 +11268,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="330" spans="1:13" hidden="1">
+    <row r="330" spans="1:13">
       <c r="A330" t="s">
         <v>81</v>
       </c>
@@ -11298,7 +11297,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="331" spans="1:13" hidden="1">
+    <row r="331" spans="1:13">
       <c r="A331" t="s">
         <v>81</v>
       </c>
@@ -11327,7 +11326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:13" hidden="1">
+    <row r="332" spans="1:13">
       <c r="A332" t="s">
         <v>81</v>
       </c>
@@ -11356,7 +11355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="333" spans="1:13" hidden="1">
+    <row r="333" spans="1:13">
       <c r="A333" t="s">
         <v>81</v>
       </c>
@@ -11385,7 +11384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:13" hidden="1">
+    <row r="334" spans="1:13">
       <c r="A334" t="s">
         <v>81</v>
       </c>
@@ -11414,7 +11413,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="335" spans="1:13" hidden="1">
+    <row r="335" spans="1:13">
       <c r="A335" t="s">
         <v>81</v>
       </c>
@@ -11443,7 +11442,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="336" spans="1:13" hidden="1">
+    <row r="336" spans="1:13">
       <c r="A336" t="s">
         <v>81</v>
       </c>
@@ -11472,7 +11471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:17" hidden="1">
+    <row r="337" spans="1:17">
       <c r="A337" t="s">
         <v>81</v>
       </c>
@@ -11501,7 +11500,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="338" spans="1:17" hidden="1">
+    <row r="338" spans="1:17">
       <c r="A338" t="s">
         <v>81</v>
       </c>
@@ -11530,7 +11529,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="339" spans="1:17" hidden="1">
+    <row r="339" spans="1:17">
       <c r="A339" t="s">
         <v>81</v>
       </c>
@@ -11559,7 +11558,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="340" spans="1:17" hidden="1">
+    <row r="340" spans="1:17">
       <c r="A340" t="s">
         <v>81</v>
       </c>
@@ -11588,7 +11587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:17" hidden="1">
+    <row r="341" spans="1:17">
       <c r="A341" t="s">
         <v>81</v>
       </c>
@@ -11617,7 +11616,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="342" spans="1:17" hidden="1">
+    <row r="342" spans="1:17">
       <c r="A342" t="s">
         <v>81</v>
       </c>
@@ -11646,7 +11645,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="343" spans="1:17" hidden="1">
+    <row r="343" spans="1:17">
       <c r="A343" t="s">
         <v>81</v>
       </c>
@@ -11675,7 +11674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:17" hidden="1">
+    <row r="344" spans="1:17">
       <c r="A344" t="s">
         <v>81</v>
       </c>
@@ -11704,7 +11703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:17" hidden="1">
+    <row r="345" spans="1:17">
       <c r="A345" t="s">
         <v>81</v>
       </c>
@@ -11733,7 +11732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="1:17" hidden="1">
+    <row r="346" spans="1:17">
       <c r="A346" t="s">
         <v>81</v>
       </c>
@@ -11762,7 +11761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:17" hidden="1">
+    <row r="347" spans="1:17">
       <c r="A347" t="s">
         <v>81</v>
       </c>
@@ -11794,7 +11793,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="348" spans="1:17" hidden="1">
+    <row r="348" spans="1:17">
       <c r="A348" t="s">
         <v>81</v>
       </c>
@@ -11823,7 +11822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:17" hidden="1">
+    <row r="349" spans="1:17">
       <c r="A349" t="s">
         <v>81</v>
       </c>
@@ -11852,7 +11851,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="350" spans="1:17" hidden="1">
+    <row r="350" spans="1:17">
       <c r="A350" t="s">
         <v>81</v>
       </c>
@@ -11881,7 +11880,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="351" spans="1:17" hidden="1">
+    <row r="351" spans="1:17">
       <c r="A351" t="s">
         <v>81</v>
       </c>
@@ -11913,7 +11912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="352" spans="1:17" hidden="1">
+    <row r="352" spans="1:17">
       <c r="A352" t="s">
         <v>81</v>
       </c>
@@ -11945,7 +11944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:17" hidden="1">
+    <row r="353" spans="1:17">
       <c r="A353" t="s">
         <v>81</v>
       </c>
@@ -11977,7 +11976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="354" spans="1:17" hidden="1">
+    <row r="354" spans="1:17">
       <c r="A354" t="s">
         <v>81</v>
       </c>
@@ -12009,7 +12008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="355" spans="1:17" hidden="1">
+    <row r="355" spans="1:17">
       <c r="A355" t="s">
         <v>81</v>
       </c>
@@ -12041,7 +12040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="356" spans="1:17" hidden="1">
+    <row r="356" spans="1:17">
       <c r="A356" t="s">
         <v>81</v>
       </c>
@@ -12073,7 +12072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="357" spans="1:17" hidden="1">
+    <row r="357" spans="1:17">
       <c r="A357" t="s">
         <v>81</v>
       </c>
@@ -12105,7 +12104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="358" spans="1:17" hidden="1">
+    <row r="358" spans="1:17">
       <c r="A358" t="s">
         <v>81</v>
       </c>
@@ -12137,7 +12136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="359" spans="1:17" hidden="1">
+    <row r="359" spans="1:17">
       <c r="A359" t="s">
         <v>81</v>
       </c>
@@ -12169,7 +12168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="360" spans="1:17" hidden="1">
+    <row r="360" spans="1:17">
       <c r="A360" t="s">
         <v>81</v>
       </c>
@@ -12201,7 +12200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="361" spans="1:17" hidden="1">
+    <row r="361" spans="1:17">
       <c r="A361" t="s">
         <v>81</v>
       </c>
@@ -12233,7 +12232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="362" spans="1:17" hidden="1">
+    <row r="362" spans="1:17">
       <c r="A362" t="s">
         <v>81</v>
       </c>
@@ -12265,7 +12264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="363" spans="1:17" hidden="1">
+    <row r="363" spans="1:17">
       <c r="A363" t="s">
         <v>81</v>
       </c>
@@ -12297,7 +12296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="364" spans="1:17" hidden="1">
+    <row r="364" spans="1:17">
       <c r="A364" t="s">
         <v>81</v>
       </c>
@@ -12329,7 +12328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="365" spans="1:17" hidden="1">
+    <row r="365" spans="1:17">
       <c r="A365" t="s">
         <v>81</v>
       </c>
@@ -12361,7 +12360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="366" spans="1:17" hidden="1">
+    <row r="366" spans="1:17">
       <c r="A366" t="s">
         <v>81</v>
       </c>
@@ -12393,7 +12392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="367" spans="1:17" hidden="1">
+    <row r="367" spans="1:17">
       <c r="A367" t="s">
         <v>81</v>
       </c>
@@ -12425,7 +12424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="368" spans="1:17" hidden="1">
+    <row r="368" spans="1:17">
       <c r="A368" t="s">
         <v>81</v>
       </c>
@@ -12457,7 +12456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="369" spans="1:17" hidden="1">
+    <row r="369" spans="1:17">
       <c r="A369" t="s">
         <v>81</v>
       </c>
@@ -12489,7 +12488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="370" spans="1:17" hidden="1">
+    <row r="370" spans="1:17">
       <c r="A370" t="s">
         <v>81</v>
       </c>
@@ -12521,7 +12520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:17" hidden="1">
+    <row r="371" spans="1:17">
       <c r="A371" t="s">
         <v>81</v>
       </c>
@@ -12553,7 +12552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="372" spans="1:17" hidden="1">
+    <row r="372" spans="1:17">
       <c r="A372" t="s">
         <v>81</v>
       </c>
@@ -12585,7 +12584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="373" spans="1:17" hidden="1">
+    <row r="373" spans="1:17">
       <c r="A373" t="s">
         <v>81</v>
       </c>
@@ -12617,7 +12616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="374" spans="1:17" hidden="1">
+    <row r="374" spans="1:17">
       <c r="A374" t="s">
         <v>81</v>
       </c>
@@ -12649,7 +12648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="375" spans="1:17" hidden="1">
+    <row r="375" spans="1:17">
       <c r="A375" t="s">
         <v>81</v>
       </c>
@@ -12681,7 +12680,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="376" spans="1:17" hidden="1">
+    <row r="376" spans="1:17">
       <c r="A376" t="s">
         <v>81</v>
       </c>
@@ -12713,7 +12712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="377" spans="1:17" hidden="1">
+    <row r="377" spans="1:17">
       <c r="A377" t="s">
         <v>81</v>
       </c>
@@ -12745,7 +12744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="378" spans="1:17" hidden="1">
+    <row r="378" spans="1:17">
       <c r="A378" t="s">
         <v>81</v>
       </c>
@@ -12777,7 +12776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="379" spans="1:17" hidden="1">
+    <row r="379" spans="1:17">
       <c r="A379" t="s">
         <v>81</v>
       </c>
@@ -12809,7 +12808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:17" hidden="1">
+    <row r="380" spans="1:17">
       <c r="A380" t="s">
         <v>81</v>
       </c>
@@ -12841,7 +12840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="381" spans="1:17" hidden="1">
+    <row r="381" spans="1:17">
       <c r="A381" t="s">
         <v>81</v>
       </c>
@@ -12873,7 +12872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="382" spans="1:17" hidden="1">
+    <row r="382" spans="1:17">
       <c r="A382" t="s">
         <v>81</v>
       </c>
@@ -12905,7 +12904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="383" spans="1:17" hidden="1">
+    <row r="383" spans="1:17">
       <c r="A383" t="s">
         <v>81</v>
       </c>
@@ -12937,7 +12936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="384" spans="1:17" hidden="1">
+    <row r="384" spans="1:17">
       <c r="A384" t="s">
         <v>81</v>
       </c>
@@ -12969,7 +12968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="385" spans="1:17" hidden="1">
+    <row r="385" spans="1:17">
       <c r="A385" t="s">
         <v>81</v>
       </c>
@@ -13001,7 +13000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="386" spans="1:17" hidden="1">
+    <row r="386" spans="1:17">
       <c r="A386" t="s">
         <v>81</v>
       </c>
@@ -13033,7 +13032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="387" spans="1:17" hidden="1">
+    <row r="387" spans="1:17">
       <c r="A387" t="s">
         <v>81</v>
       </c>
@@ -13062,7 +13061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:17" hidden="1">
+    <row r="388" spans="1:17">
       <c r="A388" t="s">
         <v>81</v>
       </c>
@@ -13091,7 +13090,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="389" spans="1:17" hidden="1">
+    <row r="389" spans="1:17">
       <c r="A389" t="s">
         <v>81</v>
       </c>
@@ -13120,7 +13119,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="390" spans="1:17" hidden="1">
+    <row r="390" spans="1:17">
       <c r="A390" t="s">
         <v>81</v>
       </c>
@@ -13149,7 +13148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:17" hidden="1">
+    <row r="391" spans="1:17">
       <c r="A391" t="s">
         <v>81</v>
       </c>
@@ -13178,7 +13177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="392" spans="1:17" hidden="1">
+    <row r="392" spans="1:17">
       <c r="A392" t="s">
         <v>81</v>
       </c>
@@ -13207,7 +13206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:17" hidden="1">
+    <row r="393" spans="1:17">
       <c r="A393" t="s">
         <v>81</v>
       </c>
@@ -13236,7 +13235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:17" hidden="1">
+    <row r="394" spans="1:17">
       <c r="A394" t="s">
         <v>81</v>
       </c>
@@ -13265,7 +13264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:17" hidden="1">
+    <row r="395" spans="1:17">
       <c r="A395" t="s">
         <v>81</v>
       </c>
@@ -13294,7 +13293,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="396" spans="1:17" hidden="1">
+    <row r="396" spans="1:17">
       <c r="A396" t="s">
         <v>81</v>
       </c>
@@ -13323,7 +13322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:17" hidden="1">
+    <row r="397" spans="1:17">
       <c r="A397" t="s">
         <v>81</v>
       </c>
@@ -13352,7 +13351,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="398" spans="1:17" hidden="1">
+    <row r="398" spans="1:17">
       <c r="A398" t="s">
         <v>81</v>
       </c>
@@ -13381,7 +13380,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="399" spans="1:17" hidden="1">
+    <row r="399" spans="1:17">
       <c r="A399" t="s">
         <v>81</v>
       </c>
@@ -13410,7 +13409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:17" hidden="1">
+    <row r="400" spans="1:17">
       <c r="A400" t="s">
         <v>81</v>
       </c>
@@ -13439,7 +13438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:13" hidden="1">
+    <row r="401" spans="1:13">
       <c r="A401" t="s">
         <v>81</v>
       </c>
@@ -13468,7 +13467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:13" hidden="1">
+    <row r="402" spans="1:13">
       <c r="A402" t="s">
         <v>81</v>
       </c>
@@ -13497,7 +13496,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="403" spans="1:13" hidden="1">
+    <row r="403" spans="1:13">
       <c r="A403" t="s">
         <v>81</v>
       </c>
@@ -13526,7 +13525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:13" hidden="1">
+    <row r="404" spans="1:13">
       <c r="A404" t="s">
         <v>81</v>
       </c>
@@ -13555,7 +13554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:13" hidden="1">
+    <row r="405" spans="1:13">
       <c r="A405" t="s">
         <v>81</v>
       </c>
@@ -13584,7 +13583,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="406" spans="1:13" hidden="1">
+    <row r="406" spans="1:13">
       <c r="A406" t="s">
         <v>81</v>
       </c>
@@ -13613,7 +13612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:13" hidden="1">
+    <row r="407" spans="1:13">
       <c r="A407" t="s">
         <v>81</v>
       </c>
@@ -13642,7 +13641,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="408" spans="1:13" hidden="1">
+    <row r="408" spans="1:13">
       <c r="A408" t="s">
         <v>81</v>
       </c>
@@ -13671,7 +13670,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="409" spans="1:13" hidden="1">
+    <row r="409" spans="1:13">
       <c r="A409" t="s">
         <v>81</v>
       </c>
@@ -13700,7 +13699,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="410" spans="1:13" hidden="1">
+    <row r="410" spans="1:13">
       <c r="A410" t="s">
         <v>81</v>
       </c>
@@ -13729,7 +13728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:13" hidden="1">
+    <row r="411" spans="1:13">
       <c r="A411" t="s">
         <v>81</v>
       </c>
@@ -13758,7 +13757,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="412" spans="1:13" hidden="1">
+    <row r="412" spans="1:13">
       <c r="A412" t="s">
         <v>81</v>
       </c>
@@ -13787,7 +13786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:13" hidden="1">
+    <row r="413" spans="1:13">
       <c r="A413" t="s">
         <v>81</v>
       </c>
@@ -13816,7 +13815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:13" hidden="1">
+    <row r="414" spans="1:13">
       <c r="A414" t="s">
         <v>81</v>
       </c>
@@ -13845,7 +13844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:13" hidden="1">
+    <row r="415" spans="1:13">
       <c r="A415" t="s">
         <v>81</v>
       </c>
@@ -13874,7 +13873,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="416" spans="1:13" hidden="1">
+    <row r="416" spans="1:13">
       <c r="A416" t="s">
         <v>81</v>
       </c>
@@ -13903,7 +13902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:17" hidden="1">
+    <row r="417" spans="1:17">
       <c r="A417" t="s">
         <v>81</v>
       </c>
@@ -13932,7 +13931,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="418" spans="1:17" hidden="1">
+    <row r="418" spans="1:17">
       <c r="A418" t="s">
         <v>81</v>
       </c>
@@ -13961,7 +13960,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="419" spans="1:17" hidden="1">
+    <row r="419" spans="1:17">
       <c r="A419" t="s">
         <v>81</v>
       </c>
@@ -13990,7 +13989,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="420" spans="1:17" hidden="1">
+    <row r="420" spans="1:17">
       <c r="A420" t="s">
         <v>81</v>
       </c>
@@ -14019,7 +14018,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="421" spans="1:17" hidden="1">
+    <row r="421" spans="1:17">
       <c r="A421" t="s">
         <v>81</v>
       </c>
@@ -14048,7 +14047,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="422" spans="1:17" hidden="1">
+    <row r="422" spans="1:17">
       <c r="A422" t="s">
         <v>81</v>
       </c>
@@ -14077,7 +14076,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="423" spans="1:17" hidden="1">
+    <row r="423" spans="1:17">
       <c r="A423" t="s">
         <v>81</v>
       </c>
@@ -14109,7 +14108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="424" spans="1:17" hidden="1">
+    <row r="424" spans="1:17">
       <c r="A424" t="s">
         <v>81</v>
       </c>
@@ -14141,7 +14140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="425" spans="1:17" hidden="1">
+    <row r="425" spans="1:17">
       <c r="A425" t="s">
         <v>81</v>
       </c>
@@ -14173,7 +14172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="426" spans="1:17" hidden="1">
+    <row r="426" spans="1:17">
       <c r="A426" t="s">
         <v>81</v>
       </c>
@@ -14205,7 +14204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="427" spans="1:17" hidden="1">
+    <row r="427" spans="1:17">
       <c r="A427" t="s">
         <v>81</v>
       </c>
@@ -14237,7 +14236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="428" spans="1:17" hidden="1">
+    <row r="428" spans="1:17">
       <c r="A428" t="s">
         <v>81</v>
       </c>
@@ -14269,7 +14268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="429" spans="1:17" hidden="1">
+    <row r="429" spans="1:17">
       <c r="A429" t="s">
         <v>81</v>
       </c>
@@ -14301,7 +14300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="430" spans="1:17" hidden="1">
+    <row r="430" spans="1:17">
       <c r="A430" t="s">
         <v>81</v>
       </c>
@@ -14333,7 +14332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="431" spans="1:17" hidden="1">
+    <row r="431" spans="1:17">
       <c r="A431" t="s">
         <v>81</v>
       </c>
@@ -14365,7 +14364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="432" spans="1:17" hidden="1">
+    <row r="432" spans="1:17">
       <c r="A432" t="s">
         <v>81</v>
       </c>
@@ -14397,7 +14396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="433" spans="1:17" hidden="1">
+    <row r="433" spans="1:17">
       <c r="A433" t="s">
         <v>81</v>
       </c>
@@ -14429,7 +14428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="434" spans="1:17" hidden="1">
+    <row r="434" spans="1:17">
       <c r="A434" t="s">
         <v>81</v>
       </c>
@@ -14461,7 +14460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="435" spans="1:17" hidden="1">
+    <row r="435" spans="1:17">
       <c r="A435" t="s">
         <v>81</v>
       </c>
@@ -14493,7 +14492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="436" spans="1:17" hidden="1">
+    <row r="436" spans="1:17">
       <c r="A436" t="s">
         <v>81</v>
       </c>
@@ -14525,7 +14524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="437" spans="1:17" hidden="1">
+    <row r="437" spans="1:17">
       <c r="A437" t="s">
         <v>81</v>
       </c>
@@ -14557,7 +14556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="438" spans="1:17" hidden="1">
+    <row r="438" spans="1:17">
       <c r="A438" t="s">
         <v>81</v>
       </c>
@@ -14589,7 +14588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="439" spans="1:17" hidden="1">
+    <row r="439" spans="1:17">
       <c r="A439" t="s">
         <v>81</v>
       </c>
@@ -14621,7 +14620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="440" spans="1:17" hidden="1">
+    <row r="440" spans="1:17">
       <c r="A440" t="s">
         <v>81</v>
       </c>
@@ -14653,7 +14652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="441" spans="1:17" hidden="1">
+    <row r="441" spans="1:17">
       <c r="A441" t="s">
         <v>81</v>
       </c>
@@ -14685,7 +14684,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="442" spans="1:17" hidden="1">
+    <row r="442" spans="1:17">
       <c r="A442" t="s">
         <v>81</v>
       </c>
@@ -14717,7 +14716,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="443" spans="1:17" hidden="1">
+    <row r="443" spans="1:17">
       <c r="A443" t="s">
         <v>81</v>
       </c>
@@ -14749,7 +14748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:17" hidden="1">
+    <row r="444" spans="1:17">
       <c r="A444" t="s">
         <v>81</v>
       </c>
@@ -14781,7 +14780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="445" spans="1:17" hidden="1">
+    <row r="445" spans="1:17">
       <c r="A445" t="s">
         <v>81</v>
       </c>
@@ -14813,7 +14812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="446" spans="1:17" hidden="1">
+    <row r="446" spans="1:17">
       <c r="A446" t="s">
         <v>81</v>
       </c>
@@ -14845,7 +14844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="447" spans="1:17" hidden="1">
+    <row r="447" spans="1:17">
       <c r="A447" t="s">
         <v>81</v>
       </c>
@@ -14877,7 +14876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="448" spans="1:17" hidden="1">
+    <row r="448" spans="1:17">
       <c r="A448" t="s">
         <v>81</v>
       </c>
@@ -14909,7 +14908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="449" spans="1:17" hidden="1">
+    <row r="449" spans="1:17">
       <c r="A449" t="s">
         <v>81</v>
       </c>
@@ -14941,7 +14940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="450" spans="1:17" hidden="1">
+    <row r="450" spans="1:17">
       <c r="A450" t="s">
         <v>81</v>
       </c>
@@ -14973,7 +14972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="451" spans="1:17" hidden="1">
+    <row r="451" spans="1:17">
       <c r="A451" t="s">
         <v>81</v>
       </c>
@@ -15005,7 +15004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="452" spans="1:17" hidden="1">
+    <row r="452" spans="1:17">
       <c r="A452" t="s">
         <v>81</v>
       </c>
@@ -15037,7 +15036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="453" spans="1:17" hidden="1">
+    <row r="453" spans="1:17">
       <c r="A453" t="s">
         <v>81</v>
       </c>
@@ -15069,7 +15068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="454" spans="1:17" hidden="1">
+    <row r="454" spans="1:17">
       <c r="A454" t="s">
         <v>81</v>
       </c>
@@ -15101,7 +15100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:17" hidden="1">
+    <row r="455" spans="1:17">
       <c r="A455" t="s">
         <v>81</v>
       </c>
@@ -15133,7 +15132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="456" spans="1:17" hidden="1">
+    <row r="456" spans="1:17">
       <c r="A456" t="s">
         <v>81</v>
       </c>
@@ -15165,7 +15164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="457" spans="1:17" hidden="1">
+    <row r="457" spans="1:17">
       <c r="A457" t="s">
         <v>81</v>
       </c>
@@ -15197,7 +15196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:17" hidden="1">
+    <row r="458" spans="1:17">
       <c r="A458" t="s">
         <v>81</v>
       </c>
@@ -15229,7 +15228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:17" hidden="1">
+    <row r="459" spans="1:17">
       <c r="A459" t="s">
         <v>81</v>
       </c>
@@ -15261,7 +15260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:17" hidden="1">
+    <row r="460" spans="1:17">
       <c r="A460" t="s">
         <v>81</v>
       </c>
@@ -15293,7 +15292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:17" hidden="1">
+    <row r="461" spans="1:17">
       <c r="A461" t="s">
         <v>81</v>
       </c>
@@ -15325,7 +15324,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:17" hidden="1">
+    <row r="462" spans="1:17">
       <c r="A462" t="s">
         <v>81</v>
       </c>
@@ -15357,7 +15356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="463" spans="1:17" hidden="1">
+    <row r="463" spans="1:17">
       <c r="A463" t="s">
         <v>81</v>
       </c>
@@ -15389,7 +15388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="464" spans="1:17" hidden="1">
+    <row r="464" spans="1:17">
       <c r="A464" t="s">
         <v>81</v>
       </c>
@@ -15421,7 +15420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:17" hidden="1">
+    <row r="465" spans="1:17">
       <c r="A465" t="s">
         <v>81</v>
       </c>
@@ -15453,7 +15452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:17" hidden="1">
+    <row r="466" spans="1:17">
       <c r="A466" t="s">
         <v>81</v>
       </c>
@@ -15485,7 +15484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="467" spans="1:17" hidden="1">
+    <row r="467" spans="1:17">
       <c r="A467" t="s">
         <v>81</v>
       </c>
@@ -15517,7 +15516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="468" spans="1:17" hidden="1">
+    <row r="468" spans="1:17">
       <c r="A468" t="s">
         <v>81</v>
       </c>
@@ -15549,7 +15548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="469" spans="1:17" hidden="1">
+    <row r="469" spans="1:17">
       <c r="A469" t="s">
         <v>81</v>
       </c>
@@ -15581,7 +15580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="470" spans="1:17" hidden="1">
+    <row r="470" spans="1:17">
       <c r="A470" t="s">
         <v>81</v>
       </c>
@@ -15613,7 +15612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="471" spans="1:17" hidden="1">
+    <row r="471" spans="1:17">
       <c r="A471" t="s">
         <v>81</v>
       </c>
@@ -15645,7 +15644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="472" spans="1:17" hidden="1">
+    <row r="472" spans="1:17">
       <c r="A472" t="s">
         <v>81</v>
       </c>
@@ -15677,7 +15676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="473" spans="1:17" hidden="1">
+    <row r="473" spans="1:17">
       <c r="A473" t="s">
         <v>81</v>
       </c>
@@ -15709,7 +15708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="474" spans="1:17" hidden="1">
+    <row r="474" spans="1:17">
       <c r="A474" t="s">
         <v>81</v>
       </c>
@@ -15741,7 +15740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="475" spans="1:17" hidden="1">
+    <row r="475" spans="1:17">
       <c r="A475" t="s">
         <v>81</v>
       </c>
@@ -15773,7 +15772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="476" spans="1:17" hidden="1">
+    <row r="476" spans="1:17">
       <c r="A476" t="s">
         <v>81</v>
       </c>
@@ -15805,7 +15804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="477" spans="1:17" hidden="1">
+    <row r="477" spans="1:17">
       <c r="A477" t="s">
         <v>81</v>
       </c>
@@ -15837,7 +15836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="478" spans="1:17" hidden="1">
+    <row r="478" spans="1:17">
       <c r="A478" t="s">
         <v>81</v>
       </c>
@@ -15869,7 +15868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="479" spans="1:17" hidden="1">
+    <row r="479" spans="1:17">
       <c r="A479" t="s">
         <v>81</v>
       </c>
@@ -15901,7 +15900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="480" spans="1:17" hidden="1">
+    <row r="480" spans="1:17">
       <c r="A480" t="s">
         <v>81</v>
       </c>
@@ -15933,7 +15932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="481" spans="1:17" hidden="1">
+    <row r="481" spans="1:17">
       <c r="A481" t="s">
         <v>81</v>
       </c>
@@ -15965,7 +15964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="482" spans="1:17" hidden="1">
+    <row r="482" spans="1:17">
       <c r="A482" t="s">
         <v>81</v>
       </c>
@@ -15997,7 +15996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="483" spans="1:17" hidden="1">
+    <row r="483" spans="1:17">
       <c r="A483" t="s">
         <v>81</v>
       </c>
@@ -16029,7 +16028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="484" spans="1:17" hidden="1">
+    <row r="484" spans="1:17">
       <c r="A484" t="s">
         <v>81</v>
       </c>
@@ -16061,7 +16060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="485" spans="1:17" hidden="1">
+    <row r="485" spans="1:17">
       <c r="A485" t="s">
         <v>81</v>
       </c>
@@ -16093,7 +16092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="486" spans="1:17" hidden="1">
+    <row r="486" spans="1:17">
       <c r="A486" t="s">
         <v>81</v>
       </c>
@@ -16125,7 +16124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="487" spans="1:17" hidden="1">
+    <row r="487" spans="1:17">
       <c r="A487" t="s">
         <v>81</v>
       </c>
@@ -16157,7 +16156,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="488" spans="1:17" hidden="1">
+    <row r="488" spans="1:17">
       <c r="A488" t="s">
         <v>81</v>
       </c>
@@ -16189,7 +16188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="489" spans="1:17" hidden="1">
+    <row r="489" spans="1:17">
       <c r="A489" t="s">
         <v>81</v>
       </c>
@@ -16221,7 +16220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="490" spans="1:17" hidden="1">
+    <row r="490" spans="1:17">
       <c r="A490" t="s">
         <v>81</v>
       </c>
@@ -16253,7 +16252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="491" spans="1:17" hidden="1">
+    <row r="491" spans="1:17">
       <c r="A491" t="s">
         <v>81</v>
       </c>
@@ -16285,7 +16284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="492" spans="1:17" hidden="1">
+    <row r="492" spans="1:17">
       <c r="A492" t="s">
         <v>81</v>
       </c>
@@ -16317,7 +16316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="493" spans="1:17" hidden="1">
+    <row r="493" spans="1:17">
       <c r="A493" t="s">
         <v>81</v>
       </c>
@@ -16349,7 +16348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="494" spans="1:17" hidden="1">
+    <row r="494" spans="1:17">
       <c r="A494" t="s">
         <v>81</v>
       </c>
@@ -16381,7 +16380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="495" spans="1:17" hidden="1">
+    <row r="495" spans="1:17">
       <c r="A495" t="s">
         <v>81</v>
       </c>
@@ -16413,7 +16412,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="496" spans="1:17" hidden="1">
+    <row r="496" spans="1:17">
       <c r="A496" t="s">
         <v>81</v>
       </c>
@@ -16442,7 +16441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="497" spans="1:17" hidden="1">
+    <row r="497" spans="1:17">
       <c r="A497" t="s">
         <v>81</v>
       </c>
@@ -16471,7 +16470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="498" spans="1:17" hidden="1">
+    <row r="498" spans="1:17">
       <c r="A498" t="s">
         <v>81</v>
       </c>
@@ -16500,7 +16499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="499" spans="1:17" hidden="1">
+    <row r="499" spans="1:17">
       <c r="A499" t="s">
         <v>81</v>
       </c>
@@ -16529,7 +16528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="500" spans="1:17" hidden="1">
+    <row r="500" spans="1:17">
       <c r="A500" t="s">
         <v>81</v>
       </c>
@@ -16558,7 +16557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="501" spans="1:17" hidden="1">
+    <row r="501" spans="1:17">
       <c r="A501" t="s">
         <v>81</v>
       </c>
@@ -16587,7 +16586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:17" hidden="1">
+    <row r="502" spans="1:17">
       <c r="A502" t="s">
         <v>81</v>
       </c>
@@ -16616,7 +16615,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="503" spans="1:17" hidden="1">
+    <row r="503" spans="1:17">
       <c r="A503" t="s">
         <v>81</v>
       </c>
@@ -16645,7 +16644,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="504" spans="1:17" hidden="1">
+    <row r="504" spans="1:17">
       <c r="A504" t="s">
         <v>81</v>
       </c>
@@ -16674,7 +16673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="505" spans="1:17" hidden="1">
+    <row r="505" spans="1:17">
       <c r="A505" t="s">
         <v>81</v>
       </c>
@@ -16703,7 +16702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="506" spans="1:17" hidden="1">
+    <row r="506" spans="1:17">
       <c r="A506" t="s">
         <v>81</v>
       </c>
@@ -16732,7 +16731,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="507" spans="1:17" hidden="1">
+    <row r="507" spans="1:17">
       <c r="A507" t="s">
         <v>81</v>
       </c>
@@ -16761,7 +16760,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="508" spans="1:17" hidden="1">
+    <row r="508" spans="1:17">
       <c r="A508" t="s">
         <v>81</v>
       </c>
@@ -16790,7 +16789,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="509" spans="1:17" hidden="1">
+    <row r="509" spans="1:17">
       <c r="A509" t="s">
         <v>81</v>
       </c>
@@ -16819,7 +16818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="510" spans="1:17" hidden="1">
+    <row r="510" spans="1:17">
       <c r="A510" t="s">
         <v>81</v>
       </c>
@@ -16848,7 +16847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="1:17" hidden="1">
+    <row r="511" spans="1:17">
       <c r="A511" t="s">
         <v>81</v>
       </c>
@@ -16877,7 +16876,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="512" spans="1:17" hidden="1">
+    <row r="512" spans="1:17">
       <c r="A512" t="s">
         <v>81</v>
       </c>
@@ -16909,7 +16908,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="513" spans="1:13" hidden="1">
+    <row r="513" spans="1:13">
       <c r="A513" t="s">
         <v>81</v>
       </c>
@@ -16938,7 +16937,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="514" spans="1:13" hidden="1">
+    <row r="514" spans="1:13">
       <c r="A514" t="s">
         <v>81</v>
       </c>
@@ -16967,7 +16966,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="515" spans="1:13" hidden="1">
+    <row r="515" spans="1:13">
       <c r="A515" t="s">
         <v>81</v>
       </c>
@@ -16996,7 +16995,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="516" spans="1:13" hidden="1">
+    <row r="516" spans="1:13">
       <c r="A516" t="s">
         <v>81</v>
       </c>
@@ -17025,7 +17024,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="517" spans="1:13" hidden="1">
+    <row r="517" spans="1:13">
       <c r="A517" t="s">
         <v>81</v>
       </c>
@@ -17054,7 +17053,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="518" spans="1:13" hidden="1">
+    <row r="518" spans="1:13">
       <c r="A518" t="s">
         <v>81</v>
       </c>
@@ -17083,7 +17082,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="519" spans="1:13" hidden="1">
+    <row r="519" spans="1:13">
       <c r="A519" t="s">
         <v>81</v>
       </c>
@@ -17112,7 +17111,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="520" spans="1:13" hidden="1">
+    <row r="520" spans="1:13">
       <c r="A520" t="s">
         <v>81</v>
       </c>
@@ -17141,7 +17140,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="521" spans="1:13" hidden="1">
+    <row r="521" spans="1:13">
       <c r="A521" t="s">
         <v>81</v>
       </c>
@@ -17170,7 +17169,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="522" spans="1:13" hidden="1">
+    <row r="522" spans="1:13">
       <c r="A522" t="s">
         <v>81</v>
       </c>
@@ -17199,7 +17198,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="523" spans="1:13" hidden="1">
+    <row r="523" spans="1:13">
       <c r="A523" t="s">
         <v>81</v>
       </c>
@@ -17228,7 +17227,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="524" spans="1:13" hidden="1">
+    <row r="524" spans="1:13">
       <c r="A524" t="s">
         <v>81</v>
       </c>
@@ -17257,7 +17256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="525" spans="1:13" hidden="1">
+    <row r="525" spans="1:13">
       <c r="A525" t="s">
         <v>81</v>
       </c>
@@ -17286,7 +17285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="526" spans="1:13" hidden="1">
+    <row r="526" spans="1:13">
       <c r="A526" t="s">
         <v>81</v>
       </c>
@@ -17315,7 +17314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="527" spans="1:13" hidden="1">
+    <row r="527" spans="1:13">
       <c r="A527" t="s">
         <v>81</v>
       </c>
@@ -17344,7 +17343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="528" spans="1:13" hidden="1">
+    <row r="528" spans="1:13">
       <c r="A528" t="s">
         <v>81</v>
       </c>
@@ -17373,7 +17372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" spans="1:17" hidden="1">
+    <row r="529" spans="1:17">
       <c r="A529" t="s">
         <v>81</v>
       </c>
@@ -17402,7 +17401,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="530" spans="1:17" hidden="1">
+    <row r="530" spans="1:17">
       <c r="A530" t="s">
         <v>81</v>
       </c>
@@ -17431,7 +17430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="531" spans="1:17" hidden="1">
+    <row r="531" spans="1:17">
       <c r="A531" t="s">
         <v>81</v>
       </c>
@@ -17460,7 +17459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="532" spans="1:17" hidden="1">
+    <row r="532" spans="1:17">
       <c r="A532" t="s">
         <v>81</v>
       </c>
@@ -17489,7 +17488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="533" spans="1:17" hidden="1">
+    <row r="533" spans="1:17">
       <c r="A533" t="s">
         <v>81</v>
       </c>
@@ -17518,7 +17517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:17" hidden="1">
+    <row r="534" spans="1:17">
       <c r="A534" t="s">
         <v>81</v>
       </c>
@@ -17547,7 +17546,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="535" spans="1:17" hidden="1">
+    <row r="535" spans="1:17">
       <c r="A535" t="s">
         <v>81</v>
       </c>
@@ -17576,7 +17575,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="536" spans="1:17" hidden="1">
+    <row r="536" spans="1:17">
       <c r="A536" t="s">
         <v>81</v>
       </c>
@@ -17605,7 +17604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="537" spans="1:17" hidden="1">
+    <row r="537" spans="1:17">
       <c r="A537" t="s">
         <v>81</v>
       </c>
@@ -17634,7 +17633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="538" spans="1:17" hidden="1">
+    <row r="538" spans="1:17">
       <c r="A538" t="s">
         <v>81</v>
       </c>
@@ -17663,7 +17662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="539" spans="1:17" hidden="1">
+    <row r="539" spans="1:17">
       <c r="A539" t="s">
         <v>81</v>
       </c>
@@ -17692,7 +17691,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="540" spans="1:17" hidden="1">
+    <row r="540" spans="1:17">
       <c r="A540" t="s">
         <v>81</v>
       </c>
@@ -17724,7 +17723,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="541" spans="1:17" hidden="1">
+    <row r="541" spans="1:17">
       <c r="A541" t="s">
         <v>81</v>
       </c>
@@ -17756,7 +17755,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="542" spans="1:17" hidden="1">
+    <row r="542" spans="1:17">
       <c r="A542" t="s">
         <v>81</v>
       </c>
@@ -17785,7 +17784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="543" spans="1:17" hidden="1">
+    <row r="543" spans="1:17">
       <c r="A543" t="s">
         <v>81</v>
       </c>
@@ -17814,7 +17813,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="544" spans="1:17" hidden="1">
+    <row r="544" spans="1:17">
       <c r="A544" t="s">
         <v>81</v>
       </c>
@@ -17843,7 +17842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="545" spans="1:13" hidden="1">
+    <row r="545" spans="1:13">
       <c r="A545" t="s">
         <v>81</v>
       </c>
@@ -17872,7 +17871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="546" spans="1:13" hidden="1">
+    <row r="546" spans="1:13">
       <c r="A546" t="s">
         <v>81</v>
       </c>
@@ -17901,7 +17900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="547" spans="1:13" hidden="1">
+    <row r="547" spans="1:13">
       <c r="A547" t="s">
         <v>81</v>
       </c>
@@ -17930,7 +17929,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="548" spans="1:13" hidden="1">
+    <row r="548" spans="1:13">
       <c r="A548" t="s">
         <v>81</v>
       </c>
@@ -17959,7 +17958,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="549" spans="1:13" hidden="1">
+    <row r="549" spans="1:13">
       <c r="A549" t="s">
         <v>81</v>
       </c>
@@ -17988,7 +17987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="550" spans="1:13" hidden="1">
+    <row r="550" spans="1:13">
       <c r="A550" t="s">
         <v>81</v>
       </c>
@@ -18017,7 +18016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="551" spans="1:13" hidden="1">
+    <row r="551" spans="1:13">
       <c r="A551" t="s">
         <v>81</v>
       </c>
@@ -18046,7 +18045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="552" spans="1:13" hidden="1">
+    <row r="552" spans="1:13">
       <c r="A552" t="s">
         <v>81</v>
       </c>
@@ -18075,7 +18074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:13" hidden="1">
+    <row r="553" spans="1:13">
       <c r="A553" t="s">
         <v>81</v>
       </c>
@@ -18104,7 +18103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="554" spans="1:13" hidden="1">
+    <row r="554" spans="1:13">
       <c r="A554" t="s">
         <v>81</v>
       </c>
@@ -18133,7 +18132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="555" spans="1:13" hidden="1">
+    <row r="555" spans="1:13">
       <c r="A555" t="s">
         <v>81</v>
       </c>
@@ -18162,7 +18161,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="556" spans="1:13" hidden="1">
+    <row r="556" spans="1:13">
       <c r="A556" t="s">
         <v>81</v>
       </c>
@@ -18191,7 +18190,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="557" spans="1:13" hidden="1">
+    <row r="557" spans="1:13">
       <c r="A557" t="s">
         <v>81</v>
       </c>
@@ -18220,7 +18219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="558" spans="1:13" hidden="1">
+    <row r="558" spans="1:13">
       <c r="A558" t="s">
         <v>81</v>
       </c>
@@ -18249,7 +18248,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="559" spans="1:13" hidden="1">
+    <row r="559" spans="1:13">
       <c r="A559" t="s">
         <v>81</v>
       </c>
@@ -18278,7 +18277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="560" spans="1:13" hidden="1">
+    <row r="560" spans="1:13">
       <c r="A560" t="s">
         <v>81</v>
       </c>
@@ -18307,7 +18306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="561" spans="1:13" hidden="1">
+    <row r="561" spans="1:13">
       <c r="A561" t="s">
         <v>81</v>
       </c>
@@ -18336,7 +18335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="562" spans="1:13" hidden="1">
+    <row r="562" spans="1:13">
       <c r="A562" t="s">
         <v>81</v>
       </c>
@@ -18365,7 +18364,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="563" spans="1:13" hidden="1">
+    <row r="563" spans="1:13">
       <c r="A563" t="s">
         <v>81</v>
       </c>
@@ -18394,7 +18393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="564" spans="1:13" hidden="1">
+    <row r="564" spans="1:13">
       <c r="A564" t="s">
         <v>81</v>
       </c>
@@ -18423,7 +18422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="565" spans="1:13" hidden="1">
+    <row r="565" spans="1:13">
       <c r="A565" t="s">
         <v>81</v>
       </c>
@@ -18452,7 +18451,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="566" spans="1:13" hidden="1">
+    <row r="566" spans="1:13">
       <c r="A566" t="s">
         <v>81</v>
       </c>
@@ -18481,7 +18480,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="567" spans="1:13" hidden="1">
+    <row r="567" spans="1:13">
       <c r="A567" t="s">
         <v>81</v>
       </c>
@@ -18510,7 +18509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="568" spans="1:13" hidden="1">
+    <row r="568" spans="1:13">
       <c r="A568" t="s">
         <v>81</v>
       </c>
@@ -18539,7 +18538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="569" spans="1:13" hidden="1">
+    <row r="569" spans="1:13">
       <c r="A569" t="s">
         <v>81</v>
       </c>
@@ -18568,7 +18567,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="570" spans="1:13" hidden="1">
+    <row r="570" spans="1:13">
       <c r="A570" t="s">
         <v>81</v>
       </c>
@@ -18597,7 +18596,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="571" spans="1:13" hidden="1">
+    <row r="571" spans="1:13">
       <c r="A571" t="s">
         <v>81</v>
       </c>
@@ -18626,7 +18625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:13" hidden="1">
+    <row r="572" spans="1:13">
       <c r="A572" t="s">
         <v>81</v>
       </c>
@@ -18655,7 +18654,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="573" spans="1:13" hidden="1">
+    <row r="573" spans="1:13">
       <c r="A573" t="s">
         <v>81</v>
       </c>
@@ -18684,7 +18683,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="574" spans="1:13" hidden="1">
+    <row r="574" spans="1:13">
       <c r="A574" t="s">
         <v>81</v>
       </c>
@@ -18713,7 +18712,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="575" spans="1:13" hidden="1">
+    <row r="575" spans="1:13">
       <c r="A575" t="s">
         <v>81</v>
       </c>
@@ -18742,7 +18741,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="576" spans="1:13" hidden="1">
+    <row r="576" spans="1:13">
       <c r="A576" t="s">
         <v>81</v>
       </c>
@@ -18771,7 +18770,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="577" spans="1:13" hidden="1">
+    <row r="577" spans="1:13">
       <c r="A577" t="s">
         <v>81</v>
       </c>
@@ -18800,7 +18799,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="578" spans="1:13" hidden="1">
+    <row r="578" spans="1:13">
       <c r="A578" t="s">
         <v>81</v>
       </c>
@@ -18829,7 +18828,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="579" spans="1:13" hidden="1">
+    <row r="579" spans="1:13">
       <c r="A579" t="s">
         <v>81</v>
       </c>
@@ -18858,7 +18857,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="580" spans="1:13" hidden="1">
+    <row r="580" spans="1:13">
       <c r="A580" t="s">
         <v>81</v>
       </c>
@@ -18887,7 +18886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:13" hidden="1">
+    <row r="581" spans="1:13">
       <c r="A581" t="s">
         <v>81</v>
       </c>
@@ -18916,7 +18915,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="582" spans="1:13" hidden="1">
+    <row r="582" spans="1:13">
       <c r="A582" t="s">
         <v>81</v>
       </c>
@@ -18945,7 +18944,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="583" spans="1:13" hidden="1">
+    <row r="583" spans="1:13">
       <c r="A583" t="s">
         <v>81</v>
       </c>
@@ -18974,7 +18973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:13" hidden="1">
+    <row r="584" spans="1:13">
       <c r="A584" t="s">
         <v>81</v>
       </c>
@@ -19003,7 +19002,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="585" spans="1:13" hidden="1">
+    <row r="585" spans="1:13">
       <c r="A585" t="s">
         <v>81</v>
       </c>
@@ -19032,7 +19031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="586" spans="1:13" hidden="1">
+    <row r="586" spans="1:13">
       <c r="A586" t="s">
         <v>81</v>
       </c>
@@ -19061,7 +19060,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="587" spans="1:13" hidden="1">
+    <row r="587" spans="1:13">
       <c r="A587" t="s">
         <v>81</v>
       </c>
@@ -19090,7 +19089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:13" hidden="1">
+    <row r="588" spans="1:13">
       <c r="A588" t="s">
         <v>81</v>
       </c>
@@ -19119,7 +19118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="589" spans="1:13" hidden="1">
+    <row r="589" spans="1:13">
       <c r="A589" t="s">
         <v>81</v>
       </c>
@@ -19148,7 +19147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:13" hidden="1">
+    <row r="590" spans="1:13">
       <c r="A590" t="s">
         <v>81</v>
       </c>
@@ -19177,7 +19176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="591" spans="1:13" hidden="1">
+    <row r="591" spans="1:13">
       <c r="A591" t="s">
         <v>81</v>
       </c>
@@ -19206,7 +19205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="592" spans="1:13" hidden="1">
+    <row r="592" spans="1:13">
       <c r="A592" t="s">
         <v>81</v>
       </c>
@@ -19235,7 +19234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="593" spans="1:13" hidden="1">
+    <row r="593" spans="1:13">
       <c r="A593" t="s">
         <v>81</v>
       </c>
@@ -19264,7 +19263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="594" spans="1:13" hidden="1">
+    <row r="594" spans="1:13">
       <c r="A594" t="s">
         <v>81</v>
       </c>
@@ -19293,7 +19292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="595" spans="1:13" hidden="1">
+    <row r="595" spans="1:13">
       <c r="A595" t="s">
         <v>81</v>
       </c>
@@ -19322,7 +19321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:13" hidden="1">
+    <row r="596" spans="1:13">
       <c r="A596" t="s">
         <v>81</v>
       </c>
@@ -19351,7 +19350,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="597" spans="1:13" hidden="1">
+    <row r="597" spans="1:13">
       <c r="A597" t="s">
         <v>81</v>
       </c>
@@ -19380,7 +19379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:13" hidden="1">
+    <row r="598" spans="1:13">
       <c r="A598" t="s">
         <v>81</v>
       </c>
@@ -19409,7 +19408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="1:13" hidden="1">
+    <row r="599" spans="1:13">
       <c r="A599" t="s">
         <v>81</v>
       </c>
@@ -19438,7 +19437,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="600" spans="1:13" hidden="1">
+    <row r="600" spans="1:13">
       <c r="A600" t="s">
         <v>81</v>
       </c>
@@ -19467,7 +19466,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="601" spans="1:13" hidden="1">
+    <row r="601" spans="1:13">
       <c r="A601" t="s">
         <v>81</v>
       </c>
@@ -19496,7 +19495,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="602" spans="1:13" hidden="1">
+    <row r="602" spans="1:13">
       <c r="A602" t="s">
         <v>81</v>
       </c>
@@ -19525,7 +19524,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="603" spans="1:13" hidden="1">
+    <row r="603" spans="1:13">
       <c r="A603" t="s">
         <v>81</v>
       </c>
@@ -19554,7 +19553,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="604" spans="1:13" hidden="1">
+    <row r="604" spans="1:13">
       <c r="A604" t="s">
         <v>81</v>
       </c>
@@ -19583,7 +19582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:13" hidden="1">
+    <row r="605" spans="1:13">
       <c r="A605" t="s">
         <v>81</v>
       </c>
@@ -19612,7 +19611,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="606" spans="1:13" hidden="1">
+    <row r="606" spans="1:13">
       <c r="A606" t="s">
         <v>81</v>
       </c>
@@ -19641,7 +19640,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="607" spans="1:13" hidden="1">
+    <row r="607" spans="1:13">
       <c r="A607" t="s">
         <v>81</v>
       </c>
@@ -19670,7 +19669,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="608" spans="1:13" hidden="1">
+    <row r="608" spans="1:13">
       <c r="A608" t="s">
         <v>81</v>
       </c>
@@ -19699,7 +19698,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="609" spans="1:17" hidden="1">
+    <row r="609" spans="1:17">
       <c r="A609" t="s">
         <v>81</v>
       </c>
@@ -19728,7 +19727,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="610" spans="1:17" hidden="1">
+    <row r="610" spans="1:17">
       <c r="A610" t="s">
         <v>81</v>
       </c>
@@ -19757,7 +19756,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="611" spans="1:17" hidden="1">
+    <row r="611" spans="1:17">
       <c r="A611" t="s">
         <v>81</v>
       </c>
@@ -19786,7 +19785,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="612" spans="1:17" hidden="1">
+    <row r="612" spans="1:17">
       <c r="A612" t="s">
         <v>81</v>
       </c>
@@ -19815,7 +19814,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="613" spans="1:17" hidden="1">
+    <row r="613" spans="1:17">
       <c r="A613" t="s">
         <v>81</v>
       </c>
@@ -19844,7 +19843,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="614" spans="1:17" hidden="1">
+    <row r="614" spans="1:17">
       <c r="A614" t="s">
         <v>81</v>
       </c>
@@ -19873,7 +19872,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="615" spans="1:17" hidden="1">
+    <row r="615" spans="1:17">
       <c r="A615" t="s">
         <v>81</v>
       </c>
@@ -19902,7 +19901,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="616" spans="1:17" hidden="1">
+    <row r="616" spans="1:17">
       <c r="A616" t="s">
         <v>81</v>
       </c>
@@ -19931,7 +19930,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="617" spans="1:17" hidden="1">
+    <row r="617" spans="1:17">
       <c r="A617" t="s">
         <v>81</v>
       </c>
@@ -19960,7 +19959,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="618" spans="1:17" hidden="1">
+    <row r="618" spans="1:17">
       <c r="A618" t="s">
         <v>81</v>
       </c>
@@ -19989,7 +19988,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="619" spans="1:17" hidden="1">
+    <row r="619" spans="1:17">
       <c r="A619" t="s">
         <v>81</v>
       </c>
@@ -20018,7 +20017,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="620" spans="1:17" hidden="1">
+    <row r="620" spans="1:17">
       <c r="A620" t="s">
         <v>81</v>
       </c>
@@ -20047,7 +20046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="621" spans="1:17" hidden="1">
+    <row r="621" spans="1:17">
       <c r="A621" t="s">
         <v>81</v>
       </c>
@@ -20076,7 +20075,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="622" spans="1:17" hidden="1">
+    <row r="622" spans="1:17">
       <c r="A622" t="s">
         <v>81</v>
       </c>
@@ -20105,7 +20104,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="623" spans="1:17" hidden="1">
+    <row r="623" spans="1:17">
       <c r="A623" t="s">
         <v>81</v>
       </c>
@@ -20143,7 +20142,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="624" spans="1:17" hidden="1">
+    <row r="624" spans="1:17">
       <c r="A624" t="s">
         <v>81</v>
       </c>
@@ -20172,7 +20171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="625" spans="1:17" hidden="1">
+    <row r="625" spans="1:17">
       <c r="A625" t="s">
         <v>81</v>
       </c>
@@ -20201,7 +20200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="626" spans="1:17" hidden="1">
+    <row r="626" spans="1:17">
       <c r="A626" t="s">
         <v>81</v>
       </c>
@@ -20230,7 +20229,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="627" spans="1:17" hidden="1">
+    <row r="627" spans="1:17">
       <c r="A627" t="s">
         <v>81</v>
       </c>
@@ -20259,7 +20258,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="628" spans="1:17" hidden="1">
+    <row r="628" spans="1:17">
       <c r="A628" t="s">
         <v>81</v>
       </c>
@@ -20288,7 +20287,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="629" spans="1:17" hidden="1">
+    <row r="629" spans="1:17">
       <c r="A629" t="s">
         <v>81</v>
       </c>
@@ -20317,7 +20316,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="630" spans="1:17" hidden="1">
+    <row r="630" spans="1:17">
       <c r="A630" t="s">
         <v>81</v>
       </c>
@@ -20346,7 +20345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="631" spans="1:17" hidden="1">
+    <row r="631" spans="1:17">
       <c r="A631" t="s">
         <v>81</v>
       </c>
@@ -20375,7 +20374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="632" spans="1:17" hidden="1">
+    <row r="632" spans="1:17">
       <c r="A632" t="s">
         <v>81</v>
       </c>
@@ -20404,7 +20403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:17" hidden="1">
+    <row r="633" spans="1:17">
       <c r="A633" t="s">
         <v>81</v>
       </c>
@@ -20433,7 +20432,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="634" spans="1:17" hidden="1">
+    <row r="634" spans="1:17">
       <c r="A634" t="s">
         <v>81</v>
       </c>
@@ -20462,7 +20461,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="635" spans="1:17" hidden="1">
+    <row r="635" spans="1:17">
       <c r="A635" t="s">
         <v>81</v>
       </c>
@@ -20494,7 +20493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="636" spans="1:17" hidden="1">
+    <row r="636" spans="1:17">
       <c r="A636" t="s">
         <v>81</v>
       </c>
@@ -20526,7 +20525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="637" spans="1:17" hidden="1">
+    <row r="637" spans="1:17">
       <c r="A637" t="s">
         <v>81</v>
       </c>
@@ -20558,7 +20557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="638" spans="1:17" hidden="1">
+    <row r="638" spans="1:17">
       <c r="A638" t="s">
         <v>81</v>
       </c>
@@ -20587,7 +20586,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="639" spans="1:17" hidden="1">
+    <row r="639" spans="1:17">
       <c r="A639" t="s">
         <v>81</v>
       </c>
@@ -20616,7 +20615,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="640" spans="1:17" hidden="1">
+    <row r="640" spans="1:17">
       <c r="A640" t="s">
         <v>81</v>
       </c>
@@ -20645,7 +20644,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="641" spans="1:13" hidden="1">
+    <row r="641" spans="1:13">
       <c r="A641" t="s">
         <v>81</v>
       </c>
@@ -20674,7 +20673,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="642" spans="1:13" hidden="1">
+    <row r="642" spans="1:13">
       <c r="A642" t="s">
         <v>81</v>
       </c>
@@ -20703,7 +20702,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="643" spans="1:13" hidden="1">
+    <row r="643" spans="1:13">
       <c r="A643" t="s">
         <v>81</v>
       </c>
@@ -20732,7 +20731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="644" spans="1:13" hidden="1">
+    <row r="644" spans="1:13">
       <c r="A644" t="s">
         <v>81</v>
       </c>
@@ -20761,7 +20760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="645" spans="1:13" hidden="1">
+    <row r="645" spans="1:13">
       <c r="A645" t="s">
         <v>81</v>
       </c>
@@ -20790,7 +20789,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="646" spans="1:13" hidden="1">
+    <row r="646" spans="1:13">
       <c r="A646" t="s">
         <v>81</v>
       </c>
@@ -20819,7 +20818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="647" spans="1:13" hidden="1">
+    <row r="647" spans="1:13">
       <c r="A647" t="s">
         <v>81</v>
       </c>
@@ -20848,7 +20847,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="648" spans="1:13" hidden="1">
+    <row r="648" spans="1:13">
       <c r="A648" t="s">
         <v>81</v>
       </c>
@@ -20877,7 +20876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="649" spans="1:13" hidden="1">
+    <row r="649" spans="1:13">
       <c r="A649" t="s">
         <v>81</v>
       </c>
@@ -20906,7 +20905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="650" spans="1:13" hidden="1">
+    <row r="650" spans="1:13">
       <c r="A650" t="s">
         <v>81</v>
       </c>
@@ -20935,7 +20934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="651" spans="1:13" hidden="1">
+    <row r="651" spans="1:13">
       <c r="A651" t="s">
         <v>81</v>
       </c>
@@ -20964,7 +20963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="652" spans="1:13" hidden="1">
+    <row r="652" spans="1:13">
       <c r="A652" t="s">
         <v>81</v>
       </c>
@@ -20993,7 +20992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:13" hidden="1">
+    <row r="653" spans="1:13">
       <c r="A653" t="s">
         <v>81</v>
       </c>
@@ -21022,7 +21021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:13" hidden="1">
+    <row r="654" spans="1:13">
       <c r="A654" t="s">
         <v>81</v>
       </c>
@@ -21051,7 +21050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="655" spans="1:13" hidden="1">
+    <row r="655" spans="1:13">
       <c r="A655" t="s">
         <v>81</v>
       </c>
@@ -21080,7 +21079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="656" spans="1:13" hidden="1">
+    <row r="656" spans="1:13">
       <c r="A656" t="s">
         <v>81</v>
       </c>
@@ -21109,7 +21108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="657" spans="1:13" hidden="1">
+    <row r="657" spans="1:13">
       <c r="A657" t="s">
         <v>81</v>
       </c>
@@ -21138,7 +21137,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="658" spans="1:13" hidden="1">
+    <row r="658" spans="1:13">
       <c r="A658" t="s">
         <v>81</v>
       </c>
@@ -21167,7 +21166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="659" spans="1:13" hidden="1">
+    <row r="659" spans="1:13">
       <c r="A659" t="s">
         <v>81</v>
       </c>
@@ -21196,7 +21195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="660" spans="1:13" hidden="1">
+    <row r="660" spans="1:13">
       <c r="A660" t="s">
         <v>81</v>
       </c>
@@ -21225,7 +21224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="661" spans="1:13" hidden="1">
+    <row r="661" spans="1:13">
       <c r="A661" t="s">
         <v>81</v>
       </c>
@@ -21254,7 +21253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="662" spans="1:13" hidden="1">
+    <row r="662" spans="1:13">
       <c r="A662" t="s">
         <v>81</v>
       </c>
@@ -21283,7 +21282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="663" spans="1:13" hidden="1">
+    <row r="663" spans="1:13">
       <c r="A663" t="s">
         <v>81</v>
       </c>
@@ -21312,7 +21311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="664" spans="1:13" hidden="1">
+    <row r="664" spans="1:13">
       <c r="A664" t="s">
         <v>81</v>
       </c>
@@ -21341,7 +21340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="665" spans="1:13" hidden="1">
+    <row r="665" spans="1:13">
       <c r="A665" t="s">
         <v>81</v>
       </c>
@@ -21370,7 +21369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="666" spans="1:13" hidden="1">
+    <row r="666" spans="1:13">
       <c r="A666" t="s">
         <v>81</v>
       </c>
@@ -21399,7 +21398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="667" spans="1:13" hidden="1">
+    <row r="667" spans="1:13">
       <c r="A667" t="s">
         <v>81</v>
       </c>
@@ -21428,7 +21427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="668" spans="1:13" hidden="1">
+    <row r="668" spans="1:13">
       <c r="A668" t="s">
         <v>81</v>
       </c>
@@ -21457,7 +21456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="669" spans="1:13" hidden="1">
+    <row r="669" spans="1:13">
       <c r="A669" t="s">
         <v>81</v>
       </c>
@@ -21486,7 +21485,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="670" spans="1:13" hidden="1">
+    <row r="670" spans="1:13">
       <c r="A670" t="s">
         <v>81</v>
       </c>
@@ -21515,7 +21514,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="671" spans="1:13" hidden="1">
+    <row r="671" spans="1:13">
       <c r="A671" t="s">
         <v>81</v>
       </c>
@@ -21544,7 +21543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="672" spans="1:13" hidden="1">
+    <row r="672" spans="1:13">
       <c r="A672" t="s">
         <v>81</v>
       </c>
@@ -21573,7 +21572,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="673" spans="1:17" hidden="1">
+    <row r="673" spans="1:17">
       <c r="A673" t="s">
         <v>81</v>
       </c>
@@ -21602,7 +21601,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="674" spans="1:17" hidden="1">
+    <row r="674" spans="1:17">
       <c r="A674" t="s">
         <v>81</v>
       </c>
@@ -21631,7 +21630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="675" spans="1:17" hidden="1">
+    <row r="675" spans="1:17">
       <c r="A675" t="s">
         <v>81</v>
       </c>
@@ -21660,7 +21659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="676" spans="1:17" hidden="1">
+    <row r="676" spans="1:17">
       <c r="A676" t="s">
         <v>81</v>
       </c>
@@ -21689,7 +21688,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="677" spans="1:17" hidden="1">
+    <row r="677" spans="1:17">
       <c r="A677" t="s">
         <v>81</v>
       </c>
@@ -21718,7 +21717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:17" hidden="1">
+    <row r="678" spans="1:17">
       <c r="A678" t="s">
         <v>81</v>
       </c>
@@ -21747,7 +21746,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="679" spans="1:17" hidden="1">
+    <row r="679" spans="1:17">
       <c r="A679" t="s">
         <v>81</v>
       </c>
@@ -21776,7 +21775,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="680" spans="1:17" hidden="1">
+    <row r="680" spans="1:17">
       <c r="A680" t="s">
         <v>81</v>
       </c>
@@ -21805,7 +21804,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="681" spans="1:17" hidden="1">
+    <row r="681" spans="1:17">
       <c r="A681" t="s">
         <v>81</v>
       </c>
@@ -21834,7 +21833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="682" spans="1:17" hidden="1">
+    <row r="682" spans="1:17">
       <c r="A682" t="s">
         <v>81</v>
       </c>
@@ -21863,7 +21862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="683" spans="1:17" hidden="1">
+    <row r="683" spans="1:17">
       <c r="A683" t="s">
         <v>81</v>
       </c>
@@ -21892,7 +21891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="684" spans="1:17" hidden="1">
+    <row r="684" spans="1:17">
       <c r="A684" t="s">
         <v>81</v>
       </c>
@@ -21921,7 +21920,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="685" spans="1:17" hidden="1">
+    <row r="685" spans="1:17">
       <c r="A685" t="s">
         <v>81</v>
       </c>
@@ -21953,7 +21952,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="686" spans="1:17" hidden="1">
+    <row r="686" spans="1:17">
       <c r="A686" t="s">
         <v>81</v>
       </c>
@@ -21985,7 +21984,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="687" spans="1:17" hidden="1">
+    <row r="687" spans="1:17">
       <c r="A687" t="s">
         <v>81</v>
       </c>
@@ -22017,7 +22016,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="688" spans="1:17" hidden="1">
+    <row r="688" spans="1:17">
       <c r="A688" t="s">
         <v>81</v>
       </c>
@@ -22049,7 +22048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="689" spans="1:17" hidden="1">
+    <row r="689" spans="1:17">
       <c r="A689" t="s">
         <v>81</v>
       </c>
@@ -22081,7 +22080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="690" spans="1:17" hidden="1">
+    <row r="690" spans="1:17">
       <c r="A690" t="s">
         <v>81</v>
       </c>
@@ -22113,7 +22112,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="691" spans="1:17" hidden="1">
+    <row r="691" spans="1:17">
       <c r="A691" t="s">
         <v>81</v>
       </c>
@@ -22145,7 +22144,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="692" spans="1:17" hidden="1">
+    <row r="692" spans="1:17">
       <c r="A692" t="s">
         <v>81</v>
       </c>
@@ -22177,7 +22176,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="693" spans="1:17" hidden="1">
+    <row r="693" spans="1:17">
       <c r="A693" t="s">
         <v>81</v>
       </c>
@@ -22209,7 +22208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="694" spans="1:17" hidden="1">
+    <row r="694" spans="1:17">
       <c r="A694" t="s">
         <v>81</v>
       </c>
@@ -22241,7 +22240,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="695" spans="1:17" hidden="1">
+    <row r="695" spans="1:17">
       <c r="A695" t="s">
         <v>81</v>
       </c>
@@ -22273,7 +22272,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="696" spans="1:17" hidden="1">
+    <row r="696" spans="1:17">
       <c r="A696" t="s">
         <v>81</v>
       </c>
@@ -22305,7 +22304,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="697" spans="1:17" hidden="1">
+    <row r="697" spans="1:17">
       <c r="A697" t="s">
         <v>81</v>
       </c>
@@ -22337,7 +22336,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="698" spans="1:17" hidden="1">
+    <row r="698" spans="1:17">
       <c r="A698" t="s">
         <v>81</v>
       </c>
@@ -22369,7 +22368,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="699" spans="1:17" hidden="1">
+    <row r="699" spans="1:17">
       <c r="A699" t="s">
         <v>81</v>
       </c>
@@ -22401,7 +22400,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="700" spans="1:17" hidden="1">
+    <row r="700" spans="1:17">
       <c r="A700" t="s">
         <v>81</v>
       </c>
@@ -22433,7 +22432,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="701" spans="1:17" hidden="1">
+    <row r="701" spans="1:17">
       <c r="A701" t="s">
         <v>81</v>
       </c>
@@ -22465,7 +22464,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="702" spans="1:17" hidden="1">
+    <row r="702" spans="1:17">
       <c r="A702" t="s">
         <v>81</v>
       </c>
@@ -22497,7 +22496,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="703" spans="1:17" hidden="1">
+    <row r="703" spans="1:17">
       <c r="A703" t="s">
         <v>81</v>
       </c>
@@ -22529,7 +22528,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="704" spans="1:17" hidden="1">
+    <row r="704" spans="1:17">
       <c r="A704" t="s">
         <v>81</v>
       </c>
@@ -22561,7 +22560,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="705" spans="1:17" hidden="1">
+    <row r="705" spans="1:17">
       <c r="A705" t="s">
         <v>81</v>
       </c>
@@ -22593,7 +22592,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="706" spans="1:17" hidden="1">
+    <row r="706" spans="1:17">
       <c r="A706" t="s">
         <v>81</v>
       </c>
@@ -22625,7 +22624,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="707" spans="1:17" hidden="1">
+    <row r="707" spans="1:17">
       <c r="A707" t="s">
         <v>81</v>
       </c>
@@ -22657,7 +22656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="708" spans="1:17" hidden="1">
+    <row r="708" spans="1:17">
       <c r="A708" t="s">
         <v>81</v>
       </c>
@@ -22689,7 +22688,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="709" spans="1:17" hidden="1">
+    <row r="709" spans="1:17">
       <c r="A709" t="s">
         <v>81</v>
       </c>
@@ -22721,7 +22720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="710" spans="1:17" hidden="1">
+    <row r="710" spans="1:17">
       <c r="A710" t="s">
         <v>81</v>
       </c>
@@ -22753,7 +22752,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="711" spans="1:17" hidden="1">
+    <row r="711" spans="1:17">
       <c r="A711" t="s">
         <v>81</v>
       </c>
@@ -22785,7 +22784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="712" spans="1:17" hidden="1">
+    <row r="712" spans="1:17">
       <c r="A712" t="s">
         <v>81</v>
       </c>
@@ -22817,7 +22816,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="713" spans="1:17" hidden="1">
+    <row r="713" spans="1:17">
       <c r="A713" t="s">
         <v>81</v>
       </c>
@@ -22849,7 +22848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="714" spans="1:17" hidden="1">
+    <row r="714" spans="1:17">
       <c r="A714" t="s">
         <v>81</v>
       </c>
@@ -22881,7 +22880,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="715" spans="1:17" hidden="1">
+    <row r="715" spans="1:17">
       <c r="A715" t="s">
         <v>81</v>
       </c>
@@ -22913,7 +22912,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="716" spans="1:17" hidden="1">
+    <row r="716" spans="1:17">
       <c r="A716" t="s">
         <v>81</v>
       </c>
@@ -22945,7 +22944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="717" spans="1:17" hidden="1">
+    <row r="717" spans="1:17">
       <c r="A717" t="s">
         <v>81</v>
       </c>
@@ -22977,7 +22976,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="718" spans="1:17" hidden="1">
+    <row r="718" spans="1:17">
       <c r="A718" t="s">
         <v>81</v>
       </c>
@@ -23009,7 +23008,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="719" spans="1:17" hidden="1">
+    <row r="719" spans="1:17">
       <c r="A719" t="s">
         <v>81</v>
       </c>
@@ -23041,7 +23040,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="720" spans="1:17" hidden="1">
+    <row r="720" spans="1:17">
       <c r="A720" t="s">
         <v>81</v>
       </c>
@@ -23073,7 +23072,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="721" spans="1:17" hidden="1">
+    <row r="721" spans="1:17">
       <c r="A721" t="s">
         <v>81</v>
       </c>
@@ -23105,7 +23104,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="722" spans="1:17" hidden="1">
+    <row r="722" spans="1:17">
       <c r="A722" t="s">
         <v>81</v>
       </c>
@@ -23137,7 +23136,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="723" spans="1:17" hidden="1">
+    <row r="723" spans="1:17">
       <c r="A723" t="s">
         <v>81</v>
       </c>
@@ -23169,7 +23168,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="724" spans="1:17" hidden="1">
+    <row r="724" spans="1:17">
       <c r="A724" t="s">
         <v>81</v>
       </c>
@@ -23201,7 +23200,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="725" spans="1:17" hidden="1">
+    <row r="725" spans="1:17">
       <c r="A725" t="s">
         <v>81</v>
       </c>
@@ -23233,7 +23232,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="726" spans="1:17" hidden="1">
+    <row r="726" spans="1:17">
       <c r="A726" t="s">
         <v>81</v>
       </c>
@@ -23265,7 +23264,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="727" spans="1:17" hidden="1">
+    <row r="727" spans="1:17">
       <c r="A727" t="s">
         <v>81</v>
       </c>
@@ -23297,7 +23296,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="728" spans="1:17" hidden="1">
+    <row r="728" spans="1:17">
       <c r="A728" t="s">
         <v>81</v>
       </c>
@@ -23329,7 +23328,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="729" spans="1:17" hidden="1">
+    <row r="729" spans="1:17">
       <c r="A729" t="s">
         <v>81</v>
       </c>
@@ -23361,7 +23360,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="730" spans="1:17" hidden="1">
+    <row r="730" spans="1:17">
       <c r="A730" t="s">
         <v>81</v>
       </c>
@@ -23393,7 +23392,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="731" spans="1:17" hidden="1">
+    <row r="731" spans="1:17">
       <c r="A731" t="s">
         <v>81</v>
       </c>
@@ -23425,7 +23424,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="732" spans="1:17" hidden="1">
+    <row r="732" spans="1:17">
       <c r="A732" t="s">
         <v>81</v>
       </c>
@@ -23457,7 +23456,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="733" spans="1:17" hidden="1">
+    <row r="733" spans="1:17">
       <c r="A733" t="s">
         <v>81</v>
       </c>
@@ -23489,7 +23488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="734" spans="1:17" hidden="1">
+    <row r="734" spans="1:17">
       <c r="A734" t="s">
         <v>81</v>
       </c>
@@ -23521,7 +23520,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="735" spans="1:17" hidden="1">
+    <row r="735" spans="1:17">
       <c r="A735" t="s">
         <v>81</v>
       </c>
@@ -23553,7 +23552,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="736" spans="1:17" hidden="1">
+    <row r="736" spans="1:17">
       <c r="A736" t="s">
         <v>81</v>
       </c>
@@ -23585,7 +23584,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="737" spans="1:17" hidden="1">
+    <row r="737" spans="1:17">
       <c r="A737" t="s">
         <v>81</v>
       </c>
@@ -23617,7 +23616,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="738" spans="1:17" hidden="1">
+    <row r="738" spans="1:17">
       <c r="A738" t="s">
         <v>81</v>
       </c>
@@ -23649,7 +23648,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="739" spans="1:17" hidden="1">
+    <row r="739" spans="1:17">
       <c r="A739" t="s">
         <v>81</v>
       </c>
@@ -23681,7 +23680,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="740" spans="1:17" hidden="1">
+    <row r="740" spans="1:17">
       <c r="A740" t="s">
         <v>81</v>
       </c>
@@ -23713,7 +23712,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="741" spans="1:17" hidden="1">
+    <row r="741" spans="1:17">
       <c r="A741" t="s">
         <v>81</v>
       </c>
@@ -23745,7 +23744,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="742" spans="1:17" hidden="1">
+    <row r="742" spans="1:17">
       <c r="A742" t="s">
         <v>81</v>
       </c>
@@ -23777,7 +23776,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="743" spans="1:17" hidden="1">
+    <row r="743" spans="1:17">
       <c r="A743" t="s">
         <v>81</v>
       </c>
@@ -23809,7 +23808,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="744" spans="1:17" hidden="1">
+    <row r="744" spans="1:17">
       <c r="A744" t="s">
         <v>81</v>
       </c>
@@ -23841,7 +23840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="745" spans="1:17" hidden="1">
+    <row r="745" spans="1:17">
       <c r="A745" t="s">
         <v>81</v>
       </c>
@@ -23873,7 +23872,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="746" spans="1:17" hidden="1">
+    <row r="746" spans="1:17">
       <c r="A746" t="s">
         <v>81</v>
       </c>
@@ -23905,7 +23904,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="747" spans="1:17" hidden="1">
+    <row r="747" spans="1:17">
       <c r="A747" t="s">
         <v>81</v>
       </c>
@@ -23937,7 +23936,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="748" spans="1:17" hidden="1">
+    <row r="748" spans="1:17">
       <c r="A748" t="s">
         <v>81</v>
       </c>
@@ -23969,7 +23968,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="749" spans="1:17" hidden="1">
+    <row r="749" spans="1:17">
       <c r="A749" t="s">
         <v>81</v>
       </c>
@@ -24001,7 +24000,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="750" spans="1:17" hidden="1">
+    <row r="750" spans="1:17">
       <c r="A750" t="s">
         <v>81</v>
       </c>
@@ -24033,7 +24032,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="751" spans="1:17" hidden="1">
+    <row r="751" spans="1:17">
       <c r="A751" t="s">
         <v>81</v>
       </c>
@@ -24065,7 +24064,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="752" spans="1:17" hidden="1">
+    <row r="752" spans="1:17">
       <c r="A752" t="s">
         <v>81</v>
       </c>
@@ -24097,7 +24096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="753" spans="1:17" hidden="1">
+    <row r="753" spans="1:17">
       <c r="A753" t="s">
         <v>81</v>
       </c>
@@ -24129,7 +24128,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="754" spans="1:17" hidden="1">
+    <row r="754" spans="1:17">
       <c r="A754" t="s">
         <v>81</v>
       </c>
@@ -24161,7 +24160,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="755" spans="1:17" hidden="1">
+    <row r="755" spans="1:17">
       <c r="A755" t="s">
         <v>81</v>
       </c>
@@ -24193,7 +24192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="756" spans="1:17" hidden="1">
+    <row r="756" spans="1:17">
       <c r="A756" t="s">
         <v>81</v>
       </c>
@@ -24225,7 +24224,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="757" spans="1:17" hidden="1">
+    <row r="757" spans="1:17">
       <c r="A757" t="s">
         <v>81</v>
       </c>
@@ -24257,7 +24256,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="758" spans="1:17" hidden="1">
+    <row r="758" spans="1:17">
       <c r="A758" t="s">
         <v>81</v>
       </c>
@@ -24289,7 +24288,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="759" spans="1:17" hidden="1">
+    <row r="759" spans="1:17">
       <c r="A759" t="s">
         <v>81</v>
       </c>
@@ -24321,7 +24320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="760" spans="1:17" hidden="1">
+    <row r="760" spans="1:17">
       <c r="A760" t="s">
         <v>81</v>
       </c>
@@ -24353,7 +24352,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="761" spans="1:17" hidden="1">
+    <row r="761" spans="1:17">
       <c r="A761" t="s">
         <v>81</v>
       </c>
@@ -24385,7 +24384,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="762" spans="1:17" hidden="1">
+    <row r="762" spans="1:17">
       <c r="A762" t="s">
         <v>81</v>
       </c>
@@ -24417,7 +24416,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="763" spans="1:17" hidden="1">
+    <row r="763" spans="1:17">
       <c r="A763" t="s">
         <v>81</v>
       </c>
@@ -24449,7 +24448,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="764" spans="1:17" hidden="1">
+    <row r="764" spans="1:17">
       <c r="A764" t="s">
         <v>81</v>
       </c>
@@ -24481,7 +24480,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="765" spans="1:17" hidden="1">
+    <row r="765" spans="1:17">
       <c r="A765" t="s">
         <v>81</v>
       </c>
@@ -24513,7 +24512,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="766" spans="1:17" hidden="1">
+    <row r="766" spans="1:17">
       <c r="A766" t="s">
         <v>81</v>
       </c>
@@ -24545,7 +24544,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="767" spans="1:17" hidden="1">
+    <row r="767" spans="1:17">
       <c r="A767" t="s">
         <v>81</v>
       </c>
@@ -24577,7 +24576,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="768" spans="1:17" hidden="1">
+    <row r="768" spans="1:17">
       <c r="A768" t="s">
         <v>81</v>
       </c>
@@ -24609,7 +24608,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="769" spans="1:17" hidden="1">
+    <row r="769" spans="1:17">
       <c r="A769" t="s">
         <v>81</v>
       </c>
@@ -24641,7 +24640,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="770" spans="1:17" hidden="1">
+    <row r="770" spans="1:17">
       <c r="A770" t="s">
         <v>81</v>
       </c>
@@ -24673,7 +24672,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="771" spans="1:17" hidden="1">
+    <row r="771" spans="1:17">
       <c r="A771" t="s">
         <v>81</v>
       </c>
@@ -24705,7 +24704,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="772" spans="1:17" hidden="1">
+    <row r="772" spans="1:17">
       <c r="A772" t="s">
         <v>81</v>
       </c>
@@ -24737,7 +24736,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="773" spans="1:17" hidden="1">
+    <row r="773" spans="1:17">
       <c r="A773" t="s">
         <v>81</v>
       </c>
@@ -24769,7 +24768,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="774" spans="1:17" hidden="1">
+    <row r="774" spans="1:17">
       <c r="A774" t="s">
         <v>81</v>
       </c>
@@ -24801,7 +24800,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="775" spans="1:17" hidden="1">
+    <row r="775" spans="1:17">
       <c r="A775" t="s">
         <v>81</v>
       </c>
@@ -24833,7 +24832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="776" spans="1:17" hidden="1">
+    <row r="776" spans="1:17">
       <c r="A776" t="s">
         <v>81</v>
       </c>
@@ -24865,7 +24864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="777" spans="1:17" hidden="1">
+    <row r="777" spans="1:17">
       <c r="A777" t="s">
         <v>81</v>
       </c>
@@ -24897,7 +24896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="778" spans="1:17" hidden="1">
+    <row r="778" spans="1:17">
       <c r="A778" t="s">
         <v>81</v>
       </c>
@@ -24929,7 +24928,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="779" spans="1:17" hidden="1">
+    <row r="779" spans="1:17">
       <c r="A779" t="s">
         <v>81</v>
       </c>
@@ -24961,7 +24960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="780" spans="1:17" hidden="1">
+    <row r="780" spans="1:17">
       <c r="A780" t="s">
         <v>81</v>
       </c>
@@ -24993,7 +24992,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="781" spans="1:17" hidden="1">
+    <row r="781" spans="1:17">
       <c r="A781" t="s">
         <v>81</v>
       </c>
@@ -25025,7 +25024,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="782" spans="1:17" hidden="1">
+    <row r="782" spans="1:17">
       <c r="A782" t="s">
         <v>81</v>
       </c>
@@ -25057,7 +25056,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="783" spans="1:17" hidden="1">
+    <row r="783" spans="1:17">
       <c r="A783" t="s">
         <v>81</v>
       </c>
@@ -25089,7 +25088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="784" spans="1:17" hidden="1">
+    <row r="784" spans="1:17">
       <c r="A784" t="s">
         <v>81</v>
       </c>
@@ -25121,7 +25120,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="785" spans="1:17" hidden="1">
+    <row r="785" spans="1:17">
       <c r="A785" t="s">
         <v>81</v>
       </c>
@@ -25153,7 +25152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="786" spans="1:17" hidden="1">
+    <row r="786" spans="1:17">
       <c r="A786" t="s">
         <v>81</v>
       </c>
@@ -25185,7 +25184,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="787" spans="1:17" hidden="1">
+    <row r="787" spans="1:17">
       <c r="A787" t="s">
         <v>81</v>
       </c>
@@ -25217,7 +25216,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="788" spans="1:17" hidden="1">
+    <row r="788" spans="1:17">
       <c r="A788" t="s">
         <v>81</v>
       </c>
@@ -25249,7 +25248,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="789" spans="1:17" hidden="1">
+    <row r="789" spans="1:17">
       <c r="A789" t="s">
         <v>81</v>
       </c>
@@ -25281,7 +25280,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="790" spans="1:17" hidden="1">
+    <row r="790" spans="1:17">
       <c r="A790" t="s">
         <v>81</v>
       </c>
@@ -25313,7 +25312,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="791" spans="1:17" hidden="1">
+    <row r="791" spans="1:17">
       <c r="A791" t="s">
         <v>81</v>
       </c>
@@ -25345,7 +25344,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="792" spans="1:17" hidden="1">
+    <row r="792" spans="1:17">
       <c r="A792" t="s">
         <v>81</v>
       </c>
@@ -25377,7 +25376,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="793" spans="1:17" hidden="1">
+    <row r="793" spans="1:17">
       <c r="A793" t="s">
         <v>81</v>
       </c>
@@ -25409,7 +25408,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="794" spans="1:17" hidden="1">
+    <row r="794" spans="1:17">
       <c r="A794" t="s">
         <v>81</v>
       </c>
@@ -25441,7 +25440,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="795" spans="1:17" hidden="1">
+    <row r="795" spans="1:17">
       <c r="A795" t="s">
         <v>81</v>
       </c>
@@ -25473,7 +25472,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="796" spans="1:17" hidden="1">
+    <row r="796" spans="1:17">
       <c r="A796" t="s">
         <v>81</v>
       </c>
@@ -25505,7 +25504,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="797" spans="1:17" hidden="1">
+    <row r="797" spans="1:17">
       <c r="A797" t="s">
         <v>81</v>
       </c>
@@ -25537,7 +25536,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="798" spans="1:17" hidden="1">
+    <row r="798" spans="1:17">
       <c r="A798" t="s">
         <v>81</v>
       </c>
@@ -25569,7 +25568,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="799" spans="1:17" hidden="1">
+    <row r="799" spans="1:17">
       <c r="A799" t="s">
         <v>81</v>
       </c>
@@ -25601,7 +25600,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="800" spans="1:17" hidden="1">
+    <row r="800" spans="1:17">
       <c r="A800" t="s">
         <v>81</v>
       </c>
@@ -25633,7 +25632,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="801" spans="1:17" hidden="1">
+    <row r="801" spans="1:17">
       <c r="A801" t="s">
         <v>81</v>
       </c>
@@ -25665,7 +25664,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="802" spans="1:17" hidden="1">
+    <row r="802" spans="1:17">
       <c r="A802" t="s">
         <v>81</v>
       </c>
@@ -25697,7 +25696,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="803" spans="1:17" hidden="1">
+    <row r="803" spans="1:17">
       <c r="A803" t="s">
         <v>81</v>
       </c>
@@ -25729,7 +25728,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="804" spans="1:17" hidden="1">
+    <row r="804" spans="1:17">
       <c r="A804" t="s">
         <v>81</v>
       </c>
@@ -25761,7 +25760,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="805" spans="1:17" hidden="1">
+    <row r="805" spans="1:17">
       <c r="A805" t="s">
         <v>81</v>
       </c>
@@ -25793,7 +25792,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="806" spans="1:17" hidden="1">
+    <row r="806" spans="1:17">
       <c r="A806" t="s">
         <v>81</v>
       </c>
@@ -25825,7 +25824,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="807" spans="1:17" hidden="1">
+    <row r="807" spans="1:17">
       <c r="A807" t="s">
         <v>81</v>
       </c>
@@ -25857,7 +25856,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="808" spans="1:17" hidden="1">
+    <row r="808" spans="1:17">
       <c r="A808" t="s">
         <v>81</v>
       </c>
@@ -25889,7 +25888,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="809" spans="1:17" hidden="1">
+    <row r="809" spans="1:17">
       <c r="A809" t="s">
         <v>81</v>
       </c>
@@ -25921,7 +25920,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="810" spans="1:17" hidden="1">
+    <row r="810" spans="1:17">
       <c r="A810" t="s">
         <v>81</v>
       </c>
@@ -25953,7 +25952,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="811" spans="1:17" hidden="1">
+    <row r="811" spans="1:17">
       <c r="A811" t="s">
         <v>81</v>
       </c>
@@ -25985,7 +25984,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="812" spans="1:17" hidden="1">
+    <row r="812" spans="1:17">
       <c r="A812" t="s">
         <v>81</v>
       </c>
@@ -26017,7 +26016,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="813" spans="1:17" hidden="1">
+    <row r="813" spans="1:17">
       <c r="A813" t="s">
         <v>81</v>
       </c>
@@ -26049,7 +26048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="814" spans="1:17" hidden="1">
+    <row r="814" spans="1:17">
       <c r="A814" t="s">
         <v>81</v>
       </c>
@@ -26081,7 +26080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="815" spans="1:17" hidden="1">
+    <row r="815" spans="1:17">
       <c r="A815" t="s">
         <v>81</v>
       </c>
@@ -26113,7 +26112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="816" spans="1:17" hidden="1">
+    <row r="816" spans="1:17">
       <c r="A816" t="s">
         <v>81</v>
       </c>
@@ -26145,7 +26144,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="817" spans="1:17" hidden="1">
+    <row r="817" spans="1:17">
       <c r="A817" t="s">
         <v>81</v>
       </c>
@@ -26177,7 +26176,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="818" spans="1:17" hidden="1">
+    <row r="818" spans="1:17">
       <c r="A818" t="s">
         <v>81</v>
       </c>
@@ -26209,7 +26208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="819" spans="1:17" hidden="1">
+    <row r="819" spans="1:17">
       <c r="A819" t="s">
         <v>81</v>
       </c>
@@ -26241,7 +26240,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="820" spans="1:17" hidden="1">
+    <row r="820" spans="1:17">
       <c r="A820" t="s">
         <v>81</v>
       </c>
@@ -26273,7 +26272,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="821" spans="1:17" hidden="1">
+    <row r="821" spans="1:17">
       <c r="A821" t="s">
         <v>81</v>
       </c>
@@ -26305,7 +26304,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="822" spans="1:17" hidden="1">
+    <row r="822" spans="1:17">
       <c r="A822" t="s">
         <v>81</v>
       </c>
@@ -26337,7 +26336,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="823" spans="1:17" hidden="1">
+    <row r="823" spans="1:17">
       <c r="A823" t="s">
         <v>81</v>
       </c>
@@ -26369,7 +26368,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="824" spans="1:17" hidden="1">
+    <row r="824" spans="1:17">
       <c r="A824" t="s">
         <v>81</v>
       </c>
@@ -26401,7 +26400,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="825" spans="1:17" hidden="1">
+    <row r="825" spans="1:17">
       <c r="A825" t="s">
         <v>81</v>
       </c>
@@ -26433,7 +26432,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="826" spans="1:17" hidden="1">
+    <row r="826" spans="1:17">
       <c r="A826" t="s">
         <v>81</v>
       </c>
@@ -26465,7 +26464,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="827" spans="1:17" hidden="1">
+    <row r="827" spans="1:17">
       <c r="A827" t="s">
         <v>81</v>
       </c>
@@ -26497,7 +26496,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="828" spans="1:17" hidden="1">
+    <row r="828" spans="1:17">
       <c r="A828" t="s">
         <v>81</v>
       </c>
@@ -26529,7 +26528,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="829" spans="1:17" hidden="1">
+    <row r="829" spans="1:17">
       <c r="A829" t="s">
         <v>81</v>
       </c>
@@ -26558,7 +26557,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="830" spans="1:17" hidden="1">
+    <row r="830" spans="1:17">
       <c r="A830" t="s">
         <v>81</v>
       </c>
@@ -26587,7 +26586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:17" hidden="1">
+    <row r="831" spans="1:17">
       <c r="A831" t="s">
         <v>81</v>
       </c>
@@ -26616,24 +26615,37 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="832" spans="1:17">
+      <c r="A832" t="s">
+        <v>81</v>
+      </c>
+      <c r="B832" t="s">
+        <v>83</v>
+      </c>
+      <c r="C832" t="s">
+        <v>74</v>
+      </c>
+      <c r="D832">
+        <v>1</v>
+      </c>
+      <c r="E832">
+        <v>10</v>
+      </c>
+      <c r="G832" t="s">
+        <v>27</v>
+      </c>
+      <c r="J832" t="s">
+        <v>1</v>
+      </c>
+      <c r="L832">
+        <v>12</v>
+      </c>
+      <c r="M832">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q831" xr:uid="{65CA434C-E6E5-43DD-BDDB-41522A5C0693}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="S5"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="8"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Ophiuroidea"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q831" xr:uid="{65CA434C-E6E5-43DD-BDDB-41522A5C0693}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/OR1_1219/OR1-1219_RawTypingFile.xlsx
+++ b/OR1_1219/OR1-1219_RawTypingFile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\Sorting data\OR1_1219\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\Sorting data\sorting_data_curate\OR1_1219\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B57822D-A4BA-4116-ABEB-9BD454669872}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D27271-7964-42D5-B780-9A0DD4869545}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7500" activeTab="2" xr2:uid="{D8F2AAA5-A412-43E8-BCFA-133F9EDFD9C7}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="OR1-1219_PolychaetaExcluded" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'OR1-1219_PolychaetaExcluded'!$A$1:$Q$831</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'OR1-1219_PolychaetaExcluded'!$A$1:$Q$832</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4636" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4637" uniqueCount="98">
   <si>
     <t>C</t>
   </si>
@@ -296,9 +296,6 @@
   </si>
   <si>
     <t>Pycnogonida</t>
-  </si>
-  <si>
-    <t>Entoprocta</t>
   </si>
   <si>
     <t>S7</t>
@@ -1283,11 +1280,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE59AD6-7388-4D47-B984-01E3632EA26A}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q832"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A818" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J832" sqref="J832"/>
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H303" sqref="H303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1345,7 +1343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" hidden="1">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -1377,7 +1375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" hidden="1">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -1409,7 +1407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" hidden="1">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1438,7 +1436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" hidden="1">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1499,7 +1497,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" hidden="1">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -1528,7 +1526,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" hidden="1">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -1557,7 +1555,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" hidden="1">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -1589,7 +1587,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" hidden="1">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -1621,7 +1619,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" hidden="1">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -1653,7 +1651,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" hidden="1">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -1685,7 +1683,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" hidden="1">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -1717,7 +1715,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" hidden="1">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -1749,7 +1747,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" hidden="1">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -1781,7 +1779,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" hidden="1">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -1813,7 +1811,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" hidden="1">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -1845,7 +1843,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" hidden="1">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -1877,7 +1875,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" hidden="1">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -1909,7 +1907,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" hidden="1">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -1941,7 +1939,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" hidden="1">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -1973,7 +1971,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" hidden="1">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2005,7 +2003,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" hidden="1">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -2037,7 +2035,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" hidden="1">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -2069,7 +2067,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" hidden="1">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2101,7 +2099,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" hidden="1">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -2133,7 +2131,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" hidden="1">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -2165,7 +2163,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" hidden="1">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -2197,7 +2195,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" hidden="1">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -2229,7 +2227,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" hidden="1">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -2261,7 +2259,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" hidden="1">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -2293,7 +2291,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" hidden="1">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -2325,7 +2323,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" hidden="1">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -2357,7 +2355,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" hidden="1">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -2389,7 +2387,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" hidden="1">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -2421,7 +2419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" hidden="1">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -2453,7 +2451,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" hidden="1">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -2485,7 +2483,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" hidden="1">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -2517,7 +2515,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" hidden="1">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -2549,7 +2547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" hidden="1">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -2581,7 +2579,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" hidden="1">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -2610,10 +2608,10 @@
         <v>10</v>
       </c>
       <c r="Q41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" hidden="1">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -2642,10 +2640,10 @@
         <v>10</v>
       </c>
       <c r="Q42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" hidden="1">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -2674,10 +2672,10 @@
         <v>10</v>
       </c>
       <c r="Q43" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" hidden="1">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -2709,7 +2707,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" hidden="1">
       <c r="A45" t="s">
         <v>81</v>
       </c>
@@ -2738,10 +2736,10 @@
         <v>10</v>
       </c>
       <c r="Q45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" hidden="1">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -2770,10 +2768,10 @@
         <v>10</v>
       </c>
       <c r="Q46" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" hidden="1">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -2802,10 +2800,10 @@
         <v>10</v>
       </c>
       <c r="Q47" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" hidden="1">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -2834,10 +2832,10 @@
         <v>10</v>
       </c>
       <c r="Q48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" hidden="1">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -2866,10 +2864,10 @@
         <v>10</v>
       </c>
       <c r="Q49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" hidden="1">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -2901,7 +2899,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" hidden="1">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -2933,7 +2931,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" hidden="1">
       <c r="A52" t="s">
         <v>81</v>
       </c>
@@ -2965,7 +2963,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" hidden="1">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -2997,7 +2995,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" hidden="1">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -3029,7 +3027,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" hidden="1">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -3061,7 +3059,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" hidden="1">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -3093,7 +3091,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" hidden="1">
       <c r="A57" t="s">
         <v>81</v>
       </c>
@@ -3125,7 +3123,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" hidden="1">
       <c r="A58" t="s">
         <v>81</v>
       </c>
@@ -3157,7 +3155,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" hidden="1">
       <c r="A59" t="s">
         <v>81</v>
       </c>
@@ -3189,7 +3187,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" hidden="1">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -3221,7 +3219,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" hidden="1">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -3253,7 +3251,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" hidden="1">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -3285,7 +3283,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" hidden="1">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -3317,7 +3315,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" hidden="1">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -3349,7 +3347,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" hidden="1">
       <c r="A65" t="s">
         <v>81</v>
       </c>
@@ -3381,7 +3379,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" hidden="1">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -3413,7 +3411,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" hidden="1">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -3445,7 +3443,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" hidden="1">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -3477,7 +3475,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" hidden="1">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -3509,7 +3507,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" hidden="1">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -3541,7 +3539,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" hidden="1">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -3573,7 +3571,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" hidden="1">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -3605,7 +3603,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" hidden="1">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -3637,7 +3635,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" hidden="1">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -3669,7 +3667,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" hidden="1">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3701,7 +3699,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" hidden="1">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -3730,10 +3728,10 @@
         <v>45</v>
       </c>
       <c r="Q76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" hidden="1">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -3762,10 +3760,10 @@
         <v>70</v>
       </c>
       <c r="Q77" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" hidden="1">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -3794,7 +3792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" hidden="1">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -3823,7 +3821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" hidden="1">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -3852,7 +3850,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" hidden="1">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -3881,7 +3879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" hidden="1">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -3910,7 +3908,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" hidden="1">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -3939,7 +3937,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" hidden="1">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -3968,7 +3966,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" hidden="1">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -3997,7 +3995,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" hidden="1">
       <c r="A86" t="s">
         <v>81</v>
       </c>
@@ -4026,7 +4024,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" hidden="1">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -4055,7 +4053,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" hidden="1">
       <c r="A88" t="s">
         <v>81</v>
       </c>
@@ -4084,7 +4082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" hidden="1">
       <c r="A89" t="s">
         <v>81</v>
       </c>
@@ -4113,7 +4111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" hidden="1">
       <c r="A90" t="s">
         <v>81</v>
       </c>
@@ -4142,7 +4140,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" hidden="1">
       <c r="A91" t="s">
         <v>81</v>
       </c>
@@ -4171,7 +4169,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" hidden="1">
       <c r="A92" t="s">
         <v>81</v>
       </c>
@@ -4200,7 +4198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" hidden="1">
       <c r="A93" t="s">
         <v>81</v>
       </c>
@@ -4229,7 +4227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" hidden="1">
       <c r="A94" t="s">
         <v>81</v>
       </c>
@@ -4258,7 +4256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" hidden="1">
       <c r="A95" t="s">
         <v>81</v>
       </c>
@@ -4287,7 +4285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" hidden="1">
       <c r="A96" t="s">
         <v>81</v>
       </c>
@@ -4316,7 +4314,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" hidden="1">
       <c r="A97" t="s">
         <v>81</v>
       </c>
@@ -4345,7 +4343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" hidden="1">
       <c r="A98" t="s">
         <v>81</v>
       </c>
@@ -4374,7 +4372,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" hidden="1">
       <c r="A99" t="s">
         <v>81</v>
       </c>
@@ -4403,7 +4401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" hidden="1">
       <c r="A100" t="s">
         <v>81</v>
       </c>
@@ -4432,7 +4430,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" hidden="1">
       <c r="A101" t="s">
         <v>81</v>
       </c>
@@ -4464,7 +4462,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" hidden="1">
       <c r="A102" t="s">
         <v>81</v>
       </c>
@@ -4493,7 +4491,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" hidden="1">
       <c r="A103" t="s">
         <v>81</v>
       </c>
@@ -4522,7 +4520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" hidden="1">
       <c r="A104" t="s">
         <v>81</v>
       </c>
@@ -4551,7 +4549,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" hidden="1">
       <c r="A105" t="s">
         <v>81</v>
       </c>
@@ -4804,7 +4802,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" hidden="1">
       <c r="A113" t="s">
         <v>81</v>
       </c>
@@ -4833,7 +4831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" hidden="1">
       <c r="A114" t="s">
         <v>81</v>
       </c>
@@ -4862,7 +4860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" hidden="1">
       <c r="A115" t="s">
         <v>81</v>
       </c>
@@ -4891,7 +4889,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" hidden="1">
       <c r="A116" t="s">
         <v>81</v>
       </c>
@@ -4920,7 +4918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" hidden="1">
       <c r="A117" t="s">
         <v>81</v>
       </c>
@@ -4949,7 +4947,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" hidden="1">
       <c r="A118" t="s">
         <v>81</v>
       </c>
@@ -4978,7 +4976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" hidden="1">
       <c r="A119" t="s">
         <v>81</v>
       </c>
@@ -5007,7 +5005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" hidden="1">
       <c r="A120" t="s">
         <v>81</v>
       </c>
@@ -5036,7 +5034,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" hidden="1">
       <c r="A121" t="s">
         <v>81</v>
       </c>
@@ -5065,7 +5063,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" hidden="1">
       <c r="A122" t="s">
         <v>81</v>
       </c>
@@ -5094,7 +5092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" hidden="1">
       <c r="A123" t="s">
         <v>81</v>
       </c>
@@ -5123,7 +5121,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" hidden="1">
       <c r="A124" t="s">
         <v>81</v>
       </c>
@@ -5152,7 +5150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" hidden="1">
       <c r="A125" t="s">
         <v>81</v>
       </c>
@@ -5181,7 +5179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" hidden="1">
       <c r="A126" t="s">
         <v>81</v>
       </c>
@@ -5210,7 +5208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" hidden="1">
       <c r="A127" t="s">
         <v>81</v>
       </c>
@@ -5239,7 +5237,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" hidden="1">
       <c r="A128" t="s">
         <v>81</v>
       </c>
@@ -5268,7 +5266,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" hidden="1">
       <c r="A129" t="s">
         <v>81</v>
       </c>
@@ -5297,7 +5295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" hidden="1">
       <c r="A130" t="s">
         <v>81</v>
       </c>
@@ -5326,7 +5324,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" hidden="1">
       <c r="A131" t="s">
         <v>81</v>
       </c>
@@ -5355,7 +5353,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" hidden="1">
       <c r="A132" t="s">
         <v>81</v>
       </c>
@@ -5384,7 +5382,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" hidden="1">
       <c r="A133" t="s">
         <v>81</v>
       </c>
@@ -5413,7 +5411,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" hidden="1">
       <c r="A134" t="s">
         <v>81</v>
       </c>
@@ -5442,7 +5440,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" hidden="1">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -5471,7 +5469,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" hidden="1">
       <c r="A136" t="s">
         <v>81</v>
       </c>
@@ -5500,7 +5498,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" hidden="1">
       <c r="A137" t="s">
         <v>81</v>
       </c>
@@ -5529,7 +5527,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" hidden="1">
       <c r="A138" t="s">
         <v>81</v>
       </c>
@@ -5558,7 +5556,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" hidden="1">
       <c r="A139" t="s">
         <v>81</v>
       </c>
@@ -5587,7 +5585,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" hidden="1">
       <c r="A140" t="s">
         <v>81</v>
       </c>
@@ -5616,7 +5614,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" hidden="1">
       <c r="A141" t="s">
         <v>81</v>
       </c>
@@ -5645,7 +5643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" hidden="1">
       <c r="A142" t="s">
         <v>81</v>
       </c>
@@ -5674,7 +5672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" hidden="1">
       <c r="A143" t="s">
         <v>81</v>
       </c>
@@ -5703,7 +5701,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" hidden="1">
       <c r="A144" t="s">
         <v>81</v>
       </c>
@@ -5732,7 +5730,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" hidden="1">
       <c r="A145" t="s">
         <v>81</v>
       </c>
@@ -5761,7 +5759,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" hidden="1">
       <c r="A146" t="s">
         <v>81</v>
       </c>
@@ -5790,7 +5788,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" hidden="1">
       <c r="A147" t="s">
         <v>81</v>
       </c>
@@ -5819,7 +5817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" hidden="1">
       <c r="A148" t="s">
         <v>81</v>
       </c>
@@ -5848,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" hidden="1">
       <c r="A149" t="s">
         <v>81</v>
       </c>
@@ -5877,7 +5875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" hidden="1">
       <c r="A150" t="s">
         <v>81</v>
       </c>
@@ -5906,7 +5904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" hidden="1">
       <c r="A151" t="s">
         <v>81</v>
       </c>
@@ -5935,10 +5933,10 @@
         <v>4</v>
       </c>
       <c r="Q151" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" hidden="1">
       <c r="A152" t="s">
         <v>81</v>
       </c>
@@ -5967,10 +5965,10 @@
         <v>1.5</v>
       </c>
       <c r="Q152" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" hidden="1">
       <c r="A153" t="s">
         <v>81</v>
       </c>
@@ -5999,10 +5997,10 @@
         <v>1.5</v>
       </c>
       <c r="Q153" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" hidden="1">
       <c r="A154" t="s">
         <v>81</v>
       </c>
@@ -6031,10 +6029,10 @@
         <v>1.5</v>
       </c>
       <c r="Q154" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" hidden="1">
       <c r="A155" t="s">
         <v>81</v>
       </c>
@@ -6063,10 +6061,10 @@
         <v>1.5</v>
       </c>
       <c r="Q155" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" hidden="1">
       <c r="A156" t="s">
         <v>81</v>
       </c>
@@ -6095,10 +6093,10 @@
         <v>1.5</v>
       </c>
       <c r="Q156" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" hidden="1">
       <c r="A157" t="s">
         <v>81</v>
       </c>
@@ -6127,7 +6125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" hidden="1">
       <c r="A158" t="s">
         <v>81</v>
       </c>
@@ -6156,7 +6154,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" hidden="1">
       <c r="A159" t="s">
         <v>81</v>
       </c>
@@ -6185,7 +6183,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" hidden="1">
       <c r="A160" t="s">
         <v>81</v>
       </c>
@@ -6214,7 +6212,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" hidden="1">
       <c r="A161" t="s">
         <v>81</v>
       </c>
@@ -6243,7 +6241,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" hidden="1">
       <c r="A162" t="s">
         <v>81</v>
       </c>
@@ -6272,7 +6270,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" hidden="1">
       <c r="A163" t="s">
         <v>81</v>
       </c>
@@ -6301,7 +6299,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" hidden="1">
       <c r="A164" t="s">
         <v>81</v>
       </c>
@@ -6330,7 +6328,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" hidden="1">
       <c r="A165" t="s">
         <v>81</v>
       </c>
@@ -6359,7 +6357,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" hidden="1">
       <c r="A166" t="s">
         <v>81</v>
       </c>
@@ -6388,7 +6386,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" hidden="1">
       <c r="A167" t="s">
         <v>81</v>
       </c>
@@ -6417,7 +6415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" hidden="1">
       <c r="A168" t="s">
         <v>81</v>
       </c>
@@ -6446,7 +6444,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" hidden="1">
       <c r="A169" t="s">
         <v>81</v>
       </c>
@@ -6475,7 +6473,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" hidden="1">
       <c r="A170" t="s">
         <v>81</v>
       </c>
@@ -6504,7 +6502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" hidden="1">
       <c r="A171" t="s">
         <v>81</v>
       </c>
@@ -6533,7 +6531,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" hidden="1">
       <c r="A172" t="s">
         <v>81</v>
       </c>
@@ -6562,7 +6560,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" hidden="1">
       <c r="A173" t="s">
         <v>81</v>
       </c>
@@ -6591,7 +6589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" hidden="1">
       <c r="A174" t="s">
         <v>81</v>
       </c>
@@ -6620,7 +6618,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" hidden="1">
       <c r="A175" t="s">
         <v>81</v>
       </c>
@@ -6649,7 +6647,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" hidden="1">
       <c r="A176" t="s">
         <v>81</v>
       </c>
@@ -6678,7 +6676,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" hidden="1">
       <c r="A177" t="s">
         <v>81</v>
       </c>
@@ -6707,7 +6705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" hidden="1">
       <c r="A178" t="s">
         <v>81</v>
       </c>
@@ -6736,7 +6734,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" hidden="1">
       <c r="A179" t="s">
         <v>81</v>
       </c>
@@ -6925,7 +6923,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" hidden="1">
       <c r="A185" t="s">
         <v>81</v>
       </c>
@@ -6954,7 +6952,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" hidden="1">
       <c r="A186" t="s">
         <v>81</v>
       </c>
@@ -6983,7 +6981,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" hidden="1">
       <c r="A187" t="s">
         <v>81</v>
       </c>
@@ -7012,7 +7010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" hidden="1">
       <c r="A188" t="s">
         <v>81</v>
       </c>
@@ -7041,7 +7039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" hidden="1">
       <c r="A189" t="s">
         <v>81</v>
       </c>
@@ -7070,7 +7068,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" hidden="1">
       <c r="A190" t="s">
         <v>81</v>
       </c>
@@ -7099,7 +7097,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" hidden="1">
       <c r="A191" t="s">
         <v>81</v>
       </c>
@@ -7128,7 +7126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" hidden="1">
       <c r="A192" t="s">
         <v>81</v>
       </c>
@@ -7157,7 +7155,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" hidden="1">
       <c r="A193" t="s">
         <v>81</v>
       </c>
@@ -7186,7 +7184,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" hidden="1">
       <c r="A194" t="s">
         <v>81</v>
       </c>
@@ -7215,10 +7213,10 @@
         <v>3.5</v>
       </c>
       <c r="Q194" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="195" spans="1:17">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" hidden="1">
       <c r="A195" t="s">
         <v>81</v>
       </c>
@@ -7247,10 +7245,10 @@
         <v>1.25</v>
       </c>
       <c r="Q195" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="196" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" hidden="1">
       <c r="A196" t="s">
         <v>81</v>
       </c>
@@ -7279,10 +7277,10 @@
         <v>1.25</v>
       </c>
       <c r="Q196" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="197" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" hidden="1">
       <c r="A197" t="s">
         <v>81</v>
       </c>
@@ -7311,10 +7309,10 @@
         <v>1.25</v>
       </c>
       <c r="Q197" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="198" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" hidden="1">
       <c r="A198" t="s">
         <v>81</v>
       </c>
@@ -7343,10 +7341,10 @@
         <v>1.25</v>
       </c>
       <c r="Q198" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="199" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" hidden="1">
       <c r="A199" t="s">
         <v>81</v>
       </c>
@@ -7375,10 +7373,10 @@
         <v>1.25</v>
       </c>
       <c r="Q199" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="200" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" hidden="1">
       <c r="A200" t="s">
         <v>81</v>
       </c>
@@ -7407,7 +7405,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" hidden="1">
       <c r="A201" t="s">
         <v>81</v>
       </c>
@@ -7436,7 +7434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" hidden="1">
       <c r="A202" t="s">
         <v>81</v>
       </c>
@@ -7465,7 +7463,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" hidden="1">
       <c r="A203" t="s">
         <v>81</v>
       </c>
@@ -7494,7 +7492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" hidden="1">
       <c r="A204" t="s">
         <v>81</v>
       </c>
@@ -7523,7 +7521,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" hidden="1">
       <c r="A205" t="s">
         <v>81</v>
       </c>
@@ -7552,7 +7550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" hidden="1">
       <c r="A206" t="s">
         <v>81</v>
       </c>
@@ -7581,7 +7579,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:17" hidden="1">
       <c r="A207" t="s">
         <v>81</v>
       </c>
@@ -7610,7 +7608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" hidden="1">
       <c r="A208" t="s">
         <v>81</v>
       </c>
@@ -7639,7 +7637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:17" hidden="1">
       <c r="A209" t="s">
         <v>81</v>
       </c>
@@ -7668,7 +7666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:17" hidden="1">
       <c r="A210" t="s">
         <v>81</v>
       </c>
@@ -7697,7 +7695,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:17" hidden="1">
       <c r="A211" t="s">
         <v>81</v>
       </c>
@@ -7726,7 +7724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:17" hidden="1">
       <c r="A212" t="s">
         <v>81</v>
       </c>
@@ -7755,7 +7753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:17" hidden="1">
       <c r="A213" t="s">
         <v>81</v>
       </c>
@@ -7784,7 +7782,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:17" hidden="1">
       <c r="A214" t="s">
         <v>81</v>
       </c>
@@ -7813,7 +7811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:17" hidden="1">
       <c r="A215" t="s">
         <v>81</v>
       </c>
@@ -7842,7 +7840,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:17" hidden="1">
       <c r="A216" t="s">
         <v>81</v>
       </c>
@@ -7871,7 +7869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:17" hidden="1">
       <c r="A217" t="s">
         <v>81</v>
       </c>
@@ -7900,7 +7898,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="218" spans="1:17">
+    <row r="218" spans="1:17" hidden="1">
       <c r="A218" t="s">
         <v>81</v>
       </c>
@@ -7929,7 +7927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:17">
+    <row r="219" spans="1:17" hidden="1">
       <c r="A219" t="s">
         <v>81</v>
       </c>
@@ -8470,7 +8468,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:17" hidden="1">
       <c r="A236" t="s">
         <v>81</v>
       </c>
@@ -8499,7 +8497,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:17" hidden="1">
       <c r="A237" t="s">
         <v>81</v>
       </c>
@@ -8528,7 +8526,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:17" hidden="1">
       <c r="A238" t="s">
         <v>81</v>
       </c>
@@ -8557,7 +8555,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="239" spans="1:17">
+    <row r="239" spans="1:17" hidden="1">
       <c r="A239" t="s">
         <v>81</v>
       </c>
@@ -8586,7 +8584,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:17" hidden="1">
       <c r="A240" t="s">
         <v>81</v>
       </c>
@@ -8615,7 +8613,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" hidden="1">
       <c r="A241" t="s">
         <v>81</v>
       </c>
@@ -8644,7 +8642,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" hidden="1">
       <c r="A242" t="s">
         <v>81</v>
       </c>
@@ -8673,7 +8671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" hidden="1">
       <c r="A243" t="s">
         <v>81</v>
       </c>
@@ -8702,7 +8700,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" hidden="1">
       <c r="A244" t="s">
         <v>81</v>
       </c>
@@ -8731,7 +8729,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" hidden="1">
       <c r="A245" t="s">
         <v>81</v>
       </c>
@@ -8760,7 +8758,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" hidden="1">
       <c r="A246" t="s">
         <v>81</v>
       </c>
@@ -8789,7 +8787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" hidden="1">
       <c r="A247" t="s">
         <v>81</v>
       </c>
@@ -8818,7 +8816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" hidden="1">
       <c r="A248" t="s">
         <v>81</v>
       </c>
@@ -8847,7 +8845,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" hidden="1">
       <c r="A249" t="s">
         <v>81</v>
       </c>
@@ -8876,7 +8874,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" hidden="1">
       <c r="A250" t="s">
         <v>81</v>
       </c>
@@ -8905,7 +8903,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" hidden="1">
       <c r="A251" t="s">
         <v>81</v>
       </c>
@@ -8934,7 +8932,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" hidden="1">
       <c r="A252" t="s">
         <v>81</v>
       </c>
@@ -8963,7 +8961,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" hidden="1">
       <c r="A253" t="s">
         <v>81</v>
       </c>
@@ -8992,7 +8990,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" hidden="1">
       <c r="A254" t="s">
         <v>81</v>
       </c>
@@ -9021,7 +9019,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" hidden="1">
       <c r="A255" t="s">
         <v>81</v>
       </c>
@@ -9050,7 +9048,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" hidden="1">
       <c r="A256" t="s">
         <v>81</v>
       </c>
@@ -9079,7 +9077,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" hidden="1">
       <c r="A257" t="s">
         <v>81</v>
       </c>
@@ -9108,7 +9106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" hidden="1">
       <c r="A258" t="s">
         <v>81</v>
       </c>
@@ -9137,7 +9135,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" hidden="1">
       <c r="A259" t="s">
         <v>81</v>
       </c>
@@ -9166,7 +9164,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" hidden="1">
       <c r="A260" t="s">
         <v>81</v>
       </c>
@@ -9195,7 +9193,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" hidden="1">
       <c r="A261" t="s">
         <v>81</v>
       </c>
@@ -9224,7 +9222,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" hidden="1">
       <c r="A262" t="s">
         <v>81</v>
       </c>
@@ -9253,7 +9251,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" hidden="1">
       <c r="A263" t="s">
         <v>81</v>
       </c>
@@ -9282,7 +9280,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" hidden="1">
       <c r="A264" t="s">
         <v>81</v>
       </c>
@@ -9311,7 +9309,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" hidden="1">
       <c r="A265" t="s">
         <v>81</v>
       </c>
@@ -9340,7 +9338,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" hidden="1">
       <c r="A266" t="s">
         <v>81</v>
       </c>
@@ -9369,7 +9367,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" hidden="1">
       <c r="A267" t="s">
         <v>81</v>
       </c>
@@ -9398,7 +9396,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" hidden="1">
       <c r="A268" t="s">
         <v>81</v>
       </c>
@@ -9427,7 +9425,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" hidden="1">
       <c r="A269" t="s">
         <v>81</v>
       </c>
@@ -9456,7 +9454,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" hidden="1">
       <c r="A270" t="s">
         <v>81</v>
       </c>
@@ -9485,7 +9483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" hidden="1">
       <c r="A271" t="s">
         <v>81</v>
       </c>
@@ -9514,7 +9512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" hidden="1">
       <c r="A272" t="s">
         <v>81</v>
       </c>
@@ -9543,7 +9541,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
+    <row r="273" spans="1:17" hidden="1">
       <c r="A273" t="s">
         <v>81</v>
       </c>
@@ -9575,7 +9573,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="1:17" hidden="1">
       <c r="A274" t="s">
         <v>81</v>
       </c>
@@ -9607,7 +9605,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="1:17" hidden="1">
       <c r="A275" t="s">
         <v>81</v>
       </c>
@@ -9636,7 +9634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="1:17" hidden="1">
       <c r="A276" t="s">
         <v>81</v>
       </c>
@@ -9665,7 +9663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="1:17" hidden="1">
       <c r="A277" t="s">
         <v>81</v>
       </c>
@@ -9694,7 +9692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="1:17" hidden="1">
       <c r="A278" t="s">
         <v>81</v>
       </c>
@@ -9723,7 +9721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="1:17" hidden="1">
       <c r="A279" t="s">
         <v>81</v>
       </c>
@@ -9752,7 +9750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="1:17" hidden="1">
       <c r="A280" t="s">
         <v>81</v>
       </c>
@@ -9839,7 +9837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="1:17" hidden="1">
       <c r="A283" t="s">
         <v>81</v>
       </c>
@@ -9871,7 +9869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="1:17" hidden="1">
       <c r="A284" t="s">
         <v>81</v>
       </c>
@@ -9903,7 +9901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="1:17" hidden="1">
       <c r="A285" t="s">
         <v>81</v>
       </c>
@@ -9935,7 +9933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="1:17" hidden="1">
       <c r="A286" t="s">
         <v>81</v>
       </c>
@@ -9967,7 +9965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="1:17" hidden="1">
       <c r="A287" t="s">
         <v>81</v>
       </c>
@@ -9999,7 +9997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="1:17" hidden="1">
       <c r="A288" t="s">
         <v>81</v>
       </c>
@@ -10031,7 +10029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:17">
+    <row r="289" spans="1:17" hidden="1">
       <c r="A289" t="s">
         <v>81</v>
       </c>
@@ -10063,7 +10061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:17">
+    <row r="290" spans="1:17" hidden="1">
       <c r="A290" t="s">
         <v>81</v>
       </c>
@@ -10095,7 +10093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="291" spans="1:17">
+    <row r="291" spans="1:17" hidden="1">
       <c r="A291" t="s">
         <v>81</v>
       </c>
@@ -10127,7 +10125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:17">
+    <row r="292" spans="1:17" hidden="1">
       <c r="A292" t="s">
         <v>81</v>
       </c>
@@ -10159,7 +10157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="293" spans="1:17">
+    <row r="293" spans="1:17" hidden="1">
       <c r="A293" t="s">
         <v>81</v>
       </c>
@@ -10191,7 +10189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="294" spans="1:17">
+    <row r="294" spans="1:17" hidden="1">
       <c r="A294" t="s">
         <v>81</v>
       </c>
@@ -10223,7 +10221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:17">
+    <row r="295" spans="1:17" hidden="1">
       <c r="A295" t="s">
         <v>81</v>
       </c>
@@ -10255,7 +10253,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="296" spans="1:17">
+    <row r="296" spans="1:17" hidden="1">
       <c r="A296" t="s">
         <v>81</v>
       </c>
@@ -10284,7 +10282,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="297" spans="1:17">
+    <row r="297" spans="1:17" hidden="1">
       <c r="A297" t="s">
         <v>81</v>
       </c>
@@ -10313,7 +10311,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="298" spans="1:17">
+    <row r="298" spans="1:17" hidden="1">
       <c r="A298" t="s">
         <v>81</v>
       </c>
@@ -10342,7 +10340,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="299" spans="1:17">
+    <row r="299" spans="1:17" hidden="1">
       <c r="A299" t="s">
         <v>81</v>
       </c>
@@ -10371,7 +10369,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="300" spans="1:17">
+    <row r="300" spans="1:17" hidden="1">
       <c r="A300" t="s">
         <v>81</v>
       </c>
@@ -10400,7 +10398,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="301" spans="1:17">
+    <row r="301" spans="1:17" hidden="1">
       <c r="A301" t="s">
         <v>81</v>
       </c>
@@ -10717,7 +10715,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="311" spans="1:17">
+    <row r="311" spans="1:17" hidden="1">
       <c r="A311" t="s">
         <v>81</v>
       </c>
@@ -10746,7 +10744,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="312" spans="1:17">
+    <row r="312" spans="1:17" hidden="1">
       <c r="A312" t="s">
         <v>81</v>
       </c>
@@ -10775,7 +10773,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="313" spans="1:17">
+    <row r="313" spans="1:17" hidden="1">
       <c r="A313" t="s">
         <v>81</v>
       </c>
@@ -10804,7 +10802,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="314" spans="1:17">
+    <row r="314" spans="1:17" hidden="1">
       <c r="A314" t="s">
         <v>81</v>
       </c>
@@ -10833,7 +10831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:17">
+    <row r="315" spans="1:17" hidden="1">
       <c r="A315" t="s">
         <v>81</v>
       </c>
@@ -10862,7 +10860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:17">
+    <row r="316" spans="1:17" hidden="1">
       <c r="A316" t="s">
         <v>81</v>
       </c>
@@ -10891,7 +10889,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="317" spans="1:17">
+    <row r="317" spans="1:17" hidden="1">
       <c r="A317" t="s">
         <v>81</v>
       </c>
@@ -10920,7 +10918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="318" spans="1:17">
+    <row r="318" spans="1:17" hidden="1">
       <c r="A318" t="s">
         <v>81</v>
       </c>
@@ -10949,7 +10947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:17">
+    <row r="319" spans="1:17" hidden="1">
       <c r="A319" t="s">
         <v>81</v>
       </c>
@@ -10978,7 +10976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:17">
+    <row r="320" spans="1:17" hidden="1">
       <c r="A320" t="s">
         <v>81</v>
       </c>
@@ -11007,7 +11005,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" hidden="1">
       <c r="A321" t="s">
         <v>81</v>
       </c>
@@ -11036,7 +11034,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" hidden="1">
       <c r="A322" t="s">
         <v>81</v>
       </c>
@@ -11065,7 +11063,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" hidden="1">
       <c r="A323" t="s">
         <v>81</v>
       </c>
@@ -11094,7 +11092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" hidden="1">
       <c r="A324" t="s">
         <v>81</v>
       </c>
@@ -11123,7 +11121,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" hidden="1">
       <c r="A325" t="s">
         <v>81</v>
       </c>
@@ -11152,7 +11150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" hidden="1">
       <c r="A326" t="s">
         <v>81</v>
       </c>
@@ -11181,7 +11179,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" hidden="1">
       <c r="A327" t="s">
         <v>81</v>
       </c>
@@ -11210,7 +11208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" hidden="1">
       <c r="A328" t="s">
         <v>81</v>
       </c>
@@ -11239,7 +11237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" hidden="1">
       <c r="A329" t="s">
         <v>81</v>
       </c>
@@ -11268,7 +11266,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" hidden="1">
       <c r="A330" t="s">
         <v>81</v>
       </c>
@@ -11297,7 +11295,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" hidden="1">
       <c r="A331" t="s">
         <v>81</v>
       </c>
@@ -11326,7 +11324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" hidden="1">
       <c r="A332" t="s">
         <v>81</v>
       </c>
@@ -11442,7 +11440,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" hidden="1">
       <c r="A336" t="s">
         <v>81</v>
       </c>
@@ -11471,7 +11469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:17">
+    <row r="337" spans="1:17" hidden="1">
       <c r="A337" t="s">
         <v>81</v>
       </c>
@@ -11500,7 +11498,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="338" spans="1:17">
+    <row r="338" spans="1:17" hidden="1">
       <c r="A338" t="s">
         <v>81</v>
       </c>
@@ -11529,7 +11527,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="339" spans="1:17">
+    <row r="339" spans="1:17" hidden="1">
       <c r="A339" t="s">
         <v>81</v>
       </c>
@@ -11558,7 +11556,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="340" spans="1:17">
+    <row r="340" spans="1:17" hidden="1">
       <c r="A340" t="s">
         <v>81</v>
       </c>
@@ -11587,7 +11585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:17">
+    <row r="341" spans="1:17" hidden="1">
       <c r="A341" t="s">
         <v>81</v>
       </c>
@@ -11616,7 +11614,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="342" spans="1:17">
+    <row r="342" spans="1:17" hidden="1">
       <c r="A342" t="s">
         <v>81</v>
       </c>
@@ -11645,7 +11643,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="343" spans="1:17">
+    <row r="343" spans="1:17" hidden="1">
       <c r="A343" t="s">
         <v>81</v>
       </c>
@@ -11674,7 +11672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:17">
+    <row r="344" spans="1:17" hidden="1">
       <c r="A344" t="s">
         <v>81</v>
       </c>
@@ -11703,7 +11701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:17">
+    <row r="345" spans="1:17" hidden="1">
       <c r="A345" t="s">
         <v>81</v>
       </c>
@@ -11732,7 +11730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="1:17">
+    <row r="346" spans="1:17" hidden="1">
       <c r="A346" t="s">
         <v>81</v>
       </c>
@@ -11821,8 +11819,11 @@
       <c r="M348">
         <v>3</v>
       </c>
-    </row>
-    <row r="349" spans="1:17">
+      <c r="Q348" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="349" spans="1:17" hidden="1">
       <c r="A349" t="s">
         <v>81</v>
       </c>
@@ -11851,7 +11852,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="350" spans="1:17">
+    <row r="350" spans="1:17" hidden="1">
       <c r="A350" t="s">
         <v>81</v>
       </c>
@@ -11880,7 +11881,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="351" spans="1:17">
+    <row r="351" spans="1:17" hidden="1">
       <c r="A351" t="s">
         <v>81</v>
       </c>
@@ -11912,7 +11913,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="352" spans="1:17">
+    <row r="352" spans="1:17" hidden="1">
       <c r="A352" t="s">
         <v>81</v>
       </c>
@@ -11944,7 +11945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:17">
+    <row r="353" spans="1:17" hidden="1">
       <c r="A353" t="s">
         <v>81</v>
       </c>
@@ -11976,7 +11977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="354" spans="1:17">
+    <row r="354" spans="1:17" hidden="1">
       <c r="A354" t="s">
         <v>81</v>
       </c>
@@ -12008,7 +12009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="355" spans="1:17">
+    <row r="355" spans="1:17" hidden="1">
       <c r="A355" t="s">
         <v>81</v>
       </c>
@@ -12040,7 +12041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="356" spans="1:17">
+    <row r="356" spans="1:17" hidden="1">
       <c r="A356" t="s">
         <v>81</v>
       </c>
@@ -12072,7 +12073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="357" spans="1:17">
+    <row r="357" spans="1:17" hidden="1">
       <c r="A357" t="s">
         <v>81</v>
       </c>
@@ -12104,7 +12105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="358" spans="1:17">
+    <row r="358" spans="1:17" hidden="1">
       <c r="A358" t="s">
         <v>81</v>
       </c>
@@ -12136,7 +12137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="359" spans="1:17">
+    <row r="359" spans="1:17" hidden="1">
       <c r="A359" t="s">
         <v>81</v>
       </c>
@@ -12168,7 +12169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="360" spans="1:17">
+    <row r="360" spans="1:17" hidden="1">
       <c r="A360" t="s">
         <v>81</v>
       </c>
@@ -12200,7 +12201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="361" spans="1:17">
+    <row r="361" spans="1:17" hidden="1">
       <c r="A361" t="s">
         <v>81</v>
       </c>
@@ -12232,7 +12233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="362" spans="1:17">
+    <row r="362" spans="1:17" hidden="1">
       <c r="A362" t="s">
         <v>81</v>
       </c>
@@ -12264,7 +12265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="363" spans="1:17">
+    <row r="363" spans="1:17" hidden="1">
       <c r="A363" t="s">
         <v>81</v>
       </c>
@@ -12296,7 +12297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="364" spans="1:17">
+    <row r="364" spans="1:17" hidden="1">
       <c r="A364" t="s">
         <v>81</v>
       </c>
@@ -12328,7 +12329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="365" spans="1:17">
+    <row r="365" spans="1:17" hidden="1">
       <c r="A365" t="s">
         <v>81</v>
       </c>
@@ -12360,7 +12361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="366" spans="1:17">
+    <row r="366" spans="1:17" hidden="1">
       <c r="A366" t="s">
         <v>81</v>
       </c>
@@ -12392,7 +12393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="367" spans="1:17">
+    <row r="367" spans="1:17" hidden="1">
       <c r="A367" t="s">
         <v>81</v>
       </c>
@@ -12424,7 +12425,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="368" spans="1:17">
+    <row r="368" spans="1:17" hidden="1">
       <c r="A368" t="s">
         <v>81</v>
       </c>
@@ -12456,7 +12457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="369" spans="1:17">
+    <row r="369" spans="1:17" hidden="1">
       <c r="A369" t="s">
         <v>81</v>
       </c>
@@ -12488,7 +12489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="370" spans="1:17">
+    <row r="370" spans="1:17" hidden="1">
       <c r="A370" t="s">
         <v>81</v>
       </c>
@@ -12520,7 +12521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:17">
+    <row r="371" spans="1:17" hidden="1">
       <c r="A371" t="s">
         <v>81</v>
       </c>
@@ -12552,7 +12553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="372" spans="1:17">
+    <row r="372" spans="1:17" hidden="1">
       <c r="A372" t="s">
         <v>81</v>
       </c>
@@ -12584,7 +12585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="373" spans="1:17">
+    <row r="373" spans="1:17" hidden="1">
       <c r="A373" t="s">
         <v>81</v>
       </c>
@@ -12616,7 +12617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="374" spans="1:17">
+    <row r="374" spans="1:17" hidden="1">
       <c r="A374" t="s">
         <v>81</v>
       </c>
@@ -12648,7 +12649,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="375" spans="1:17">
+    <row r="375" spans="1:17" hidden="1">
       <c r="A375" t="s">
         <v>81</v>
       </c>
@@ -12680,7 +12681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="376" spans="1:17">
+    <row r="376" spans="1:17" hidden="1">
       <c r="A376" t="s">
         <v>81</v>
       </c>
@@ -12712,7 +12713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="377" spans="1:17">
+    <row r="377" spans="1:17" hidden="1">
       <c r="A377" t="s">
         <v>81</v>
       </c>
@@ -12744,7 +12745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="378" spans="1:17">
+    <row r="378" spans="1:17" hidden="1">
       <c r="A378" t="s">
         <v>81</v>
       </c>
@@ -12776,7 +12777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="379" spans="1:17">
+    <row r="379" spans="1:17" hidden="1">
       <c r="A379" t="s">
         <v>81</v>
       </c>
@@ -12808,7 +12809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:17">
+    <row r="380" spans="1:17" hidden="1">
       <c r="A380" t="s">
         <v>81</v>
       </c>
@@ -12840,7 +12841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="381" spans="1:17">
+    <row r="381" spans="1:17" hidden="1">
       <c r="A381" t="s">
         <v>81</v>
       </c>
@@ -12872,7 +12873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="382" spans="1:17">
+    <row r="382" spans="1:17" hidden="1">
       <c r="A382" t="s">
         <v>81</v>
       </c>
@@ -12904,7 +12905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="383" spans="1:17">
+    <row r="383" spans="1:17" hidden="1">
       <c r="A383" t="s">
         <v>81</v>
       </c>
@@ -12936,7 +12937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="384" spans="1:17">
+    <row r="384" spans="1:17" hidden="1">
       <c r="A384" t="s">
         <v>81</v>
       </c>
@@ -12968,7 +12969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="385" spans="1:17">
+    <row r="385" spans="1:17" hidden="1">
       <c r="A385" t="s">
         <v>81</v>
       </c>
@@ -13000,7 +13001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="386" spans="1:17">
+    <row r="386" spans="1:17" hidden="1">
       <c r="A386" t="s">
         <v>81</v>
       </c>
@@ -13032,7 +13033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="387" spans="1:17">
+    <row r="387" spans="1:17" hidden="1">
       <c r="A387" t="s">
         <v>81</v>
       </c>
@@ -13061,7 +13062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:17">
+    <row r="388" spans="1:17" hidden="1">
       <c r="A388" t="s">
         <v>81</v>
       </c>
@@ -13090,7 +13091,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="389" spans="1:17">
+    <row r="389" spans="1:17" hidden="1">
       <c r="A389" t="s">
         <v>81</v>
       </c>
@@ -13119,7 +13120,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="390" spans="1:17">
+    <row r="390" spans="1:17" hidden="1">
       <c r="A390" t="s">
         <v>81</v>
       </c>
@@ -13148,7 +13149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:17">
+    <row r="391" spans="1:17" hidden="1">
       <c r="A391" t="s">
         <v>81</v>
       </c>
@@ -13177,7 +13178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="392" spans="1:17">
+    <row r="392" spans="1:17" hidden="1">
       <c r="A392" t="s">
         <v>81</v>
       </c>
@@ -13206,7 +13207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:17">
+    <row r="393" spans="1:17" hidden="1">
       <c r="A393" t="s">
         <v>81</v>
       </c>
@@ -13235,7 +13236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:17">
+    <row r="394" spans="1:17" hidden="1">
       <c r="A394" t="s">
         <v>81</v>
       </c>
@@ -13264,7 +13265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:17">
+    <row r="395" spans="1:17" hidden="1">
       <c r="A395" t="s">
         <v>81</v>
       </c>
@@ -13293,7 +13294,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="396" spans="1:17">
+    <row r="396" spans="1:17" hidden="1">
       <c r="A396" t="s">
         <v>81</v>
       </c>
@@ -13322,7 +13323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:17">
+    <row r="397" spans="1:17" hidden="1">
       <c r="A397" t="s">
         <v>81</v>
       </c>
@@ -13351,7 +13352,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="398" spans="1:17">
+    <row r="398" spans="1:17" hidden="1">
       <c r="A398" t="s">
         <v>81</v>
       </c>
@@ -13380,7 +13381,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="399" spans="1:17">
+    <row r="399" spans="1:17" hidden="1">
       <c r="A399" t="s">
         <v>81</v>
       </c>
@@ -13409,7 +13410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:17">
+    <row r="400" spans="1:17" hidden="1">
       <c r="A400" t="s">
         <v>81</v>
       </c>
@@ -13438,7 +13439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:13">
+    <row r="401" spans="1:13" hidden="1">
       <c r="A401" t="s">
         <v>81</v>
       </c>
@@ -13467,7 +13468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:13">
+    <row r="402" spans="1:13" hidden="1">
       <c r="A402" t="s">
         <v>81</v>
       </c>
@@ -13496,7 +13497,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="403" spans="1:13">
+    <row r="403" spans="1:13" hidden="1">
       <c r="A403" t="s">
         <v>81</v>
       </c>
@@ -13525,7 +13526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:13">
+    <row r="404" spans="1:13" hidden="1">
       <c r="A404" t="s">
         <v>81</v>
       </c>
@@ -13554,7 +13555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:13">
+    <row r="405" spans="1:13" hidden="1">
       <c r="A405" t="s">
         <v>81</v>
       </c>
@@ -13583,7 +13584,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="406" spans="1:13">
+    <row r="406" spans="1:13" hidden="1">
       <c r="A406" t="s">
         <v>81</v>
       </c>
@@ -13612,7 +13613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:13">
+    <row r="407" spans="1:13" hidden="1">
       <c r="A407" t="s">
         <v>81</v>
       </c>
@@ -13641,7 +13642,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="408" spans="1:13">
+    <row r="408" spans="1:13" hidden="1">
       <c r="A408" t="s">
         <v>81</v>
       </c>
@@ -13670,7 +13671,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="409" spans="1:13">
+    <row r="409" spans="1:13" hidden="1">
       <c r="A409" t="s">
         <v>81</v>
       </c>
@@ -13699,7 +13700,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="410" spans="1:13">
+    <row r="410" spans="1:13" hidden="1">
       <c r="A410" t="s">
         <v>81</v>
       </c>
@@ -13728,7 +13729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:13">
+    <row r="411" spans="1:13" hidden="1">
       <c r="A411" t="s">
         <v>81</v>
       </c>
@@ -13757,7 +13758,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="412" spans="1:13">
+    <row r="412" spans="1:13" hidden="1">
       <c r="A412" t="s">
         <v>81</v>
       </c>
@@ -13786,7 +13787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:13">
+    <row r="413" spans="1:13" hidden="1">
       <c r="A413" t="s">
         <v>81</v>
       </c>
@@ -13815,7 +13816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:13">
+    <row r="414" spans="1:13" hidden="1">
       <c r="A414" t="s">
         <v>81</v>
       </c>
@@ -13844,7 +13845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:13">
+    <row r="415" spans="1:13" hidden="1">
       <c r="A415" t="s">
         <v>81</v>
       </c>
@@ -13873,7 +13874,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="416" spans="1:13">
+    <row r="416" spans="1:13" hidden="1">
       <c r="A416" t="s">
         <v>81</v>
       </c>
@@ -13902,7 +13903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:17">
+    <row r="417" spans="1:17" hidden="1">
       <c r="A417" t="s">
         <v>81</v>
       </c>
@@ -13931,7 +13932,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="418" spans="1:17">
+    <row r="418" spans="1:17" hidden="1">
       <c r="A418" t="s">
         <v>81</v>
       </c>
@@ -13960,7 +13961,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="419" spans="1:17">
+    <row r="419" spans="1:17" hidden="1">
       <c r="A419" t="s">
         <v>81</v>
       </c>
@@ -13989,7 +13990,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="420" spans="1:17">
+    <row r="420" spans="1:17" hidden="1">
       <c r="A420" t="s">
         <v>81</v>
       </c>
@@ -14018,7 +14019,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="421" spans="1:17">
+    <row r="421" spans="1:17" hidden="1">
       <c r="A421" t="s">
         <v>81</v>
       </c>
@@ -14047,7 +14048,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="422" spans="1:17">
+    <row r="422" spans="1:17" hidden="1">
       <c r="A422" t="s">
         <v>81</v>
       </c>
@@ -14076,7 +14077,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="423" spans="1:17">
+    <row r="423" spans="1:17" hidden="1">
       <c r="A423" t="s">
         <v>81</v>
       </c>
@@ -14108,7 +14109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="424" spans="1:17">
+    <row r="424" spans="1:17" hidden="1">
       <c r="A424" t="s">
         <v>81</v>
       </c>
@@ -14140,7 +14141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="425" spans="1:17">
+    <row r="425" spans="1:17" hidden="1">
       <c r="A425" t="s">
         <v>81</v>
       </c>
@@ -14172,7 +14173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="426" spans="1:17">
+    <row r="426" spans="1:17" hidden="1">
       <c r="A426" t="s">
         <v>81</v>
       </c>
@@ -14204,7 +14205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="427" spans="1:17">
+    <row r="427" spans="1:17" hidden="1">
       <c r="A427" t="s">
         <v>81</v>
       </c>
@@ -14236,7 +14237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="428" spans="1:17">
+    <row r="428" spans="1:17" hidden="1">
       <c r="A428" t="s">
         <v>81</v>
       </c>
@@ -14268,7 +14269,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="429" spans="1:17">
+    <row r="429" spans="1:17" hidden="1">
       <c r="A429" t="s">
         <v>81</v>
       </c>
@@ -14300,7 +14301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="430" spans="1:17">
+    <row r="430" spans="1:17" hidden="1">
       <c r="A430" t="s">
         <v>81</v>
       </c>
@@ -14332,7 +14333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="431" spans="1:17">
+    <row r="431" spans="1:17" hidden="1">
       <c r="A431" t="s">
         <v>81</v>
       </c>
@@ -14364,7 +14365,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="432" spans="1:17">
+    <row r="432" spans="1:17" hidden="1">
       <c r="A432" t="s">
         <v>81</v>
       </c>
@@ -14396,7 +14397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="433" spans="1:17">
+    <row r="433" spans="1:17" hidden="1">
       <c r="A433" t="s">
         <v>81</v>
       </c>
@@ -14428,7 +14429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="434" spans="1:17">
+    <row r="434" spans="1:17" hidden="1">
       <c r="A434" t="s">
         <v>81</v>
       </c>
@@ -14460,7 +14461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="435" spans="1:17">
+    <row r="435" spans="1:17" hidden="1">
       <c r="A435" t="s">
         <v>81</v>
       </c>
@@ -14492,7 +14493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="436" spans="1:17">
+    <row r="436" spans="1:17" hidden="1">
       <c r="A436" t="s">
         <v>81</v>
       </c>
@@ -14524,7 +14525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="437" spans="1:17">
+    <row r="437" spans="1:17" hidden="1">
       <c r="A437" t="s">
         <v>81</v>
       </c>
@@ -14556,7 +14557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="438" spans="1:17">
+    <row r="438" spans="1:17" hidden="1">
       <c r="A438" t="s">
         <v>81</v>
       </c>
@@ -14588,7 +14589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="439" spans="1:17">
+    <row r="439" spans="1:17" hidden="1">
       <c r="A439" t="s">
         <v>81</v>
       </c>
@@ -14620,7 +14621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="440" spans="1:17">
+    <row r="440" spans="1:17" hidden="1">
       <c r="A440" t="s">
         <v>81</v>
       </c>
@@ -14652,7 +14653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="441" spans="1:17">
+    <row r="441" spans="1:17" hidden="1">
       <c r="A441" t="s">
         <v>81</v>
       </c>
@@ -14684,7 +14685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="442" spans="1:17">
+    <row r="442" spans="1:17" hidden="1">
       <c r="A442" t="s">
         <v>81</v>
       </c>
@@ -14716,7 +14717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="443" spans="1:17">
+    <row r="443" spans="1:17" hidden="1">
       <c r="A443" t="s">
         <v>81</v>
       </c>
@@ -14748,7 +14749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:17">
+    <row r="444" spans="1:17" hidden="1">
       <c r="A444" t="s">
         <v>81</v>
       </c>
@@ -14780,7 +14781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="445" spans="1:17">
+    <row r="445" spans="1:17" hidden="1">
       <c r="A445" t="s">
         <v>81</v>
       </c>
@@ -14812,7 +14813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="446" spans="1:17">
+    <row r="446" spans="1:17" hidden="1">
       <c r="A446" t="s">
         <v>81</v>
       </c>
@@ -14844,7 +14845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="447" spans="1:17">
+    <row r="447" spans="1:17" hidden="1">
       <c r="A447" t="s">
         <v>81</v>
       </c>
@@ -14876,7 +14877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="448" spans="1:17">
+    <row r="448" spans="1:17" hidden="1">
       <c r="A448" t="s">
         <v>81</v>
       </c>
@@ -14908,7 +14909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="449" spans="1:17">
+    <row r="449" spans="1:17" hidden="1">
       <c r="A449" t="s">
         <v>81</v>
       </c>
@@ -14940,7 +14941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="450" spans="1:17">
+    <row r="450" spans="1:17" hidden="1">
       <c r="A450" t="s">
         <v>81</v>
       </c>
@@ -14972,7 +14973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="451" spans="1:17">
+    <row r="451" spans="1:17" hidden="1">
       <c r="A451" t="s">
         <v>81</v>
       </c>
@@ -15004,7 +15005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="452" spans="1:17">
+    <row r="452" spans="1:17" hidden="1">
       <c r="A452" t="s">
         <v>81</v>
       </c>
@@ -15036,7 +15037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="453" spans="1:17">
+    <row r="453" spans="1:17" hidden="1">
       <c r="A453" t="s">
         <v>81</v>
       </c>
@@ -15068,7 +15069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="454" spans="1:17">
+    <row r="454" spans="1:17" hidden="1">
       <c r="A454" t="s">
         <v>81</v>
       </c>
@@ -15100,7 +15101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:17">
+    <row r="455" spans="1:17" hidden="1">
       <c r="A455" t="s">
         <v>81</v>
       </c>
@@ -15132,7 +15133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="456" spans="1:17">
+    <row r="456" spans="1:17" hidden="1">
       <c r="A456" t="s">
         <v>81</v>
       </c>
@@ -15164,7 +15165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="457" spans="1:17">
+    <row r="457" spans="1:17" hidden="1">
       <c r="A457" t="s">
         <v>81</v>
       </c>
@@ -15196,7 +15197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:17">
+    <row r="458" spans="1:17" hidden="1">
       <c r="A458" t="s">
         <v>81</v>
       </c>
@@ -15228,7 +15229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:17">
+    <row r="459" spans="1:17" hidden="1">
       <c r="A459" t="s">
         <v>81</v>
       </c>
@@ -15260,7 +15261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:17">
+    <row r="460" spans="1:17" hidden="1">
       <c r="A460" t="s">
         <v>81</v>
       </c>
@@ -15292,7 +15293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:17">
+    <row r="461" spans="1:17" hidden="1">
       <c r="A461" t="s">
         <v>81</v>
       </c>
@@ -15324,7 +15325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:17">
+    <row r="462" spans="1:17" hidden="1">
       <c r="A462" t="s">
         <v>81</v>
       </c>
@@ -15356,7 +15357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="463" spans="1:17">
+    <row r="463" spans="1:17" hidden="1">
       <c r="A463" t="s">
         <v>81</v>
       </c>
@@ -15388,7 +15389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="464" spans="1:17">
+    <row r="464" spans="1:17" hidden="1">
       <c r="A464" t="s">
         <v>81</v>
       </c>
@@ -15420,7 +15421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:17">
+    <row r="465" spans="1:17" hidden="1">
       <c r="A465" t="s">
         <v>81</v>
       </c>
@@ -15452,7 +15453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:17">
+    <row r="466" spans="1:17" hidden="1">
       <c r="A466" t="s">
         <v>81</v>
       </c>
@@ -15484,7 +15485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="467" spans="1:17">
+    <row r="467" spans="1:17" hidden="1">
       <c r="A467" t="s">
         <v>81</v>
       </c>
@@ -15516,7 +15517,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="468" spans="1:17">
+    <row r="468" spans="1:17" hidden="1">
       <c r="A468" t="s">
         <v>81</v>
       </c>
@@ -15548,7 +15549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="469" spans="1:17">
+    <row r="469" spans="1:17" hidden="1">
       <c r="A469" t="s">
         <v>81</v>
       </c>
@@ -15580,7 +15581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="470" spans="1:17">
+    <row r="470" spans="1:17" hidden="1">
       <c r="A470" t="s">
         <v>81</v>
       </c>
@@ -15612,7 +15613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="471" spans="1:17">
+    <row r="471" spans="1:17" hidden="1">
       <c r="A471" t="s">
         <v>81</v>
       </c>
@@ -15644,7 +15645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="472" spans="1:17">
+    <row r="472" spans="1:17" hidden="1">
       <c r="A472" t="s">
         <v>81</v>
       </c>
@@ -15676,7 +15677,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="473" spans="1:17">
+    <row r="473" spans="1:17" hidden="1">
       <c r="A473" t="s">
         <v>81</v>
       </c>
@@ -15708,7 +15709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="474" spans="1:17">
+    <row r="474" spans="1:17" hidden="1">
       <c r="A474" t="s">
         <v>81</v>
       </c>
@@ -15740,7 +15741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="475" spans="1:17">
+    <row r="475" spans="1:17" hidden="1">
       <c r="A475" t="s">
         <v>81</v>
       </c>
@@ -15772,7 +15773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="476" spans="1:17">
+    <row r="476" spans="1:17" hidden="1">
       <c r="A476" t="s">
         <v>81</v>
       </c>
@@ -15804,7 +15805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="477" spans="1:17">
+    <row r="477" spans="1:17" hidden="1">
       <c r="A477" t="s">
         <v>81</v>
       </c>
@@ -15836,7 +15837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="478" spans="1:17">
+    <row r="478" spans="1:17" hidden="1">
       <c r="A478" t="s">
         <v>81</v>
       </c>
@@ -15868,7 +15869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="479" spans="1:17">
+    <row r="479" spans="1:17" hidden="1">
       <c r="A479" t="s">
         <v>81</v>
       </c>
@@ -15900,7 +15901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="480" spans="1:17">
+    <row r="480" spans="1:17" hidden="1">
       <c r="A480" t="s">
         <v>81</v>
       </c>
@@ -15932,7 +15933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="481" spans="1:17">
+    <row r="481" spans="1:17" hidden="1">
       <c r="A481" t="s">
         <v>81</v>
       </c>
@@ -15964,7 +15965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="482" spans="1:17">
+    <row r="482" spans="1:17" hidden="1">
       <c r="A482" t="s">
         <v>81</v>
       </c>
@@ -15996,7 +15997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="483" spans="1:17">
+    <row r="483" spans="1:17" hidden="1">
       <c r="A483" t="s">
         <v>81</v>
       </c>
@@ -16028,7 +16029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="484" spans="1:17">
+    <row r="484" spans="1:17" hidden="1">
       <c r="A484" t="s">
         <v>81</v>
       </c>
@@ -16060,7 +16061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="485" spans="1:17">
+    <row r="485" spans="1:17" hidden="1">
       <c r="A485" t="s">
         <v>81</v>
       </c>
@@ -16092,7 +16093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="486" spans="1:17">
+    <row r="486" spans="1:17" hidden="1">
       <c r="A486" t="s">
         <v>81</v>
       </c>
@@ -16124,7 +16125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="487" spans="1:17">
+    <row r="487" spans="1:17" hidden="1">
       <c r="A487" t="s">
         <v>81</v>
       </c>
@@ -16156,7 +16157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="488" spans="1:17">
+    <row r="488" spans="1:17" hidden="1">
       <c r="A488" t="s">
         <v>81</v>
       </c>
@@ -16188,7 +16189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="489" spans="1:17">
+    <row r="489" spans="1:17" hidden="1">
       <c r="A489" t="s">
         <v>81</v>
       </c>
@@ -16220,7 +16221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="490" spans="1:17">
+    <row r="490" spans="1:17" hidden="1">
       <c r="A490" t="s">
         <v>81</v>
       </c>
@@ -16252,7 +16253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="491" spans="1:17">
+    <row r="491" spans="1:17" hidden="1">
       <c r="A491" t="s">
         <v>81</v>
       </c>
@@ -16284,7 +16285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="492" spans="1:17">
+    <row r="492" spans="1:17" hidden="1">
       <c r="A492" t="s">
         <v>81</v>
       </c>
@@ -16316,7 +16317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="493" spans="1:17">
+    <row r="493" spans="1:17" hidden="1">
       <c r="A493" t="s">
         <v>81</v>
       </c>
@@ -16348,7 +16349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="494" spans="1:17">
+    <row r="494" spans="1:17" hidden="1">
       <c r="A494" t="s">
         <v>81</v>
       </c>
@@ -16380,7 +16381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="495" spans="1:17">
+    <row r="495" spans="1:17" hidden="1">
       <c r="A495" t="s">
         <v>81</v>
       </c>
@@ -16412,7 +16413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="496" spans="1:17">
+    <row r="496" spans="1:17" hidden="1">
       <c r="A496" t="s">
         <v>81</v>
       </c>
@@ -16441,7 +16442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="497" spans="1:17">
+    <row r="497" spans="1:17" hidden="1">
       <c r="A497" t="s">
         <v>81</v>
       </c>
@@ -16470,7 +16471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="498" spans="1:17">
+    <row r="498" spans="1:17" hidden="1">
       <c r="A498" t="s">
         <v>81</v>
       </c>
@@ -16499,7 +16500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="499" spans="1:17">
+    <row r="499" spans="1:17" hidden="1">
       <c r="A499" t="s">
         <v>81</v>
       </c>
@@ -16528,7 +16529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="500" spans="1:17">
+    <row r="500" spans="1:17" hidden="1">
       <c r="A500" t="s">
         <v>81</v>
       </c>
@@ -16557,7 +16558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="501" spans="1:17">
+    <row r="501" spans="1:17" hidden="1">
       <c r="A501" t="s">
         <v>81</v>
       </c>
@@ -16586,7 +16587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:17">
+    <row r="502" spans="1:17" hidden="1">
       <c r="A502" t="s">
         <v>81</v>
       </c>
@@ -16615,7 +16616,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="503" spans="1:17">
+    <row r="503" spans="1:17" hidden="1">
       <c r="A503" t="s">
         <v>81</v>
       </c>
@@ -16644,7 +16645,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="504" spans="1:17">
+    <row r="504" spans="1:17" hidden="1">
       <c r="A504" t="s">
         <v>81</v>
       </c>
@@ -16673,7 +16674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="505" spans="1:17">
+    <row r="505" spans="1:17" hidden="1">
       <c r="A505" t="s">
         <v>81</v>
       </c>
@@ -16702,7 +16703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="506" spans="1:17">
+    <row r="506" spans="1:17" hidden="1">
       <c r="A506" t="s">
         <v>81</v>
       </c>
@@ -16731,7 +16732,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="507" spans="1:17">
+    <row r="507" spans="1:17" hidden="1">
       <c r="A507" t="s">
         <v>81</v>
       </c>
@@ -16760,7 +16761,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="508" spans="1:17">
+    <row r="508" spans="1:17" hidden="1">
       <c r="A508" t="s">
         <v>81</v>
       </c>
@@ -16789,7 +16790,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="509" spans="1:17">
+    <row r="509" spans="1:17" hidden="1">
       <c r="A509" t="s">
         <v>81</v>
       </c>
@@ -16818,7 +16819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="510" spans="1:17">
+    <row r="510" spans="1:17" hidden="1">
       <c r="A510" t="s">
         <v>81</v>
       </c>
@@ -16847,7 +16848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="1:17">
+    <row r="511" spans="1:17" hidden="1">
       <c r="A511" t="s">
         <v>81</v>
       </c>
@@ -16876,7 +16877,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="512" spans="1:17">
+    <row r="512" spans="1:17" hidden="1">
       <c r="A512" t="s">
         <v>81</v>
       </c>
@@ -16908,7 +16909,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="513" spans="1:13">
+    <row r="513" spans="1:13" hidden="1">
       <c r="A513" t="s">
         <v>81</v>
       </c>
@@ -16937,7 +16938,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="514" spans="1:13">
+    <row r="514" spans="1:13" hidden="1">
       <c r="A514" t="s">
         <v>81</v>
       </c>
@@ -16966,7 +16967,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="515" spans="1:13">
+    <row r="515" spans="1:13" hidden="1">
       <c r="A515" t="s">
         <v>81</v>
       </c>
@@ -16995,7 +16996,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="516" spans="1:13">
+    <row r="516" spans="1:13" hidden="1">
       <c r="A516" t="s">
         <v>81</v>
       </c>
@@ -17024,7 +17025,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="517" spans="1:13">
+    <row r="517" spans="1:13" hidden="1">
       <c r="A517" t="s">
         <v>81</v>
       </c>
@@ -17053,7 +17054,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="518" spans="1:13">
+    <row r="518" spans="1:13" hidden="1">
       <c r="A518" t="s">
         <v>81</v>
       </c>
@@ -17082,7 +17083,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="519" spans="1:13">
+    <row r="519" spans="1:13" hidden="1">
       <c r="A519" t="s">
         <v>81</v>
       </c>
@@ -17111,7 +17112,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="520" spans="1:13">
+    <row r="520" spans="1:13" hidden="1">
       <c r="A520" t="s">
         <v>81</v>
       </c>
@@ -17140,7 +17141,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="521" spans="1:13">
+    <row r="521" spans="1:13" hidden="1">
       <c r="A521" t="s">
         <v>81</v>
       </c>
@@ -17169,7 +17170,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="522" spans="1:13">
+    <row r="522" spans="1:13" hidden="1">
       <c r="A522" t="s">
         <v>81</v>
       </c>
@@ -17198,7 +17199,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="523" spans="1:13">
+    <row r="523" spans="1:13" hidden="1">
       <c r="A523" t="s">
         <v>81</v>
       </c>
@@ -17227,7 +17228,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="524" spans="1:13">
+    <row r="524" spans="1:13" hidden="1">
       <c r="A524" t="s">
         <v>81</v>
       </c>
@@ -17256,7 +17257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="525" spans="1:13">
+    <row r="525" spans="1:13" hidden="1">
       <c r="A525" t="s">
         <v>81</v>
       </c>
@@ -17285,7 +17286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="526" spans="1:13">
+    <row r="526" spans="1:13" hidden="1">
       <c r="A526" t="s">
         <v>81</v>
       </c>
@@ -17314,7 +17315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="527" spans="1:13">
+    <row r="527" spans="1:13" hidden="1">
       <c r="A527" t="s">
         <v>81</v>
       </c>
@@ -17343,7 +17344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="528" spans="1:13">
+    <row r="528" spans="1:13" hidden="1">
       <c r="A528" t="s">
         <v>81</v>
       </c>
@@ -17372,7 +17373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" spans="1:17">
+    <row r="529" spans="1:17" hidden="1">
       <c r="A529" t="s">
         <v>81</v>
       </c>
@@ -17401,7 +17402,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="530" spans="1:17">
+    <row r="530" spans="1:17" hidden="1">
       <c r="A530" t="s">
         <v>81</v>
       </c>
@@ -17430,7 +17431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="531" spans="1:17">
+    <row r="531" spans="1:17" hidden="1">
       <c r="A531" t="s">
         <v>81</v>
       </c>
@@ -17459,7 +17460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="532" spans="1:17">
+    <row r="532" spans="1:17" hidden="1">
       <c r="A532" t="s">
         <v>81</v>
       </c>
@@ -17488,7 +17489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="533" spans="1:17">
+    <row r="533" spans="1:17" hidden="1">
       <c r="A533" t="s">
         <v>81</v>
       </c>
@@ -17517,7 +17518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:17">
+    <row r="534" spans="1:17" hidden="1">
       <c r="A534" t="s">
         <v>81</v>
       </c>
@@ -17546,7 +17547,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="535" spans="1:17">
+    <row r="535" spans="1:17" hidden="1">
       <c r="A535" t="s">
         <v>81</v>
       </c>
@@ -17575,7 +17576,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="536" spans="1:17">
+    <row r="536" spans="1:17" hidden="1">
       <c r="A536" t="s">
         <v>81</v>
       </c>
@@ -17604,7 +17605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="537" spans="1:17">
+    <row r="537" spans="1:17" hidden="1">
       <c r="A537" t="s">
         <v>81</v>
       </c>
@@ -17633,7 +17634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="538" spans="1:17">
+    <row r="538" spans="1:17" hidden="1">
       <c r="A538" t="s">
         <v>81</v>
       </c>
@@ -17662,7 +17663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="539" spans="1:17">
+    <row r="539" spans="1:17" hidden="1">
       <c r="A539" t="s">
         <v>81</v>
       </c>
@@ -17691,7 +17692,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="540" spans="1:17">
+    <row r="540" spans="1:17" hidden="1">
       <c r="A540" t="s">
         <v>81</v>
       </c>
@@ -17723,7 +17724,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="541" spans="1:17">
+    <row r="541" spans="1:17" hidden="1">
       <c r="A541" t="s">
         <v>81</v>
       </c>
@@ -17755,7 +17756,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="542" spans="1:17">
+    <row r="542" spans="1:17" hidden="1">
       <c r="A542" t="s">
         <v>81</v>
       </c>
@@ -17784,7 +17785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="543" spans="1:17">
+    <row r="543" spans="1:17" hidden="1">
       <c r="A543" t="s">
         <v>81</v>
       </c>
@@ -17813,7 +17814,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="544" spans="1:17">
+    <row r="544" spans="1:17" hidden="1">
       <c r="A544" t="s">
         <v>81</v>
       </c>
@@ -17842,7 +17843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="545" spans="1:13">
+    <row r="545" spans="1:13" hidden="1">
       <c r="A545" t="s">
         <v>81</v>
       </c>
@@ -17871,7 +17872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="546" spans="1:13">
+    <row r="546" spans="1:13" hidden="1">
       <c r="A546" t="s">
         <v>81</v>
       </c>
@@ -17900,7 +17901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="547" spans="1:13">
+    <row r="547" spans="1:13" hidden="1">
       <c r="A547" t="s">
         <v>81</v>
       </c>
@@ -17929,7 +17930,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="548" spans="1:13">
+    <row r="548" spans="1:13" hidden="1">
       <c r="A548" t="s">
         <v>81</v>
       </c>
@@ -17958,7 +17959,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="549" spans="1:13">
+    <row r="549" spans="1:13" hidden="1">
       <c r="A549" t="s">
         <v>81</v>
       </c>
@@ -17987,7 +17988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="550" spans="1:13">
+    <row r="550" spans="1:13" hidden="1">
       <c r="A550" t="s">
         <v>81</v>
       </c>
@@ -18016,7 +18017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="551" spans="1:13">
+    <row r="551" spans="1:13" hidden="1">
       <c r="A551" t="s">
         <v>81</v>
       </c>
@@ -18045,7 +18046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="552" spans="1:13">
+    <row r="552" spans="1:13" hidden="1">
       <c r="A552" t="s">
         <v>81</v>
       </c>
@@ -18074,7 +18075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:13">
+    <row r="553" spans="1:13" hidden="1">
       <c r="A553" t="s">
         <v>81</v>
       </c>
@@ -18103,7 +18104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="554" spans="1:13">
+    <row r="554" spans="1:13" hidden="1">
       <c r="A554" t="s">
         <v>81</v>
       </c>
@@ -18132,7 +18133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="555" spans="1:13">
+    <row r="555" spans="1:13" hidden="1">
       <c r="A555" t="s">
         <v>81</v>
       </c>
@@ -18161,7 +18162,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="556" spans="1:13">
+    <row r="556" spans="1:13" hidden="1">
       <c r="A556" t="s">
         <v>81</v>
       </c>
@@ -18190,7 +18191,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="557" spans="1:13">
+    <row r="557" spans="1:13" hidden="1">
       <c r="A557" t="s">
         <v>81</v>
       </c>
@@ -18219,7 +18220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="558" spans="1:13">
+    <row r="558" spans="1:13" hidden="1">
       <c r="A558" t="s">
         <v>81</v>
       </c>
@@ -18248,7 +18249,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="559" spans="1:13">
+    <row r="559" spans="1:13" hidden="1">
       <c r="A559" t="s">
         <v>81</v>
       </c>
@@ -18277,7 +18278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="560" spans="1:13">
+    <row r="560" spans="1:13" hidden="1">
       <c r="A560" t="s">
         <v>81</v>
       </c>
@@ -18306,7 +18307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="561" spans="1:13">
+    <row r="561" spans="1:13" hidden="1">
       <c r="A561" t="s">
         <v>81</v>
       </c>
@@ -18335,7 +18336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="562" spans="1:13">
+    <row r="562" spans="1:13" hidden="1">
       <c r="A562" t="s">
         <v>81</v>
       </c>
@@ -18364,7 +18365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="563" spans="1:13">
+    <row r="563" spans="1:13" hidden="1">
       <c r="A563" t="s">
         <v>81</v>
       </c>
@@ -18393,7 +18394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="564" spans="1:13">
+    <row r="564" spans="1:13" hidden="1">
       <c r="A564" t="s">
         <v>81</v>
       </c>
@@ -18422,7 +18423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="565" spans="1:13">
+    <row r="565" spans="1:13" hidden="1">
       <c r="A565" t="s">
         <v>81</v>
       </c>
@@ -18451,7 +18452,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="566" spans="1:13">
+    <row r="566" spans="1:13" hidden="1">
       <c r="A566" t="s">
         <v>81</v>
       </c>
@@ -18480,7 +18481,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="567" spans="1:13">
+    <row r="567" spans="1:13" hidden="1">
       <c r="A567" t="s">
         <v>81</v>
       </c>
@@ -18509,7 +18510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="568" spans="1:13">
+    <row r="568" spans="1:13" hidden="1">
       <c r="A568" t="s">
         <v>81</v>
       </c>
@@ -18538,7 +18539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="569" spans="1:13">
+    <row r="569" spans="1:13" hidden="1">
       <c r="A569" t="s">
         <v>81</v>
       </c>
@@ -18567,7 +18568,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="570" spans="1:13">
+    <row r="570" spans="1:13" hidden="1">
       <c r="A570" t="s">
         <v>81</v>
       </c>
@@ -18596,7 +18597,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="571" spans="1:13">
+    <row r="571" spans="1:13" hidden="1">
       <c r="A571" t="s">
         <v>81</v>
       </c>
@@ -18625,7 +18626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:13">
+    <row r="572" spans="1:13" hidden="1">
       <c r="A572" t="s">
         <v>81</v>
       </c>
@@ -18654,7 +18655,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="573" spans="1:13">
+    <row r="573" spans="1:13" hidden="1">
       <c r="A573" t="s">
         <v>81</v>
       </c>
@@ -18683,7 +18684,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="574" spans="1:13">
+    <row r="574" spans="1:13" hidden="1">
       <c r="A574" t="s">
         <v>81</v>
       </c>
@@ -18712,7 +18713,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="575" spans="1:13">
+    <row r="575" spans="1:13" hidden="1">
       <c r="A575" t="s">
         <v>81</v>
       </c>
@@ -18741,7 +18742,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="576" spans="1:13">
+    <row r="576" spans="1:13" hidden="1">
       <c r="A576" t="s">
         <v>81</v>
       </c>
@@ -18770,7 +18771,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="577" spans="1:13">
+    <row r="577" spans="1:13" hidden="1">
       <c r="A577" t="s">
         <v>81</v>
       </c>
@@ -18799,7 +18800,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="578" spans="1:13">
+    <row r="578" spans="1:13" hidden="1">
       <c r="A578" t="s">
         <v>81</v>
       </c>
@@ -18828,7 +18829,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="579" spans="1:13">
+    <row r="579" spans="1:13" hidden="1">
       <c r="A579" t="s">
         <v>81</v>
       </c>
@@ -18874,7 +18875,7 @@
         <v>10</v>
       </c>
       <c r="G580" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="J580" t="s">
         <v>0</v>
@@ -18903,7 +18904,7 @@
         <v>10</v>
       </c>
       <c r="G581" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="J581" t="s">
         <v>0</v>
@@ -18932,7 +18933,7 @@
         <v>10</v>
       </c>
       <c r="G582" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="J582" t="s">
         <v>0</v>
@@ -18961,7 +18962,7 @@
         <v>10</v>
       </c>
       <c r="G583" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="J583" t="s">
         <v>0</v>
@@ -18990,7 +18991,7 @@
         <v>10</v>
       </c>
       <c r="G584" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="J584" t="s">
         <v>0</v>
@@ -19019,7 +19020,7 @@
         <v>10</v>
       </c>
       <c r="G585" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="J585" t="s">
         <v>0</v>
@@ -19031,7 +19032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="586" spans="1:13">
+    <row r="586" spans="1:13" hidden="1">
       <c r="A586" t="s">
         <v>81</v>
       </c>
@@ -19060,7 +19061,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="587" spans="1:13">
+    <row r="587" spans="1:13" hidden="1">
       <c r="A587" t="s">
         <v>81</v>
       </c>
@@ -19089,7 +19090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:13">
+    <row r="588" spans="1:13" hidden="1">
       <c r="A588" t="s">
         <v>81</v>
       </c>
@@ -19118,7 +19119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="589" spans="1:13">
+    <row r="589" spans="1:13" hidden="1">
       <c r="A589" t="s">
         <v>81</v>
       </c>
@@ -19147,7 +19148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:13">
+    <row r="590" spans="1:13" hidden="1">
       <c r="A590" t="s">
         <v>81</v>
       </c>
@@ -19176,7 +19177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="591" spans="1:13">
+    <row r="591" spans="1:13" hidden="1">
       <c r="A591" t="s">
         <v>81</v>
       </c>
@@ -19205,7 +19206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="592" spans="1:13">
+    <row r="592" spans="1:13" hidden="1">
       <c r="A592" t="s">
         <v>81</v>
       </c>
@@ -19234,7 +19235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="593" spans="1:13">
+    <row r="593" spans="1:13" hidden="1">
       <c r="A593" t="s">
         <v>81</v>
       </c>
@@ -19263,7 +19264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="594" spans="1:13">
+    <row r="594" spans="1:13" hidden="1">
       <c r="A594" t="s">
         <v>81</v>
       </c>
@@ -19292,7 +19293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="595" spans="1:13">
+    <row r="595" spans="1:13" hidden="1">
       <c r="A595" t="s">
         <v>81</v>
       </c>
@@ -19321,7 +19322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:13">
+    <row r="596" spans="1:13" hidden="1">
       <c r="A596" t="s">
         <v>81</v>
       </c>
@@ -19350,7 +19351,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="597" spans="1:13">
+    <row r="597" spans="1:13" hidden="1">
       <c r="A597" t="s">
         <v>81</v>
       </c>
@@ -19379,7 +19380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:13">
+    <row r="598" spans="1:13" hidden="1">
       <c r="A598" t="s">
         <v>81</v>
       </c>
@@ -19408,7 +19409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="1:13">
+    <row r="599" spans="1:13" hidden="1">
       <c r="A599" t="s">
         <v>81</v>
       </c>
@@ -19437,7 +19438,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="600" spans="1:13">
+    <row r="600" spans="1:13" hidden="1">
       <c r="A600" t="s">
         <v>81</v>
       </c>
@@ -19466,7 +19467,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="601" spans="1:13">
+    <row r="601" spans="1:13" hidden="1">
       <c r="A601" t="s">
         <v>81</v>
       </c>
@@ -19495,7 +19496,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="602" spans="1:13">
+    <row r="602" spans="1:13" hidden="1">
       <c r="A602" t="s">
         <v>81</v>
       </c>
@@ -19524,7 +19525,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="603" spans="1:13">
+    <row r="603" spans="1:13" hidden="1">
       <c r="A603" t="s">
         <v>81</v>
       </c>
@@ -19553,7 +19554,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="604" spans="1:13">
+    <row r="604" spans="1:13" hidden="1">
       <c r="A604" t="s">
         <v>81</v>
       </c>
@@ -19582,7 +19583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:13">
+    <row r="605" spans="1:13" hidden="1">
       <c r="A605" t="s">
         <v>81</v>
       </c>
@@ -19611,7 +19612,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="606" spans="1:13">
+    <row r="606" spans="1:13" hidden="1">
       <c r="A606" t="s">
         <v>81</v>
       </c>
@@ -19640,7 +19641,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="607" spans="1:13">
+    <row r="607" spans="1:13" hidden="1">
       <c r="A607" t="s">
         <v>81</v>
       </c>
@@ -19669,7 +19670,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="608" spans="1:13">
+    <row r="608" spans="1:13" hidden="1">
       <c r="A608" t="s">
         <v>81</v>
       </c>
@@ -19698,7 +19699,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="609" spans="1:17">
+    <row r="609" spans="1:17" hidden="1">
       <c r="A609" t="s">
         <v>81</v>
       </c>
@@ -19727,7 +19728,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="610" spans="1:17">
+    <row r="610" spans="1:17" hidden="1">
       <c r="A610" t="s">
         <v>81</v>
       </c>
@@ -19756,7 +19757,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="611" spans="1:17">
+    <row r="611" spans="1:17" hidden="1">
       <c r="A611" t="s">
         <v>81</v>
       </c>
@@ -19785,7 +19786,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="612" spans="1:17">
+    <row r="612" spans="1:17" hidden="1">
       <c r="A612" t="s">
         <v>81</v>
       </c>
@@ -19814,7 +19815,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="613" spans="1:17">
+    <row r="613" spans="1:17" hidden="1">
       <c r="A613" t="s">
         <v>81</v>
       </c>
@@ -19843,7 +19844,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="614" spans="1:17">
+    <row r="614" spans="1:17" hidden="1">
       <c r="A614" t="s">
         <v>81</v>
       </c>
@@ -19872,7 +19873,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="615" spans="1:17">
+    <row r="615" spans="1:17" hidden="1">
       <c r="A615" t="s">
         <v>81</v>
       </c>
@@ -19901,7 +19902,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="616" spans="1:17">
+    <row r="616" spans="1:17" hidden="1">
       <c r="A616" t="s">
         <v>81</v>
       </c>
@@ -19930,7 +19931,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="617" spans="1:17">
+    <row r="617" spans="1:17" hidden="1">
       <c r="A617" t="s">
         <v>81</v>
       </c>
@@ -19959,7 +19960,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="618" spans="1:17">
+    <row r="618" spans="1:17" hidden="1">
       <c r="A618" t="s">
         <v>81</v>
       </c>
@@ -19988,7 +19989,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="619" spans="1:17">
+    <row r="619" spans="1:17" hidden="1">
       <c r="A619" t="s">
         <v>81</v>
       </c>
@@ -20017,7 +20018,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="620" spans="1:17">
+    <row r="620" spans="1:17" hidden="1">
       <c r="A620" t="s">
         <v>81</v>
       </c>
@@ -20046,7 +20047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="621" spans="1:17">
+    <row r="621" spans="1:17" hidden="1">
       <c r="A621" t="s">
         <v>81</v>
       </c>
@@ -20075,7 +20076,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="622" spans="1:17">
+    <row r="622" spans="1:17" hidden="1">
       <c r="A622" t="s">
         <v>81</v>
       </c>
@@ -20104,7 +20105,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="623" spans="1:17">
+    <row r="623" spans="1:17" hidden="1">
       <c r="A623" t="s">
         <v>81</v>
       </c>
@@ -20121,13 +20122,13 @@
         <v>2</v>
       </c>
       <c r="G623" t="s">
+        <v>89</v>
+      </c>
+      <c r="H623" t="s">
         <v>90</v>
       </c>
-      <c r="H623" t="s">
+      <c r="I623" t="s">
         <v>91</v>
-      </c>
-      <c r="I623" t="s">
-        <v>92</v>
       </c>
       <c r="J623" t="s">
         <v>0</v>
@@ -20139,10 +20140,10 @@
         <v>104</v>
       </c>
       <c r="Q623" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="624" spans="1:17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="624" spans="1:17" hidden="1">
       <c r="A624" t="s">
         <v>81</v>
       </c>
@@ -20171,7 +20172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="625" spans="1:17">
+    <row r="625" spans="1:17" hidden="1">
       <c r="A625" t="s">
         <v>81</v>
       </c>
@@ -20200,7 +20201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="626" spans="1:17">
+    <row r="626" spans="1:17" hidden="1">
       <c r="A626" t="s">
         <v>81</v>
       </c>
@@ -20229,7 +20230,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="627" spans="1:17">
+    <row r="627" spans="1:17" hidden="1">
       <c r="A627" t="s">
         <v>81</v>
       </c>
@@ -20258,7 +20259,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="628" spans="1:17">
+    <row r="628" spans="1:17" hidden="1">
       <c r="A628" t="s">
         <v>81</v>
       </c>
@@ -20287,7 +20288,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="629" spans="1:17">
+    <row r="629" spans="1:17" hidden="1">
       <c r="A629" t="s">
         <v>81</v>
       </c>
@@ -20316,7 +20317,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="630" spans="1:17">
+    <row r="630" spans="1:17" hidden="1">
       <c r="A630" t="s">
         <v>81</v>
       </c>
@@ -20345,7 +20346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="631" spans="1:17">
+    <row r="631" spans="1:17" hidden="1">
       <c r="A631" t="s">
         <v>81</v>
       </c>
@@ -20374,7 +20375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="632" spans="1:17">
+    <row r="632" spans="1:17" hidden="1">
       <c r="A632" t="s">
         <v>81</v>
       </c>
@@ -20403,7 +20404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:17">
+    <row r="633" spans="1:17" hidden="1">
       <c r="A633" t="s">
         <v>81</v>
       </c>
@@ -20432,7 +20433,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="634" spans="1:17">
+    <row r="634" spans="1:17" hidden="1">
       <c r="A634" t="s">
         <v>81</v>
       </c>
@@ -20461,7 +20462,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="635" spans="1:17">
+    <row r="635" spans="1:17" hidden="1">
       <c r="A635" t="s">
         <v>81</v>
       </c>
@@ -20493,7 +20494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="636" spans="1:17">
+    <row r="636" spans="1:17" hidden="1">
       <c r="A636" t="s">
         <v>81</v>
       </c>
@@ -20525,7 +20526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="637" spans="1:17">
+    <row r="637" spans="1:17" hidden="1">
       <c r="A637" t="s">
         <v>81</v>
       </c>
@@ -20557,7 +20558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="638" spans="1:17">
+    <row r="638" spans="1:17" hidden="1">
       <c r="A638" t="s">
         <v>81</v>
       </c>
@@ -20586,7 +20587,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="639" spans="1:17">
+    <row r="639" spans="1:17" hidden="1">
       <c r="A639" t="s">
         <v>81</v>
       </c>
@@ -20615,7 +20616,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="640" spans="1:17">
+    <row r="640" spans="1:17" hidden="1">
       <c r="A640" t="s">
         <v>81</v>
       </c>
@@ -20644,7 +20645,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="641" spans="1:13">
+    <row r="641" spans="1:13" hidden="1">
       <c r="A641" t="s">
         <v>81</v>
       </c>
@@ -20673,7 +20674,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="642" spans="1:13">
+    <row r="642" spans="1:13" hidden="1">
       <c r="A642" t="s">
         <v>81</v>
       </c>
@@ -20702,7 +20703,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="643" spans="1:13">
+    <row r="643" spans="1:13" hidden="1">
       <c r="A643" t="s">
         <v>81</v>
       </c>
@@ -20731,7 +20732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="644" spans="1:13">
+    <row r="644" spans="1:13" hidden="1">
       <c r="A644" t="s">
         <v>81</v>
       </c>
@@ -20760,7 +20761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="645" spans="1:13">
+    <row r="645" spans="1:13" hidden="1">
       <c r="A645" t="s">
         <v>81</v>
       </c>
@@ -20789,7 +20790,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="646" spans="1:13">
+    <row r="646" spans="1:13" hidden="1">
       <c r="A646" t="s">
         <v>81</v>
       </c>
@@ -20818,7 +20819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="647" spans="1:13">
+    <row r="647" spans="1:13" hidden="1">
       <c r="A647" t="s">
         <v>81</v>
       </c>
@@ -20847,7 +20848,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="648" spans="1:13">
+    <row r="648" spans="1:13" hidden="1">
       <c r="A648" t="s">
         <v>81</v>
       </c>
@@ -20876,7 +20877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="649" spans="1:13">
+    <row r="649" spans="1:13" hidden="1">
       <c r="A649" t="s">
         <v>81</v>
       </c>
@@ -20905,7 +20906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="650" spans="1:13">
+    <row r="650" spans="1:13" hidden="1">
       <c r="A650" t="s">
         <v>81</v>
       </c>
@@ -20922,7 +20923,7 @@
         <v>3</v>
       </c>
       <c r="G650" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J650" t="s">
         <v>0</v>
@@ -20934,7 +20935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="651" spans="1:13">
+    <row r="651" spans="1:13" hidden="1">
       <c r="A651" t="s">
         <v>81</v>
       </c>
@@ -20951,7 +20952,7 @@
         <v>3</v>
       </c>
       <c r="G651" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J651" t="s">
         <v>0</v>
@@ -20980,7 +20981,7 @@
         <v>3</v>
       </c>
       <c r="G652" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J652" t="s">
         <v>0</v>
@@ -21009,7 +21010,7 @@
         <v>3</v>
       </c>
       <c r="G653" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J653" t="s">
         <v>0</v>
@@ -21021,7 +21022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:13">
+    <row r="654" spans="1:13" hidden="1">
       <c r="A654" t="s">
         <v>81</v>
       </c>
@@ -21050,7 +21051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="655" spans="1:13">
+    <row r="655" spans="1:13" hidden="1">
       <c r="A655" t="s">
         <v>81</v>
       </c>
@@ -21079,7 +21080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="656" spans="1:13">
+    <row r="656" spans="1:13" hidden="1">
       <c r="A656" t="s">
         <v>81</v>
       </c>
@@ -21108,7 +21109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="657" spans="1:13">
+    <row r="657" spans="1:13" hidden="1">
       <c r="A657" t="s">
         <v>81</v>
       </c>
@@ -21137,7 +21138,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="658" spans="1:13">
+    <row r="658" spans="1:13" hidden="1">
       <c r="A658" t="s">
         <v>81</v>
       </c>
@@ -21166,7 +21167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="659" spans="1:13">
+    <row r="659" spans="1:13" hidden="1">
       <c r="A659" t="s">
         <v>81</v>
       </c>
@@ -21195,7 +21196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="660" spans="1:13">
+    <row r="660" spans="1:13" hidden="1">
       <c r="A660" t="s">
         <v>81</v>
       </c>
@@ -21224,7 +21225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="661" spans="1:13">
+    <row r="661" spans="1:13" hidden="1">
       <c r="A661" t="s">
         <v>81</v>
       </c>
@@ -21253,7 +21254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="662" spans="1:13">
+    <row r="662" spans="1:13" hidden="1">
       <c r="A662" t="s">
         <v>81</v>
       </c>
@@ -21282,7 +21283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="663" spans="1:13">
+    <row r="663" spans="1:13" hidden="1">
       <c r="A663" t="s">
         <v>81</v>
       </c>
@@ -21311,7 +21312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="664" spans="1:13">
+    <row r="664" spans="1:13" hidden="1">
       <c r="A664" t="s">
         <v>81</v>
       </c>
@@ -21340,7 +21341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="665" spans="1:13">
+    <row r="665" spans="1:13" hidden="1">
       <c r="A665" t="s">
         <v>81</v>
       </c>
@@ -21369,7 +21370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="666" spans="1:13">
+    <row r="666" spans="1:13" hidden="1">
       <c r="A666" t="s">
         <v>81</v>
       </c>
@@ -21398,7 +21399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="667" spans="1:13">
+    <row r="667" spans="1:13" hidden="1">
       <c r="A667" t="s">
         <v>81</v>
       </c>
@@ -21427,7 +21428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="668" spans="1:13">
+    <row r="668" spans="1:13" hidden="1">
       <c r="A668" t="s">
         <v>81</v>
       </c>
@@ -21456,7 +21457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="669" spans="1:13">
+    <row r="669" spans="1:13" hidden="1">
       <c r="A669" t="s">
         <v>81</v>
       </c>
@@ -21485,7 +21486,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="670" spans="1:13">
+    <row r="670" spans="1:13" hidden="1">
       <c r="A670" t="s">
         <v>81</v>
       </c>
@@ -21514,7 +21515,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="671" spans="1:13">
+    <row r="671" spans="1:13" hidden="1">
       <c r="A671" t="s">
         <v>81</v>
       </c>
@@ -21543,7 +21544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="672" spans="1:13">
+    <row r="672" spans="1:13" hidden="1">
       <c r="A672" t="s">
         <v>81</v>
       </c>
@@ -21572,7 +21573,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="673" spans="1:17">
+    <row r="673" spans="1:17" hidden="1">
       <c r="A673" t="s">
         <v>81</v>
       </c>
@@ -21601,7 +21602,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="674" spans="1:17">
+    <row r="674" spans="1:17" hidden="1">
       <c r="A674" t="s">
         <v>81</v>
       </c>
@@ -21630,7 +21631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="675" spans="1:17">
+    <row r="675" spans="1:17" hidden="1">
       <c r="A675" t="s">
         <v>81</v>
       </c>
@@ -21659,7 +21660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="676" spans="1:17">
+    <row r="676" spans="1:17" hidden="1">
       <c r="A676" t="s">
         <v>81</v>
       </c>
@@ -21688,7 +21689,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="677" spans="1:17">
+    <row r="677" spans="1:17" hidden="1">
       <c r="A677" t="s">
         <v>81</v>
       </c>
@@ -21717,7 +21718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:17">
+    <row r="678" spans="1:17" hidden="1">
       <c r="A678" t="s">
         <v>81</v>
       </c>
@@ -21746,7 +21747,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="679" spans="1:17">
+    <row r="679" spans="1:17" hidden="1">
       <c r="A679" t="s">
         <v>81</v>
       </c>
@@ -21775,7 +21776,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="680" spans="1:17">
+    <row r="680" spans="1:17" hidden="1">
       <c r="A680" t="s">
         <v>81</v>
       </c>
@@ -21804,7 +21805,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="681" spans="1:17">
+    <row r="681" spans="1:17" hidden="1">
       <c r="A681" t="s">
         <v>81</v>
       </c>
@@ -21833,7 +21834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="682" spans="1:17">
+    <row r="682" spans="1:17" hidden="1">
       <c r="A682" t="s">
         <v>81</v>
       </c>
@@ -21862,7 +21863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="683" spans="1:17">
+    <row r="683" spans="1:17" hidden="1">
       <c r="A683" t="s">
         <v>81</v>
       </c>
@@ -21891,7 +21892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="684" spans="1:17">
+    <row r="684" spans="1:17" hidden="1">
       <c r="A684" t="s">
         <v>81</v>
       </c>
@@ -21920,7 +21921,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="685" spans="1:17">
+    <row r="685" spans="1:17" hidden="1">
       <c r="A685" t="s">
         <v>81</v>
       </c>
@@ -21952,7 +21953,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="686" spans="1:17">
+    <row r="686" spans="1:17" hidden="1">
       <c r="A686" t="s">
         <v>81</v>
       </c>
@@ -21981,10 +21982,10 @@
         <v>15</v>
       </c>
       <c r="Q686" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="687" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="687" spans="1:17" hidden="1">
       <c r="A687" t="s">
         <v>81</v>
       </c>
@@ -22013,10 +22014,10 @@
         <v>15</v>
       </c>
       <c r="Q687" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="688" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="688" spans="1:17" hidden="1">
       <c r="A688" t="s">
         <v>81</v>
       </c>
@@ -22048,7 +22049,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="689" spans="1:17">
+    <row r="689" spans="1:17" hidden="1">
       <c r="A689" t="s">
         <v>81</v>
       </c>
@@ -22080,7 +22081,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="690" spans="1:17">
+    <row r="690" spans="1:17" hidden="1">
       <c r="A690" t="s">
         <v>81</v>
       </c>
@@ -22109,10 +22110,10 @@
         <v>16</v>
       </c>
       <c r="Q690" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="691" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="691" spans="1:17" hidden="1">
       <c r="A691" t="s">
         <v>81</v>
       </c>
@@ -22144,7 +22145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="692" spans="1:17">
+    <row r="692" spans="1:17" hidden="1">
       <c r="A692" t="s">
         <v>81</v>
       </c>
@@ -22176,7 +22177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="693" spans="1:17">
+    <row r="693" spans="1:17" hidden="1">
       <c r="A693" t="s">
         <v>81</v>
       </c>
@@ -22208,7 +22209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="694" spans="1:17">
+    <row r="694" spans="1:17" hidden="1">
       <c r="A694" t="s">
         <v>81</v>
       </c>
@@ -22240,7 +22241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="695" spans="1:17">
+    <row r="695" spans="1:17" hidden="1">
       <c r="A695" t="s">
         <v>81</v>
       </c>
@@ -22269,10 +22270,10 @@
         <v>60</v>
       </c>
       <c r="Q695" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="696" spans="1:17">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="696" spans="1:17" hidden="1">
       <c r="A696" t="s">
         <v>81</v>
       </c>
@@ -22304,7 +22305,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="697" spans="1:17">
+    <row r="697" spans="1:17" hidden="1">
       <c r="A697" t="s">
         <v>81</v>
       </c>
@@ -22333,10 +22334,10 @@
         <v>12</v>
       </c>
       <c r="Q697" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="698" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="698" spans="1:17" hidden="1">
       <c r="A698" t="s">
         <v>81</v>
       </c>
@@ -22368,7 +22369,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="699" spans="1:17">
+    <row r="699" spans="1:17" hidden="1">
       <c r="A699" t="s">
         <v>81</v>
       </c>
@@ -22400,7 +22401,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="700" spans="1:17">
+    <row r="700" spans="1:17" hidden="1">
       <c r="A700" t="s">
         <v>81</v>
       </c>
@@ -22432,7 +22433,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="701" spans="1:17">
+    <row r="701" spans="1:17" hidden="1">
       <c r="A701" t="s">
         <v>81</v>
       </c>
@@ -22461,10 +22462,10 @@
         <v>11</v>
       </c>
       <c r="Q701" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="702" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="702" spans="1:17" hidden="1">
       <c r="A702" t="s">
         <v>81</v>
       </c>
@@ -22496,7 +22497,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="703" spans="1:17">
+    <row r="703" spans="1:17" hidden="1">
       <c r="A703" t="s">
         <v>81</v>
       </c>
@@ -22528,7 +22529,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="704" spans="1:17">
+    <row r="704" spans="1:17" hidden="1">
       <c r="A704" t="s">
         <v>81</v>
       </c>
@@ -22560,7 +22561,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="705" spans="1:17">
+    <row r="705" spans="1:17" hidden="1">
       <c r="A705" t="s">
         <v>81</v>
       </c>
@@ -22592,7 +22593,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="706" spans="1:17">
+    <row r="706" spans="1:17" hidden="1">
       <c r="A706" t="s">
         <v>81</v>
       </c>
@@ -22624,7 +22625,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="707" spans="1:17">
+    <row r="707" spans="1:17" hidden="1">
       <c r="A707" t="s">
         <v>81</v>
       </c>
@@ -22656,7 +22657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="708" spans="1:17">
+    <row r="708" spans="1:17" hidden="1">
       <c r="A708" t="s">
         <v>81</v>
       </c>
@@ -22688,7 +22689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="709" spans="1:17">
+    <row r="709" spans="1:17" hidden="1">
       <c r="A709" t="s">
         <v>81</v>
       </c>
@@ -22720,7 +22721,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="710" spans="1:17">
+    <row r="710" spans="1:17" hidden="1">
       <c r="A710" t="s">
         <v>81</v>
       </c>
@@ -22752,7 +22753,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="711" spans="1:17">
+    <row r="711" spans="1:17" hidden="1">
       <c r="A711" t="s">
         <v>81</v>
       </c>
@@ -22784,7 +22785,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="712" spans="1:17">
+    <row r="712" spans="1:17" hidden="1">
       <c r="A712" t="s">
         <v>81</v>
       </c>
@@ -22816,7 +22817,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="713" spans="1:17">
+    <row r="713" spans="1:17" hidden="1">
       <c r="A713" t="s">
         <v>81</v>
       </c>
@@ -22848,7 +22849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="714" spans="1:17">
+    <row r="714" spans="1:17" hidden="1">
       <c r="A714" t="s">
         <v>81</v>
       </c>
@@ -22880,7 +22881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="715" spans="1:17">
+    <row r="715" spans="1:17" hidden="1">
       <c r="A715" t="s">
         <v>81</v>
       </c>
@@ -22912,7 +22913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="716" spans="1:17">
+    <row r="716" spans="1:17" hidden="1">
       <c r="A716" t="s">
         <v>81</v>
       </c>
@@ -22944,7 +22945,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="717" spans="1:17">
+    <row r="717" spans="1:17" hidden="1">
       <c r="A717" t="s">
         <v>81</v>
       </c>
@@ -22973,10 +22974,10 @@
         <v>7</v>
       </c>
       <c r="Q717" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="718" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="718" spans="1:17" hidden="1">
       <c r="A718" t="s">
         <v>81</v>
       </c>
@@ -23005,10 +23006,10 @@
         <v>7</v>
       </c>
       <c r="Q718" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="719" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="719" spans="1:17" hidden="1">
       <c r="A719" t="s">
         <v>81</v>
       </c>
@@ -23037,10 +23038,10 @@
         <v>7</v>
       </c>
       <c r="Q719" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="720" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="720" spans="1:17" hidden="1">
       <c r="A720" t="s">
         <v>81</v>
       </c>
@@ -23069,10 +23070,10 @@
         <v>7</v>
       </c>
       <c r="Q720" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="721" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="721" spans="1:17" hidden="1">
       <c r="A721" t="s">
         <v>81</v>
       </c>
@@ -23101,10 +23102,10 @@
         <v>7</v>
       </c>
       <c r="Q721" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="722" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="722" spans="1:17" hidden="1">
       <c r="A722" t="s">
         <v>81</v>
       </c>
@@ -23133,10 +23134,10 @@
         <v>38</v>
       </c>
       <c r="Q722" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="723" spans="1:17">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="723" spans="1:17" hidden="1">
       <c r="A723" t="s">
         <v>81</v>
       </c>
@@ -23168,7 +23169,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="724" spans="1:17">
+    <row r="724" spans="1:17" hidden="1">
       <c r="A724" t="s">
         <v>81</v>
       </c>
@@ -23200,7 +23201,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="725" spans="1:17">
+    <row r="725" spans="1:17" hidden="1">
       <c r="A725" t="s">
         <v>81</v>
       </c>
@@ -23232,7 +23233,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="726" spans="1:17">
+    <row r="726" spans="1:17" hidden="1">
       <c r="A726" t="s">
         <v>81</v>
       </c>
@@ -23264,7 +23265,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="727" spans="1:17">
+    <row r="727" spans="1:17" hidden="1">
       <c r="A727" t="s">
         <v>81</v>
       </c>
@@ -23296,7 +23297,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="728" spans="1:17">
+    <row r="728" spans="1:17" hidden="1">
       <c r="A728" t="s">
         <v>81</v>
       </c>
@@ -23328,7 +23329,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="729" spans="1:17">
+    <row r="729" spans="1:17" hidden="1">
       <c r="A729" t="s">
         <v>81</v>
       </c>
@@ -23360,7 +23361,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="730" spans="1:17">
+    <row r="730" spans="1:17" hidden="1">
       <c r="A730" t="s">
         <v>81</v>
       </c>
@@ -23392,7 +23393,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="731" spans="1:17">
+    <row r="731" spans="1:17" hidden="1">
       <c r="A731" t="s">
         <v>81</v>
       </c>
@@ -23424,7 +23425,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="732" spans="1:17">
+    <row r="732" spans="1:17" hidden="1">
       <c r="A732" t="s">
         <v>81</v>
       </c>
@@ -23456,7 +23457,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="733" spans="1:17">
+    <row r="733" spans="1:17" hidden="1">
       <c r="A733" t="s">
         <v>81</v>
       </c>
@@ -23488,7 +23489,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="734" spans="1:17">
+    <row r="734" spans="1:17" hidden="1">
       <c r="A734" t="s">
         <v>81</v>
       </c>
@@ -23520,7 +23521,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="735" spans="1:17">
+    <row r="735" spans="1:17" hidden="1">
       <c r="A735" t="s">
         <v>81</v>
       </c>
@@ -23552,7 +23553,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="736" spans="1:17">
+    <row r="736" spans="1:17" hidden="1">
       <c r="A736" t="s">
         <v>81</v>
       </c>
@@ -23584,7 +23585,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="737" spans="1:17">
+    <row r="737" spans="1:17" hidden="1">
       <c r="A737" t="s">
         <v>81</v>
       </c>
@@ -23616,7 +23617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="738" spans="1:17">
+    <row r="738" spans="1:17" hidden="1">
       <c r="A738" t="s">
         <v>81</v>
       </c>
@@ -23645,10 +23646,10 @@
         <v>12</v>
       </c>
       <c r="Q738" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="739" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="739" spans="1:17" hidden="1">
       <c r="A739" t="s">
         <v>81</v>
       </c>
@@ -23677,10 +23678,10 @@
         <v>15</v>
       </c>
       <c r="Q739" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="740" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="740" spans="1:17" hidden="1">
       <c r="A740" t="s">
         <v>81</v>
       </c>
@@ -23709,10 +23710,10 @@
         <v>15</v>
       </c>
       <c r="Q740" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="741" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="741" spans="1:17" hidden="1">
       <c r="A741" t="s">
         <v>81</v>
       </c>
@@ -23741,10 +23742,10 @@
         <v>15</v>
       </c>
       <c r="Q741" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="742" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="742" spans="1:17" hidden="1">
       <c r="A742" t="s">
         <v>81</v>
       </c>
@@ -23773,10 +23774,10 @@
         <v>15</v>
       </c>
       <c r="Q742" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="743" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="743" spans="1:17" hidden="1">
       <c r="A743" t="s">
         <v>81</v>
       </c>
@@ -23805,10 +23806,10 @@
         <v>80</v>
       </c>
       <c r="Q743" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="744" spans="1:17">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="744" spans="1:17" hidden="1">
       <c r="A744" t="s">
         <v>81</v>
       </c>
@@ -23840,7 +23841,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="745" spans="1:17">
+    <row r="745" spans="1:17" hidden="1">
       <c r="A745" t="s">
         <v>81</v>
       </c>
@@ -23872,7 +23873,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="746" spans="1:17">
+    <row r="746" spans="1:17" hidden="1">
       <c r="A746" t="s">
         <v>81</v>
       </c>
@@ -23880,7 +23881,7 @@
         <v>83</v>
       </c>
       <c r="C746" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D746">
         <v>2</v>
@@ -23901,10 +23902,10 @@
         <v>8</v>
       </c>
       <c r="Q746" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="747" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="747" spans="1:17" hidden="1">
       <c r="A747" t="s">
         <v>81</v>
       </c>
@@ -23912,7 +23913,7 @@
         <v>83</v>
       </c>
       <c r="C747" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D747">
         <v>2</v>
@@ -23933,10 +23934,10 @@
         <v>8</v>
       </c>
       <c r="Q747" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="748" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="748" spans="1:17" hidden="1">
       <c r="A748" t="s">
         <v>81</v>
       </c>
@@ -23944,7 +23945,7 @@
         <v>83</v>
       </c>
       <c r="C748" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D748">
         <v>2</v>
@@ -23965,10 +23966,10 @@
         <v>8</v>
       </c>
       <c r="Q748" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="749" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="749" spans="1:17" hidden="1">
       <c r="A749" t="s">
         <v>81</v>
       </c>
@@ -23976,7 +23977,7 @@
         <v>83</v>
       </c>
       <c r="C749" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D749">
         <v>2</v>
@@ -23997,10 +23998,10 @@
         <v>8</v>
       </c>
       <c r="Q749" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="750" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="750" spans="1:17" hidden="1">
       <c r="A750" t="s">
         <v>81</v>
       </c>
@@ -24008,7 +24009,7 @@
         <v>83</v>
       </c>
       <c r="C750" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D750">
         <v>2</v>
@@ -24029,10 +24030,10 @@
         <v>48</v>
       </c>
       <c r="Q750" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="751" spans="1:17">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="751" spans="1:17" hidden="1">
       <c r="A751" t="s">
         <v>81</v>
       </c>
@@ -24040,7 +24041,7 @@
         <v>83</v>
       </c>
       <c r="C751" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D751">
         <v>2</v>
@@ -24064,7 +24065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="752" spans="1:17">
+    <row r="752" spans="1:17" hidden="1">
       <c r="A752" t="s">
         <v>81</v>
       </c>
@@ -24072,7 +24073,7 @@
         <v>83</v>
       </c>
       <c r="C752" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D752">
         <v>2</v>
@@ -24096,7 +24097,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="753" spans="1:17">
+    <row r="753" spans="1:17" hidden="1">
       <c r="A753" t="s">
         <v>81</v>
       </c>
@@ -24104,7 +24105,7 @@
         <v>83</v>
       </c>
       <c r="C753" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D753">
         <v>2</v>
@@ -24128,7 +24129,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="754" spans="1:17">
+    <row r="754" spans="1:17" hidden="1">
       <c r="A754" t="s">
         <v>81</v>
       </c>
@@ -24136,7 +24137,7 @@
         <v>83</v>
       </c>
       <c r="C754" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D754">
         <v>2</v>
@@ -24160,7 +24161,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="755" spans="1:17">
+    <row r="755" spans="1:17" hidden="1">
       <c r="A755" t="s">
         <v>81</v>
       </c>
@@ -24192,7 +24193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="756" spans="1:17">
+    <row r="756" spans="1:17" hidden="1">
       <c r="A756" t="s">
         <v>81</v>
       </c>
@@ -24224,7 +24225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="757" spans="1:17">
+    <row r="757" spans="1:17" hidden="1">
       <c r="A757" t="s">
         <v>81</v>
       </c>
@@ -24256,7 +24257,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="758" spans="1:17">
+    <row r="758" spans="1:17" hidden="1">
       <c r="A758" t="s">
         <v>81</v>
       </c>
@@ -24288,7 +24289,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="759" spans="1:17">
+    <row r="759" spans="1:17" hidden="1">
       <c r="A759" t="s">
         <v>81</v>
       </c>
@@ -24320,7 +24321,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="760" spans="1:17">
+    <row r="760" spans="1:17" hidden="1">
       <c r="A760" t="s">
         <v>81</v>
       </c>
@@ -24352,7 +24353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="761" spans="1:17">
+    <row r="761" spans="1:17" hidden="1">
       <c r="A761" t="s">
         <v>81</v>
       </c>
@@ -24384,7 +24385,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="762" spans="1:17">
+    <row r="762" spans="1:17" hidden="1">
       <c r="A762" t="s">
         <v>81</v>
       </c>
@@ -24416,7 +24417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="763" spans="1:17">
+    <row r="763" spans="1:17" hidden="1">
       <c r="A763" t="s">
         <v>81</v>
       </c>
@@ -24448,7 +24449,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="764" spans="1:17">
+    <row r="764" spans="1:17" hidden="1">
       <c r="A764" t="s">
         <v>81</v>
       </c>
@@ -24480,7 +24481,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="765" spans="1:17">
+    <row r="765" spans="1:17" hidden="1">
       <c r="A765" t="s">
         <v>81</v>
       </c>
@@ -24512,7 +24513,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="766" spans="1:17">
+    <row r="766" spans="1:17" hidden="1">
       <c r="A766" t="s">
         <v>81</v>
       </c>
@@ -24544,7 +24545,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="767" spans="1:17">
+    <row r="767" spans="1:17" hidden="1">
       <c r="A767" t="s">
         <v>81</v>
       </c>
@@ -24576,7 +24577,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="768" spans="1:17">
+    <row r="768" spans="1:17" hidden="1">
       <c r="A768" t="s">
         <v>81</v>
       </c>
@@ -24608,7 +24609,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="769" spans="1:17">
+    <row r="769" spans="1:17" hidden="1">
       <c r="A769" t="s">
         <v>81</v>
       </c>
@@ -24640,7 +24641,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="770" spans="1:17">
+    <row r="770" spans="1:17" hidden="1">
       <c r="A770" t="s">
         <v>81</v>
       </c>
@@ -24672,7 +24673,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="771" spans="1:17">
+    <row r="771" spans="1:17" hidden="1">
       <c r="A771" t="s">
         <v>81</v>
       </c>
@@ -24704,7 +24705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="772" spans="1:17">
+    <row r="772" spans="1:17" hidden="1">
       <c r="A772" t="s">
         <v>81</v>
       </c>
@@ -24736,7 +24737,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="773" spans="1:17">
+    <row r="773" spans="1:17" hidden="1">
       <c r="A773" t="s">
         <v>81</v>
       </c>
@@ -24768,7 +24769,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="774" spans="1:17">
+    <row r="774" spans="1:17" hidden="1">
       <c r="A774" t="s">
         <v>81</v>
       </c>
@@ -24800,7 +24801,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="775" spans="1:17">
+    <row r="775" spans="1:17" hidden="1">
       <c r="A775" t="s">
         <v>81</v>
       </c>
@@ -24832,7 +24833,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="776" spans="1:17">
+    <row r="776" spans="1:17" hidden="1">
       <c r="A776" t="s">
         <v>81</v>
       </c>
@@ -24864,7 +24865,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="777" spans="1:17">
+    <row r="777" spans="1:17" hidden="1">
       <c r="A777" t="s">
         <v>81</v>
       </c>
@@ -24896,7 +24897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="778" spans="1:17">
+    <row r="778" spans="1:17" hidden="1">
       <c r="A778" t="s">
         <v>81</v>
       </c>
@@ -24928,7 +24929,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="779" spans="1:17">
+    <row r="779" spans="1:17" hidden="1">
       <c r="A779" t="s">
         <v>81</v>
       </c>
@@ -24960,7 +24961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="780" spans="1:17">
+    <row r="780" spans="1:17" hidden="1">
       <c r="A780" t="s">
         <v>81</v>
       </c>
@@ -24992,7 +24993,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="781" spans="1:17">
+    <row r="781" spans="1:17" hidden="1">
       <c r="A781" t="s">
         <v>81</v>
       </c>
@@ -25024,7 +25025,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="782" spans="1:17">
+    <row r="782" spans="1:17" hidden="1">
       <c r="A782" t="s">
         <v>81</v>
       </c>
@@ -25056,7 +25057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="783" spans="1:17">
+    <row r="783" spans="1:17" hidden="1">
       <c r="A783" t="s">
         <v>81</v>
       </c>
@@ -25088,7 +25089,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="784" spans="1:17">
+    <row r="784" spans="1:17" hidden="1">
       <c r="A784" t="s">
         <v>81</v>
       </c>
@@ -25120,7 +25121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="785" spans="1:17">
+    <row r="785" spans="1:17" hidden="1">
       <c r="A785" t="s">
         <v>81</v>
       </c>
@@ -25152,7 +25153,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="786" spans="1:17">
+    <row r="786" spans="1:17" hidden="1">
       <c r="A786" t="s">
         <v>81</v>
       </c>
@@ -25184,7 +25185,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="787" spans="1:17">
+    <row r="787" spans="1:17" hidden="1">
       <c r="A787" t="s">
         <v>81</v>
       </c>
@@ -25216,7 +25217,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="788" spans="1:17">
+    <row r="788" spans="1:17" hidden="1">
       <c r="A788" t="s">
         <v>81</v>
       </c>
@@ -25248,7 +25249,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="789" spans="1:17">
+    <row r="789" spans="1:17" hidden="1">
       <c r="A789" t="s">
         <v>81</v>
       </c>
@@ -25277,10 +25278,10 @@
         <v>8</v>
       </c>
       <c r="Q789" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="790" spans="1:17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="790" spans="1:17" hidden="1">
       <c r="A790" t="s">
         <v>81</v>
       </c>
@@ -25309,10 +25310,10 @@
         <v>8</v>
       </c>
       <c r="Q790" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="791" spans="1:17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="791" spans="1:17" hidden="1">
       <c r="A791" t="s">
         <v>81</v>
       </c>
@@ -25341,10 +25342,10 @@
         <v>8</v>
       </c>
       <c r="Q791" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="792" spans="1:17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="792" spans="1:17" hidden="1">
       <c r="A792" t="s">
         <v>81</v>
       </c>
@@ -25373,10 +25374,10 @@
         <v>50</v>
       </c>
       <c r="Q792" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="793" spans="1:17">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="793" spans="1:17" hidden="1">
       <c r="A793" t="s">
         <v>81</v>
       </c>
@@ -25405,10 +25406,10 @@
         <v>18</v>
       </c>
       <c r="Q793" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="794" spans="1:17">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="794" spans="1:17" hidden="1">
       <c r="A794" t="s">
         <v>81</v>
       </c>
@@ -25437,10 +25438,10 @@
         <v>2</v>
       </c>
       <c r="Q794" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="795" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="795" spans="1:17" hidden="1">
       <c r="A795" t="s">
         <v>81</v>
       </c>
@@ -25469,10 +25470,10 @@
         <v>2</v>
       </c>
       <c r="Q795" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="796" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="796" spans="1:17" hidden="1">
       <c r="A796" t="s">
         <v>81</v>
       </c>
@@ -25501,10 +25502,10 @@
         <v>2</v>
       </c>
       <c r="Q796" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="797" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="797" spans="1:17" hidden="1">
       <c r="A797" t="s">
         <v>81</v>
       </c>
@@ -25533,10 +25534,10 @@
         <v>2</v>
       </c>
       <c r="Q797" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="798" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="798" spans="1:17" hidden="1">
       <c r="A798" t="s">
         <v>81</v>
       </c>
@@ -25565,10 +25566,10 @@
         <v>2</v>
       </c>
       <c r="Q798" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="799" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="799" spans="1:17" hidden="1">
       <c r="A799" t="s">
         <v>81</v>
       </c>
@@ -25597,10 +25598,10 @@
         <v>2.5</v>
       </c>
       <c r="Q799" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="800" spans="1:17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="800" spans="1:17" hidden="1">
       <c r="A800" t="s">
         <v>81</v>
       </c>
@@ -25629,10 +25630,10 @@
         <v>2.5</v>
       </c>
       <c r="Q800" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="801" spans="1:17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="801" spans="1:17" hidden="1">
       <c r="A801" t="s">
         <v>81</v>
       </c>
@@ -25661,10 +25662,10 @@
         <v>2.5</v>
       </c>
       <c r="Q801" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="802" spans="1:17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="802" spans="1:17" hidden="1">
       <c r="A802" t="s">
         <v>81</v>
       </c>
@@ -25693,10 +25694,10 @@
         <v>2.5</v>
       </c>
       <c r="Q802" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="803" spans="1:17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="803" spans="1:17" hidden="1">
       <c r="A803" t="s">
         <v>81</v>
       </c>
@@ -25725,10 +25726,10 @@
         <v>13</v>
       </c>
       <c r="Q803" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="804" spans="1:17">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="804" spans="1:17" hidden="1">
       <c r="A804" t="s">
         <v>81</v>
       </c>
@@ -25757,10 +25758,10 @@
         <v>26</v>
       </c>
       <c r="Q804" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="805" spans="1:17">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="805" spans="1:17" hidden="1">
       <c r="A805" t="s">
         <v>81</v>
       </c>
@@ -25789,10 +25790,10 @@
         <v>5</v>
       </c>
       <c r="Q805" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="806" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="806" spans="1:17" hidden="1">
       <c r="A806" t="s">
         <v>81</v>
       </c>
@@ -25821,10 +25822,10 @@
         <v>5</v>
       </c>
       <c r="Q806" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="807" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="807" spans="1:17" hidden="1">
       <c r="A807" t="s">
         <v>81</v>
       </c>
@@ -25853,10 +25854,10 @@
         <v>5</v>
       </c>
       <c r="Q807" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="808" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="808" spans="1:17" hidden="1">
       <c r="A808" t="s">
         <v>81</v>
       </c>
@@ -25885,10 +25886,10 @@
         <v>5</v>
       </c>
       <c r="Q808" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="809" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="809" spans="1:17" hidden="1">
       <c r="A809" t="s">
         <v>81</v>
       </c>
@@ -25917,10 +25918,10 @@
         <v>5</v>
       </c>
       <c r="Q809" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="810" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="810" spans="1:17" hidden="1">
       <c r="A810" t="s">
         <v>81</v>
       </c>
@@ -25952,7 +25953,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="811" spans="1:17">
+    <row r="811" spans="1:17" hidden="1">
       <c r="A811" t="s">
         <v>81</v>
       </c>
@@ -25984,7 +25985,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="812" spans="1:17">
+    <row r="812" spans="1:17" hidden="1">
       <c r="A812" t="s">
         <v>81</v>
       </c>
@@ -26016,7 +26017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="813" spans="1:17">
+    <row r="813" spans="1:17" hidden="1">
       <c r="A813" t="s">
         <v>81</v>
       </c>
@@ -26048,7 +26049,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="814" spans="1:17">
+    <row r="814" spans="1:17" hidden="1">
       <c r="A814" t="s">
         <v>81</v>
       </c>
@@ -26080,7 +26081,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="815" spans="1:17">
+    <row r="815" spans="1:17" hidden="1">
       <c r="A815" t="s">
         <v>81</v>
       </c>
@@ -26112,7 +26113,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="816" spans="1:17">
+    <row r="816" spans="1:17" hidden="1">
       <c r="A816" t="s">
         <v>81</v>
       </c>
@@ -26144,7 +26145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="817" spans="1:17">
+    <row r="817" spans="1:17" hidden="1">
       <c r="A817" t="s">
         <v>81</v>
       </c>
@@ -26176,7 +26177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="818" spans="1:17">
+    <row r="818" spans="1:17" hidden="1">
       <c r="A818" t="s">
         <v>81</v>
       </c>
@@ -26208,7 +26209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="819" spans="1:17">
+    <row r="819" spans="1:17" hidden="1">
       <c r="A819" t="s">
         <v>81</v>
       </c>
@@ -26240,7 +26241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="820" spans="1:17">
+    <row r="820" spans="1:17" hidden="1">
       <c r="A820" t="s">
         <v>81</v>
       </c>
@@ -26272,7 +26273,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="821" spans="1:17">
+    <row r="821" spans="1:17" hidden="1">
       <c r="A821" t="s">
         <v>81</v>
       </c>
@@ -26304,7 +26305,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="822" spans="1:17">
+    <row r="822" spans="1:17" hidden="1">
       <c r="A822" t="s">
         <v>81</v>
       </c>
@@ -26336,7 +26337,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="823" spans="1:17">
+    <row r="823" spans="1:17" hidden="1">
       <c r="A823" t="s">
         <v>81</v>
       </c>
@@ -26365,10 +26366,10 @@
         <v>5</v>
       </c>
       <c r="Q823" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="824" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="824" spans="1:17" hidden="1">
       <c r="A824" t="s">
         <v>81</v>
       </c>
@@ -26397,10 +26398,10 @@
         <v>5</v>
       </c>
       <c r="Q824" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="825" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="825" spans="1:17" hidden="1">
       <c r="A825" t="s">
         <v>81</v>
       </c>
@@ -26429,10 +26430,10 @@
         <v>5</v>
       </c>
       <c r="Q825" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="826" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="826" spans="1:17" hidden="1">
       <c r="A826" t="s">
         <v>81</v>
       </c>
@@ -26461,10 +26462,10 @@
         <v>5</v>
       </c>
       <c r="Q826" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="827" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="827" spans="1:17" hidden="1">
       <c r="A827" t="s">
         <v>81</v>
       </c>
@@ -26493,10 +26494,10 @@
         <v>5</v>
       </c>
       <c r="Q827" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="828" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="828" spans="1:17" hidden="1">
       <c r="A828" t="s">
         <v>81</v>
       </c>
@@ -26525,10 +26526,10 @@
         <v>32</v>
       </c>
       <c r="Q828" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="829" spans="1:17">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="829" spans="1:17" hidden="1">
       <c r="A829" t="s">
         <v>81</v>
       </c>
@@ -26557,7 +26558,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="830" spans="1:17">
+    <row r="830" spans="1:17" hidden="1">
       <c r="A830" t="s">
         <v>81</v>
       </c>
@@ -26586,7 +26587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:17">
+    <row r="831" spans="1:17" hidden="1">
       <c r="A831" t="s">
         <v>81</v>
       </c>
@@ -26615,7 +26616,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="832" spans="1:17">
+    <row r="832" spans="1:17" hidden="1">
       <c r="A832" t="s">
         <v>81</v>
       </c>
@@ -26645,7 +26646,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q831" xr:uid="{65CA434C-E6E5-43DD-BDDB-41522A5C0693}"/>
+  <autoFilter ref="A1:Q832" xr:uid="{65CA434C-E6E5-43DD-BDDB-41522A5C0693}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Bryozoa"/>
+        <filter val="Entoprocta"/>
+        <filter val="Hydrozoa"/>
+        <filter val="Platyhelminthes"/>
+        <filter val="Unknown"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/OR1_1219/OR1-1219_RawTypingFile.xlsx
+++ b/OR1_1219/OR1-1219_RawTypingFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\Sorting data\sorting_data_curate\OR1_1219\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D27271-7964-42D5-B780-9A0DD4869545}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182BD878-6BB1-4652-9B17-C7B55392B0FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7500" activeTab="2" xr2:uid="{D8F2AAA5-A412-43E8-BCFA-133F9EDFD9C7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4637" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4643" uniqueCount="98">
   <si>
     <t>C</t>
   </si>
@@ -1285,7 +1285,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H303" sqref="H303"/>
+      <selection pane="bottomLeft" activeCell="Q585" sqref="Q585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1465,7 +1465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" hidden="1">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" hidden="1">
       <c r="A106" t="s">
         <v>81</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" hidden="1">
       <c r="A107" t="s">
         <v>81</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" hidden="1">
       <c r="A108" t="s">
         <v>81</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" hidden="1">
       <c r="A109" t="s">
         <v>81</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" hidden="1">
       <c r="A110" t="s">
         <v>81</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" hidden="1">
       <c r="A111" t="s">
         <v>81</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" hidden="1">
       <c r="A112" t="s">
         <v>81</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" hidden="1">
       <c r="A180" t="s">
         <v>81</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" hidden="1">
       <c r="A181" t="s">
         <v>81</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" hidden="1">
       <c r="A182" t="s">
         <v>81</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" hidden="1">
       <c r="A183" t="s">
         <v>81</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" hidden="1">
       <c r="A184" t="s">
         <v>81</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="220" spans="1:17">
+    <row r="220" spans="1:17" hidden="1">
       <c r="A220" t="s">
         <v>81</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="221" spans="1:17">
+    <row r="221" spans="1:17" hidden="1">
       <c r="A221" t="s">
         <v>81</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="222" spans="1:17">
+    <row r="222" spans="1:17" hidden="1">
       <c r="A222" t="s">
         <v>81</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="223" spans="1:17">
+    <row r="223" spans="1:17" hidden="1">
       <c r="A223" t="s">
         <v>81</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="224" spans="1:17">
+    <row r="224" spans="1:17" hidden="1">
       <c r="A224" t="s">
         <v>81</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="225" spans="1:17">
+    <row r="225" spans="1:17" hidden="1">
       <c r="A225" t="s">
         <v>81</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="226" spans="1:17">
+    <row r="226" spans="1:17" hidden="1">
       <c r="A226" t="s">
         <v>81</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:17" hidden="1">
       <c r="A227" t="s">
         <v>81</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:17" hidden="1">
       <c r="A228" t="s">
         <v>81</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="229" spans="1:17">
+    <row r="229" spans="1:17" hidden="1">
       <c r="A229" t="s">
         <v>81</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="230" spans="1:17">
+    <row r="230" spans="1:17" hidden="1">
       <c r="A230" t="s">
         <v>81</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:17" hidden="1">
       <c r="A231" t="s">
         <v>81</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:17" hidden="1">
       <c r="A232" t="s">
         <v>81</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:17" hidden="1">
       <c r="A233" t="s">
         <v>81</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="234" spans="1:17">
+    <row r="234" spans="1:17" hidden="1">
       <c r="A234" t="s">
         <v>81</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:17" hidden="1">
       <c r="A235" t="s">
         <v>81</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="1:17" hidden="1">
       <c r="A281" t="s">
         <v>81</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="1:17" hidden="1">
       <c r="A282" t="s">
         <v>81</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="302" spans="1:17">
+    <row r="302" spans="1:17" hidden="1">
       <c r="A302" t="s">
         <v>81</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="303" spans="1:17">
+    <row r="303" spans="1:17" hidden="1">
       <c r="A303" t="s">
         <v>81</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="304" spans="1:17">
+    <row r="304" spans="1:17" hidden="1">
       <c r="A304" t="s">
         <v>81</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="305" spans="1:17">
+    <row r="305" spans="1:17" hidden="1">
       <c r="A305" t="s">
         <v>81</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="306" spans="1:17">
+    <row r="306" spans="1:17" hidden="1">
       <c r="A306" t="s">
         <v>81</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="1:17" hidden="1">
       <c r="A307" t="s">
         <v>81</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="308" spans="1:17">
+    <row r="308" spans="1:17" hidden="1">
       <c r="A308" t="s">
         <v>81</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="309" spans="1:17">
+    <row r="309" spans="1:17" hidden="1">
       <c r="A309" t="s">
         <v>81</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="310" spans="1:17">
+    <row r="310" spans="1:17" hidden="1">
       <c r="A310" t="s">
         <v>81</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" hidden="1">
       <c r="A333" t="s">
         <v>81</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" hidden="1">
       <c r="A334" t="s">
         <v>81</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" hidden="1">
       <c r="A335" t="s">
         <v>81</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:17">
+    <row r="347" spans="1:17" hidden="1">
       <c r="A347" t="s">
         <v>81</v>
       </c>
@@ -11791,7 +11791,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="348" spans="1:17">
+    <row r="348" spans="1:17" hidden="1">
       <c r="A348" t="s">
         <v>81</v>
       </c>
@@ -18771,7 +18771,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="577" spans="1:13" hidden="1">
+    <row r="577" spans="1:17" hidden="1">
       <c r="A577" t="s">
         <v>81</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="578" spans="1:13" hidden="1">
+    <row r="578" spans="1:17" hidden="1">
       <c r="A578" t="s">
         <v>81</v>
       </c>
@@ -18829,7 +18829,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="579" spans="1:13" hidden="1">
+    <row r="579" spans="1:17" hidden="1">
       <c r="A579" t="s">
         <v>81</v>
       </c>
@@ -18858,7 +18858,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="580" spans="1:13">
+    <row r="580" spans="1:17" hidden="1">
       <c r="A580" t="s">
         <v>81</v>
       </c>
@@ -18886,8 +18886,11 @@
       <c r="M580">
         <v>1</v>
       </c>
-    </row>
-    <row r="581" spans="1:13">
+      <c r="Q580" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="581" spans="1:17" hidden="1">
       <c r="A581" t="s">
         <v>81</v>
       </c>
@@ -18915,8 +18918,11 @@
       <c r="M581">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="582" spans="1:13">
+      <c r="Q581" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="582" spans="1:17" hidden="1">
       <c r="A582" t="s">
         <v>81</v>
       </c>
@@ -18944,8 +18950,11 @@
       <c r="M582">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="583" spans="1:13">
+      <c r="Q582" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="583" spans="1:17" hidden="1">
       <c r="A583" t="s">
         <v>81</v>
       </c>
@@ -18973,8 +18982,11 @@
       <c r="M583">
         <v>1</v>
       </c>
-    </row>
-    <row r="584" spans="1:13">
+      <c r="Q583" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="584" spans="1:17" hidden="1">
       <c r="A584" t="s">
         <v>81</v>
       </c>
@@ -19002,8 +19014,11 @@
       <c r="M584">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="585" spans="1:13">
+      <c r="Q584" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="585" spans="1:17" hidden="1">
       <c r="A585" t="s">
         <v>81</v>
       </c>
@@ -19031,8 +19046,11 @@
       <c r="M585">
         <v>2</v>
       </c>
-    </row>
-    <row r="586" spans="1:13" hidden="1">
+      <c r="Q585" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="586" spans="1:17" hidden="1">
       <c r="A586" t="s">
         <v>81</v>
       </c>
@@ -19061,7 +19079,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="587" spans="1:13" hidden="1">
+    <row r="587" spans="1:17" hidden="1">
       <c r="A587" t="s">
         <v>81</v>
       </c>
@@ -19090,7 +19108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:13" hidden="1">
+    <row r="588" spans="1:17" hidden="1">
       <c r="A588" t="s">
         <v>81</v>
       </c>
@@ -19119,7 +19137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="589" spans="1:13" hidden="1">
+    <row r="589" spans="1:17" hidden="1">
       <c r="A589" t="s">
         <v>81</v>
       </c>
@@ -19148,7 +19166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:13" hidden="1">
+    <row r="590" spans="1:17" hidden="1">
       <c r="A590" t="s">
         <v>81</v>
       </c>
@@ -19177,7 +19195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="591" spans="1:13" hidden="1">
+    <row r="591" spans="1:17" hidden="1">
       <c r="A591" t="s">
         <v>81</v>
       </c>
@@ -19206,7 +19224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="592" spans="1:13" hidden="1">
+    <row r="592" spans="1:17" hidden="1">
       <c r="A592" t="s">
         <v>81</v>
       </c>
@@ -26650,10 +26668,6 @@
     <filterColumn colId="6">
       <filters>
         <filter val="Bryozoa"/>
-        <filter val="Entoprocta"/>
-        <filter val="Hydrozoa"/>
-        <filter val="Platyhelminthes"/>
-        <filter val="Unknown"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/OR1_1219/OR1-1219_RawTypingFile.xlsx
+++ b/OR1_1219/OR1-1219_RawTypingFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\Sorting data\sorting_data_curate\OR1_1219\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182BD878-6BB1-4652-9B17-C7B55392B0FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3475DAEF-58E4-4E48-85BC-2D3A2915A4FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7500" activeTab="2" xr2:uid="{D8F2AAA5-A412-43E8-BCFA-133F9EDFD9C7}"/>
   </bookViews>
@@ -1285,7 +1285,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q585" sqref="Q585"/>
+      <selection pane="bottomLeft" activeCell="A652" sqref="A652:XFD653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1465,7 +1465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>50</v>
@@ -4578,7 +4578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:17" hidden="1">
+    <row r="106" spans="1:17">
       <c r="A106" t="s">
         <v>81</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>28</v>
       </c>
       <c r="J106" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L106">
         <v>6</v>
@@ -4610,7 +4610,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="107" spans="1:17" hidden="1">
+    <row r="107" spans="1:17">
       <c r="A107" t="s">
         <v>81</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>28</v>
       </c>
       <c r="J107" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L107">
         <v>4</v>
@@ -4642,7 +4642,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="1:17" hidden="1">
+    <row r="108" spans="1:17">
       <c r="A108" t="s">
         <v>81</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>28</v>
       </c>
       <c r="J108" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L108">
         <v>5</v>
@@ -4674,7 +4674,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="109" spans="1:17" hidden="1">
+    <row r="109" spans="1:17">
       <c r="A109" t="s">
         <v>81</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>28</v>
       </c>
       <c r="J109" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L109">
         <v>5</v>
@@ -4706,7 +4706,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="110" spans="1:17" hidden="1">
+    <row r="110" spans="1:17">
       <c r="A110" t="s">
         <v>81</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>28</v>
       </c>
       <c r="J110" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L110">
         <v>130</v>
@@ -4738,7 +4738,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="111" spans="1:17" hidden="1">
+    <row r="111" spans="1:17">
       <c r="A111" t="s">
         <v>81</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>28</v>
       </c>
       <c r="J111" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L111">
         <v>5</v>
@@ -4770,7 +4770,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="1:17" hidden="1">
+    <row r="112" spans="1:17">
       <c r="A112" t="s">
         <v>81</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>28</v>
       </c>
       <c r="J112" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L112">
         <v>2.5</v>
@@ -6763,7 +6763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:17" hidden="1">
+    <row r="180" spans="1:17">
       <c r="A180" t="s">
         <v>81</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>28</v>
       </c>
       <c r="J180" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L180">
         <v>21</v>
@@ -6795,7 +6795,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="181" spans="1:17" hidden="1">
+    <row r="181" spans="1:17">
       <c r="A181" t="s">
         <v>81</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>28</v>
       </c>
       <c r="J181" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L181">
         <v>36</v>
@@ -6827,7 +6827,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="182" spans="1:17" hidden="1">
+    <row r="182" spans="1:17">
       <c r="A182" t="s">
         <v>81</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>28</v>
       </c>
       <c r="J182" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L182">
         <v>11</v>
@@ -6859,7 +6859,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="183" spans="1:17" hidden="1">
+    <row r="183" spans="1:17">
       <c r="A183" t="s">
         <v>81</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>28</v>
       </c>
       <c r="J183" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L183">
         <v>20</v>
@@ -6891,7 +6891,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="184" spans="1:17" hidden="1">
+    <row r="184" spans="1:17">
       <c r="A184" t="s">
         <v>81</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>28</v>
       </c>
       <c r="J184" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L184">
         <v>15</v>
@@ -7956,7 +7956,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="220" spans="1:17" hidden="1">
+    <row r="220" spans="1:17">
       <c r="A220" t="s">
         <v>81</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>28</v>
       </c>
       <c r="J220" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L220">
         <v>45</v>
@@ -7988,7 +7988,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="221" spans="1:17" hidden="1">
+    <row r="221" spans="1:17">
       <c r="A221" t="s">
         <v>81</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>28</v>
       </c>
       <c r="J221" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L221">
         <v>46</v>
@@ -8020,7 +8020,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="222" spans="1:17" hidden="1">
+    <row r="222" spans="1:17">
       <c r="A222" t="s">
         <v>81</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>28</v>
       </c>
       <c r="J222" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L222">
         <v>70</v>
@@ -8052,7 +8052,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="223" spans="1:17" hidden="1">
+    <row r="223" spans="1:17">
       <c r="A223" t="s">
         <v>81</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>28</v>
       </c>
       <c r="J223" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L223">
         <v>37</v>
@@ -8084,7 +8084,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="224" spans="1:17" hidden="1">
+    <row r="224" spans="1:17">
       <c r="A224" t="s">
         <v>81</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>28</v>
       </c>
       <c r="J224" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L224">
         <v>44</v>
@@ -8116,7 +8116,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="225" spans="1:17" hidden="1">
+    <row r="225" spans="1:17">
       <c r="A225" t="s">
         <v>81</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>28</v>
       </c>
       <c r="J225" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L225">
         <v>112</v>
@@ -8148,7 +8148,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="226" spans="1:17" hidden="1">
+    <row r="226" spans="1:17">
       <c r="A226" t="s">
         <v>81</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>28</v>
       </c>
       <c r="J226" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L226">
         <v>95</v>
@@ -8180,7 +8180,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="227" spans="1:17" hidden="1">
+    <row r="227" spans="1:17">
       <c r="A227" t="s">
         <v>81</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>28</v>
       </c>
       <c r="J227" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L227">
         <v>60</v>
@@ -8212,7 +8212,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="228" spans="1:17" hidden="1">
+    <row r="228" spans="1:17">
       <c r="A228" t="s">
         <v>81</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>28</v>
       </c>
       <c r="J228" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L228">
         <v>105</v>
@@ -8244,7 +8244,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="229" spans="1:17" hidden="1">
+    <row r="229" spans="1:17">
       <c r="A229" t="s">
         <v>81</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>28</v>
       </c>
       <c r="J229" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L229">
         <v>40</v>
@@ -8276,7 +8276,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="230" spans="1:17" hidden="1">
+    <row r="230" spans="1:17">
       <c r="A230" t="s">
         <v>81</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>28</v>
       </c>
       <c r="J230" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L230">
         <v>4</v>
@@ -8308,7 +8308,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="231" spans="1:17" hidden="1">
+    <row r="231" spans="1:17">
       <c r="A231" t="s">
         <v>81</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>28</v>
       </c>
       <c r="J231" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L231">
         <v>3.5</v>
@@ -8340,7 +8340,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="232" spans="1:17" hidden="1">
+    <row r="232" spans="1:17">
       <c r="A232" t="s">
         <v>81</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>28</v>
       </c>
       <c r="J232" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L232">
         <v>2</v>
@@ -8372,7 +8372,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="233" spans="1:17" hidden="1">
+    <row r="233" spans="1:17">
       <c r="A233" t="s">
         <v>81</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>28</v>
       </c>
       <c r="J233" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L233">
         <v>2.5</v>
@@ -8404,7 +8404,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="234" spans="1:17" hidden="1">
+    <row r="234" spans="1:17">
       <c r="A234" t="s">
         <v>81</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>28</v>
       </c>
       <c r="J234" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L234">
         <v>35</v>
@@ -8436,7 +8436,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="235" spans="1:17" hidden="1">
+    <row r="235" spans="1:17">
       <c r="A235" t="s">
         <v>81</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>28</v>
       </c>
       <c r="J235" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L235">
         <v>55</v>
@@ -10427,7 +10427,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="302" spans="1:17" hidden="1">
+    <row r="302" spans="1:17">
       <c r="A302" t="s">
         <v>81</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>28</v>
       </c>
       <c r="J302" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L302">
         <v>2.5</v>
@@ -10459,7 +10459,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="303" spans="1:17" hidden="1">
+    <row r="303" spans="1:17">
       <c r="A303" t="s">
         <v>81</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>28</v>
       </c>
       <c r="J303" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L303">
         <v>3</v>
@@ -10491,7 +10491,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="304" spans="1:17" hidden="1">
+    <row r="304" spans="1:17">
       <c r="A304" t="s">
         <v>81</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>28</v>
       </c>
       <c r="J304" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L304">
         <v>2.5</v>
@@ -10523,7 +10523,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="305" spans="1:17" hidden="1">
+    <row r="305" spans="1:17">
       <c r="A305" t="s">
         <v>81</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>28</v>
       </c>
       <c r="J305" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L305">
         <v>2.5</v>
@@ -10555,7 +10555,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="306" spans="1:17" hidden="1">
+    <row r="306" spans="1:17">
       <c r="A306" t="s">
         <v>81</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>28</v>
       </c>
       <c r="J306" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L306">
         <v>5</v>
@@ -10587,7 +10587,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="307" spans="1:17" hidden="1">
+    <row r="307" spans="1:17">
       <c r="A307" t="s">
         <v>81</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>28</v>
       </c>
       <c r="J307" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L307">
         <v>2.5</v>
@@ -10619,7 +10619,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="308" spans="1:17" hidden="1">
+    <row r="308" spans="1:17">
       <c r="A308" t="s">
         <v>81</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>28</v>
       </c>
       <c r="J308" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L308">
         <v>2</v>
@@ -10651,7 +10651,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="309" spans="1:17" hidden="1">
+    <row r="309" spans="1:17">
       <c r="A309" t="s">
         <v>81</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>28</v>
       </c>
       <c r="J309" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L309">
         <v>1</v>
@@ -10683,7 +10683,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="310" spans="1:17" hidden="1">
+    <row r="310" spans="1:17">
       <c r="A310" t="s">
         <v>81</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>28</v>
       </c>
       <c r="J310" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L310">
         <v>2.5</v>
@@ -18858,7 +18858,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="580" spans="1:17" hidden="1">
+    <row r="580" spans="1:17">
       <c r="A580" t="s">
         <v>81</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="581" spans="1:17" hidden="1">
+    <row r="581" spans="1:17">
       <c r="A581" t="s">
         <v>81</v>
       </c>
@@ -18922,7 +18922,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="582" spans="1:17" hidden="1">
+    <row r="582" spans="1:17">
       <c r="A582" t="s">
         <v>81</v>
       </c>
@@ -18954,7 +18954,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="583" spans="1:17" hidden="1">
+    <row r="583" spans="1:17">
       <c r="A583" t="s">
         <v>81</v>
       </c>
@@ -18986,7 +18986,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="584" spans="1:17" hidden="1">
+    <row r="584" spans="1:17">
       <c r="A584" t="s">
         <v>81</v>
       </c>
@@ -19018,7 +19018,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="585" spans="1:17" hidden="1">
+    <row r="585" spans="1:17">
       <c r="A585" t="s">
         <v>81</v>
       </c>
@@ -26668,6 +26668,7 @@
     <filterColumn colId="6">
       <filters>
         <filter val="Bryozoa"/>
+        <filter val="Hydrozoa"/>
       </filters>
     </filterColumn>
   </autoFilter>
